--- a/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
+++ b/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipea\OneDrive\Documentos\HIELO-FOCA\Programacion Supermercados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B8ECA0-1413-4678-B615-17BE25896117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D959888-179A-4EF2-8F63-9ED5B228B9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" activeTab="1" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="416">
   <si>
     <t>REMISION</t>
   </si>
@@ -1405,10 +1405,21 @@
     <t>N° OC</t>
   </si>
   <si>
-    <t>PEDIDOS SUPERMECADOS</t>
-  </si>
-  <si>
     <t>GOMEZ FIERRO JHON ALEXANDER</t>
+  </si>
+  <si>
+    <t>FECHA DE REGISTRO</t>
+  </si>
+  <si>
+    <t>HORA DE REGISTRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Programacion de Pedidos
+SUPERMERCADOS
+Control de Despacho</t>
   </si>
 </sst>
 </file>
@@ -1418,10 +1429,10 @@
   <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;\ #,##0;[Red]\-&quot;$&quot;\ #,##0"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="179" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1648,6 +1659,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1866,7 +1886,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,41 +2100,325 @@
     <xf numFmtId="6" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2122,98 +2426,32 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2221,120 +2459,12 @@
     <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2353,116 +2483,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="42" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2489,6 +2520,112 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FB4C5-A181-2911-7BB6-8A8AF87D81BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="10331" b="12651"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="733425" y="609600"/>
+          <a:ext cx="2667000" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39A33AD6-3091-876E-B0E4-84548698ED7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="21197378">
+          <a:off x="10029826" y="504826"/>
+          <a:ext cx="971550" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2811,946 +2948,946 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="110" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
-      <c r="E1" s="166" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="E1" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="166"/>
-      <c r="H1" s="166" t="s">
+      <c r="F1" s="110"/>
+      <c r="H1" s="110" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="166"/>
-      <c r="J1" s="166"/>
-      <c r="L1" s="181" t="s">
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="L1" s="111" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="181"/>
-      <c r="N1" s="181"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="168" t="s">
+      <c r="B2" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="168" t="s">
+      <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="190" t="s">
+      <c r="E2" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="190"/>
-      <c r="H2" s="179" t="s">
+      <c r="F2" s="112"/>
+      <c r="H2" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="179" t="s">
+      <c r="I2" s="87" t="s">
         <v>55</v>
       </c>
       <c r="J2" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="186" t="s">
+      <c r="L2" s="92" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="186" t="s">
+      <c r="M2" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="186" t="s">
+      <c r="N2" s="92" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="169">
+      <c r="A3" s="77">
         <v>28</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="C3" s="78" t="s">
         <v>378</v>
       </c>
-      <c r="E3" s="180" t="s">
+      <c r="E3" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="167">
+      <c r="F3" s="75">
         <v>3000</v>
       </c>
-      <c r="H3" s="182" t="s">
+      <c r="H3" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="184"/>
-      <c r="L3" s="187" t="s">
+      <c r="J3" s="26"/>
+      <c r="L3" s="93" t="s">
         <v>118</v>
       </c>
-      <c r="M3" s="188">
+      <c r="M3" s="94">
         <v>5</v>
       </c>
-      <c r="N3" s="189">
+      <c r="N3" s="95">
         <v>7725044</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="169">
+      <c r="A4" s="77">
         <v>29</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="170" t="s">
+      <c r="C4" s="78" t="s">
         <v>346</v>
       </c>
-      <c r="E4" s="180" t="s">
+      <c r="E4" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="167">
+      <c r="F4" s="75">
         <v>3900</v>
       </c>
-      <c r="H4" s="182" t="s">
+      <c r="H4" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="I4" s="183" t="s">
+      <c r="I4" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="J4" s="184">
+      <c r="J4" s="26">
         <v>3167400038</v>
       </c>
-      <c r="L4" s="187" t="s">
+      <c r="L4" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="M4" s="188">
+      <c r="M4" s="94">
         <v>6</v>
       </c>
-      <c r="N4" s="189">
+      <c r="N4" s="95">
         <v>17328221</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="169">
+      <c r="A5" s="77">
         <v>30</v>
       </c>
-      <c r="B5" s="169" t="s">
+      <c r="B5" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="170" t="s">
+      <c r="C5" s="78" t="s">
         <v>379</v>
       </c>
-      <c r="E5" s="180" t="s">
+      <c r="E5" s="88" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="167">
+      <c r="F5" s="75">
         <v>9000</v>
       </c>
-      <c r="H5" s="182" t="s">
+      <c r="H5" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="183" t="s">
+      <c r="I5" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="J5" s="184"/>
-      <c r="L5" s="187" t="s">
+      <c r="J5" s="26"/>
+      <c r="L5" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="M5" s="188">
+      <c r="M5" s="94">
         <v>7</v>
       </c>
-      <c r="N5" s="189">
+      <c r="N5" s="95">
         <v>7247582</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="169">
+      <c r="A6" s="77">
         <v>31</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="E6" s="180" t="s">
+      <c r="E6" s="88" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="167">
+      <c r="F6" s="75">
         <v>3500</v>
       </c>
-      <c r="H6" s="182" t="s">
+      <c r="H6" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="183" t="s">
+      <c r="I6" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="184"/>
-      <c r="L6" s="187" t="s">
+      <c r="J6" s="26"/>
+      <c r="L6" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="M6" s="188">
+      <c r="M6" s="94">
         <v>8</v>
       </c>
-      <c r="N6" s="189">
+      <c r="N6" s="95">
         <v>7685879</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="169">
+      <c r="A7" s="77">
         <v>32</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="170" t="s">
+      <c r="C7" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="167">
+      <c r="F7" s="75">
         <v>5500</v>
       </c>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="183" t="s">
+      <c r="I7" s="90" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="184"/>
-      <c r="L7" s="187" t="s">
+      <c r="J7" s="26"/>
+      <c r="L7" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="188">
+      <c r="M7" s="94">
         <v>12</v>
       </c>
-      <c r="N7" s="189">
+      <c r="N7" s="95">
         <v>7721366</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="169">
+      <c r="A8" s="77">
         <v>33</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="170" t="s">
+      <c r="C8" s="78" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="180" t="s">
+      <c r="E8" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="167">
+      <c r="F8" s="75">
         <v>14000</v>
       </c>
-      <c r="H8" s="182" t="s">
+      <c r="H8" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="185" t="s">
+      <c r="I8" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="J8" s="184"/>
-      <c r="L8" s="187" t="s">
+      <c r="J8" s="26"/>
+      <c r="L8" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="M8" s="188">
+      <c r="M8" s="94">
         <v>13</v>
       </c>
-      <c r="N8" s="189">
+      <c r="N8" s="95">
         <v>12121403</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="169">
+      <c r="A9" s="77">
         <v>34</v>
       </c>
-      <c r="B9" s="169" t="s">
+      <c r="B9" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="170" t="s">
+      <c r="C9" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="88" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="167">
+      <c r="F9" s="75">
         <v>13000</v>
       </c>
-      <c r="H9" s="182" t="s">
+      <c r="H9" s="89" t="s">
         <v>63</v>
       </c>
-      <c r="I9" s="183" t="s">
+      <c r="I9" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="184">
+      <c r="J9" s="26">
         <v>3155457907</v>
       </c>
-      <c r="L9" s="187" t="s">
+      <c r="L9" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="M9" s="188">
+      <c r="M9" s="94">
         <v>15</v>
       </c>
-      <c r="N9" s="189">
+      <c r="N9" s="95">
         <v>7731136</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="169">
+      <c r="A10" s="77">
         <v>35</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="170" t="s">
+      <c r="C10" s="78" t="s">
         <v>373</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="167">
+      <c r="F10" s="75">
         <v>17000</v>
       </c>
-      <c r="H10" s="182" t="s">
+      <c r="H10" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="I10" s="183" t="s">
+      <c r="I10" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="184"/>
-      <c r="L10" s="187" t="s">
+      <c r="J10" s="26"/>
+      <c r="L10" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="M10" s="188">
+      <c r="M10" s="94">
         <v>16</v>
       </c>
-      <c r="N10" s="189">
+      <c r="N10" s="95">
         <v>83224248</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="169">
+      <c r="A11" s="77">
         <v>36</v>
       </c>
-      <c r="B11" s="169" t="s">
+      <c r="B11" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="170" t="s">
+      <c r="C11" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="E11" s="180" t="s">
+      <c r="E11" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="167">
+      <c r="F11" s="75">
         <v>15000</v>
       </c>
-      <c r="H11" s="182" t="s">
+      <c r="H11" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="183" t="s">
+      <c r="I11" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="J11" s="184"/>
-      <c r="L11" s="187" t="s">
+      <c r="J11" s="26"/>
+      <c r="L11" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="M11" s="188">
+      <c r="M11" s="94">
         <v>23</v>
       </c>
-      <c r="N11" s="189">
+      <c r="N11" s="95">
         <v>83229799</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="171">
+      <c r="A12" s="79">
         <v>37</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="172" t="s">
+      <c r="C12" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="167">
+      <c r="F12" s="75">
         <v>16000</v>
       </c>
-      <c r="H12" s="182" t="s">
+      <c r="H12" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="183" t="s">
+      <c r="I12" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="J12" s="184">
+      <c r="J12" s="26">
         <v>3174363364</v>
       </c>
-      <c r="L12" s="187" t="s">
+      <c r="L12" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="188">
+      <c r="M12" s="94">
         <v>19</v>
       </c>
-      <c r="N12" s="189">
+      <c r="N12" s="95">
         <v>5165026</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="171">
+      <c r="A13" s="79">
         <v>38</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="172" t="s">
+      <c r="C13" s="80" t="s">
         <v>386</v>
       </c>
-      <c r="E13" s="180" t="s">
+      <c r="E13" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="167">
+      <c r="F13" s="75">
         <v>2000</v>
       </c>
-      <c r="H13" s="182" t="s">
+      <c r="H13" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="183" t="s">
+      <c r="I13" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="J13" s="184"/>
-      <c r="L13" s="187" t="s">
+      <c r="J13" s="26"/>
+      <c r="L13" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="M13" s="188">
+      <c r="M13" s="94">
         <v>24</v>
       </c>
-      <c r="N13" s="189">
+      <c r="N13" s="95">
         <v>36153689</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="171">
+      <c r="A14" s="79">
         <v>39</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="80" t="s">
         <v>381</v>
       </c>
-      <c r="E14" s="180" t="s">
+      <c r="E14" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="167">
+      <c r="F14" s="75">
         <v>3100</v>
       </c>
-      <c r="H14" s="182" t="s">
+      <c r="H14" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="I14" s="183" t="s">
+      <c r="I14" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="J14" s="184">
+      <c r="J14" s="26">
         <v>3124710180</v>
       </c>
-      <c r="L14" s="187" t="s">
+      <c r="L14" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="M14" s="188">
+      <c r="M14" s="94">
         <v>36</v>
       </c>
-      <c r="N14" s="189">
+      <c r="N14" s="95">
         <v>1075320222</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="171">
+      <c r="A15" s="79">
         <v>40</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="80" t="s">
         <v>380</v>
       </c>
-      <c r="E15" s="180" t="s">
+      <c r="E15" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="167">
+      <c r="F15" s="75">
         <v>6500</v>
       </c>
-      <c r="H15" s="182" t="s">
+      <c r="H15" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="183" t="s">
+      <c r="I15" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="J15" s="184"/>
-      <c r="L15" s="187" t="s">
+      <c r="J15" s="26"/>
+      <c r="L15" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="M15" s="188">
+      <c r="M15" s="94">
         <v>26</v>
       </c>
-      <c r="N15" s="189">
+      <c r="N15" s="95">
         <v>12114401</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="171">
+      <c r="A16" s="79">
         <v>41</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="80" t="s">
         <v>346</v>
       </c>
-      <c r="E16" s="180" t="s">
+      <c r="E16" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="167">
+      <c r="F16" s="75">
         <v>12000</v>
       </c>
-      <c r="H16" s="182" t="s">
+      <c r="H16" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="183" t="s">
+      <c r="I16" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="184">
+      <c r="J16" s="26">
         <v>3153236712</v>
       </c>
-      <c r="L16" s="187" t="s">
+      <c r="L16" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="M16" s="188"/>
-      <c r="N16" s="189">
+      <c r="M16" s="94"/>
+      <c r="N16" s="95">
         <v>17632318</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="171">
+      <c r="A17" s="79">
         <v>42</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="L17" s="187" t="s">
+      <c r="L17" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="M17" s="188"/>
-      <c r="N17" s="189">
+      <c r="M17" s="94"/>
+      <c r="N17" s="95">
         <v>12170925</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="171">
+      <c r="A18" s="79">
         <v>44</v>
       </c>
-      <c r="B18" s="171" t="s">
+      <c r="B18" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C18" s="172" t="s">
+      <c r="C18" s="80" t="s">
         <v>383</v>
       </c>
-      <c r="L18" s="187" t="s">
+      <c r="L18" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="M18" s="188"/>
-      <c r="N18" s="189">
+      <c r="M18" s="94"/>
+      <c r="N18" s="95">
         <v>12277398</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="171">
+      <c r="A19" s="79">
         <v>45</v>
       </c>
-      <c r="B19" s="171" t="s">
+      <c r="B19" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="172" t="s">
+      <c r="C19" s="80" t="s">
         <v>378</v>
       </c>
-      <c r="L19" s="187" t="s">
+      <c r="L19" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="M19" s="188"/>
-      <c r="N19" s="189">
+      <c r="M19" s="94"/>
+      <c r="N19" s="95">
         <v>1075222202</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="171">
+      <c r="A20" s="79">
         <v>46</v>
       </c>
-      <c r="B20" s="171" t="s">
+      <c r="B20" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="172" t="s">
+      <c r="C20" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="L20" s="187" t="s">
+      <c r="L20" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="M20" s="188"/>
-      <c r="N20" s="189">
+      <c r="M20" s="94"/>
+      <c r="N20" s="95">
         <v>1007681658</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="173">
+      <c r="A21" s="81">
         <v>5</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="174" t="s">
+      <c r="C21" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="L21" s="187" t="s">
-        <v>412</v>
+      <c r="L21" s="93" t="s">
+        <v>411</v>
       </c>
       <c r="M21" s="26"/>
-      <c r="N21" s="189">
+      <c r="N21" s="95">
         <v>1075299501</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="173">
+      <c r="A22" s="81">
         <v>6</v>
       </c>
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="174" t="s">
+      <c r="C22" s="82" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="173">
+      <c r="A23" s="81">
         <v>7</v>
       </c>
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="82" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="173">
+      <c r="A24" s="81">
         <v>8</v>
       </c>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="174" t="s">
+      <c r="C24" s="82" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="173">
+      <c r="A25" s="81">
         <v>12</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="174" t="s">
+      <c r="C25" s="82" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="173">
+      <c r="A26" s="81">
         <v>13</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="174" t="s">
+      <c r="C26" s="82" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="173">
+      <c r="A27" s="81">
         <v>15</v>
       </c>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="174" t="s">
+      <c r="C27" s="82" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="173">
+      <c r="A28" s="81">
         <v>16</v>
       </c>
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="174" t="s">
+      <c r="C28" s="82" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="173">
+      <c r="A29" s="81">
         <v>19</v>
       </c>
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="174" t="s">
+      <c r="C29" s="82" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="173">
+      <c r="A30" s="81">
         <v>23</v>
       </c>
-      <c r="B30" s="173" t="s">
+      <c r="B30" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="174" t="s">
+      <c r="C30" s="82" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="173">
+      <c r="A31" s="81">
         <v>24</v>
       </c>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="174" t="s">
+      <c r="C31" s="82" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="173">
+      <c r="A32" s="81">
         <v>26</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="174" t="s">
+      <c r="C32" s="82" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="173">
+      <c r="A33" s="81">
         <v>51</v>
       </c>
-      <c r="B33" s="173" t="s">
+      <c r="B33" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="174" t="s">
+      <c r="C33" s="82" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="173">
+      <c r="A34" s="81">
         <v>52</v>
       </c>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="174" t="s">
+      <c r="C34" s="82" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="173">
+      <c r="A35" s="81">
         <v>53</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="174" t="s">
+      <c r="C35" s="82" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="173">
+      <c r="A36" s="81">
         <v>54</v>
       </c>
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="174" t="s">
+      <c r="C36" s="82" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="173">
+      <c r="A37" s="81">
         <v>55</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="174" t="s">
+      <c r="C37" s="82" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="173">
+      <c r="A38" s="81">
         <v>56</v>
       </c>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="174" t="s">
+      <c r="C38" s="82" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="173">
+      <c r="A39" s="81">
         <v>57</v>
       </c>
-      <c r="B39" s="173" t="s">
+      <c r="B39" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="174" t="s">
+      <c r="C39" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="173">
+      <c r="A40" s="81">
         <v>58</v>
       </c>
-      <c r="B40" s="173" t="s">
+      <c r="B40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="174" t="s">
+      <c r="C40" s="82" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="175">
+      <c r="A41" s="83">
         <v>61</v>
       </c>
-      <c r="B41" s="175" t="s">
+      <c r="B41" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C41" s="176" t="s">
+      <c r="C41" s="84" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="175">
+      <c r="A42" s="83">
         <v>62</v>
       </c>
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C42" s="176" t="s">
+      <c r="C42" s="84" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="175">
+      <c r="A43" s="83">
         <v>63</v>
       </c>
-      <c r="B43" s="175" t="s">
+      <c r="B43" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C43" s="176" t="s">
+      <c r="C43" s="84" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="175">
+      <c r="A44" s="83">
         <v>64</v>
       </c>
-      <c r="B44" s="175" t="s">
+      <c r="B44" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C44" s="176" t="s">
+      <c r="C44" s="84" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="175">
+      <c r="A45" s="83">
         <v>65</v>
       </c>
-      <c r="B45" s="175" t="s">
+      <c r="B45" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C45" s="176" t="s">
+      <c r="C45" s="84" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="175">
+      <c r="A46" s="83">
         <v>66</v>
       </c>
-      <c r="B46" s="175" t="s">
+      <c r="B46" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C46" s="176" t="s">
+      <c r="C46" s="84" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="177">
+      <c r="A47" s="85">
         <v>71</v>
       </c>
-      <c r="B47" s="177" t="s">
+      <c r="B47" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="178" t="s">
+      <c r="C47" s="86" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="177">
+      <c r="A48" s="85">
         <v>72</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="178" t="s">
+      <c r="C48" s="86" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="177">
+      <c r="A49" s="85">
         <v>73</v>
       </c>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C49" s="178" t="s">
+      <c r="C49" s="86" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="177">
+      <c r="A50" s="85">
         <v>74</v>
       </c>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C50" s="178" t="s">
+      <c r="C50" s="86" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="177">
+      <c r="A51" s="85">
         <v>75</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C51" s="178" t="s">
+      <c r="C51" s="86" t="s">
         <v>373</v>
       </c>
     </row>
@@ -3809,14 +3946,14 @@
       <c r="B2" s="11">
         <v>45848</v>
       </c>
-      <c r="C2" s="160" t="s">
+      <c r="C2" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="160"/>
-      <c r="E2" s="90">
+      <c r="D2" s="198"/>
+      <c r="E2" s="185">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="185"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -3839,62 +3976,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="171"/>
+      <c r="E4" s="171"/>
+      <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="171"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="86"/>
+      <c r="F5" s="171"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="174" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="139" t="s">
+      <c r="E6" s="158" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="139"/>
+      <c r="F6" s="158"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="142"/>
       <c r="D7" s="25">
         <v>6500</v>
       </c>
-      <c r="E7" s="84" t="s">
+      <c r="E7" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="85"/>
+      <c r="F7" s="144"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -3911,14 +4048,14 @@
       <c r="B11" s="20">
         <v>45806</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="133" t="s">
+      <c r="D11" s="164"/>
+      <c r="E11" s="152" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="133"/>
+      <c r="F11" s="152"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
@@ -3941,178 +4078,178 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="130"/>
+      <c r="C14" s="197"/>
       <c r="D14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="125" t="s">
+      <c r="E14" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="125"/>
+      <c r="F14" s="163"/>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="150" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="119"/>
+      <c r="C15" s="151"/>
       <c r="D15" s="25">
         <v>2200</v>
       </c>
-      <c r="E15" s="84" t="s">
+      <c r="E15" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="85"/>
+      <c r="F15" s="144"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="150" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="119"/>
+      <c r="C16" s="151"/>
       <c r="D16" s="25">
         <v>7700</v>
       </c>
-      <c r="E16" s="84" t="s">
+      <c r="E16" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="85"/>
+      <c r="F16" s="144"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="150" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="119"/>
+      <c r="C17" s="151"/>
       <c r="D17" s="25">
         <v>6200</v>
       </c>
-      <c r="E17" s="84" t="s">
+      <c r="E17" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="85"/>
+      <c r="F17" s="144"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="161" t="s">
+      <c r="B18" s="199" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="199"/>
       <c r="D18" s="25">
         <v>3700</v>
       </c>
-      <c r="E18" s="84" t="s">
+      <c r="E18" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="144"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="161" t="s">
+      <c r="B19" s="199" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="161"/>
+      <c r="C19" s="199"/>
       <c r="D19" s="25">
         <v>7900</v>
       </c>
-      <c r="E19" s="84" t="s">
+      <c r="E19" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="85"/>
+      <c r="F19" s="144"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="114" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="93"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="25">
         <v>6300</v>
       </c>
-      <c r="E20" s="84" t="s">
+      <c r="E20" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="85"/>
+      <c r="F20" s="144"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="162" t="s">
+      <c r="B21" s="200" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="163"/>
+      <c r="C21" s="201"/>
       <c r="D21" s="13">
         <v>13000</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="126"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="118" t="s">
+      <c r="B22" s="150" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="119"/>
+      <c r="C22" s="151"/>
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="84" t="s">
+      <c r="E22" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="85"/>
+      <c r="F22" s="144"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="164"/>
-      <c r="C23" s="165"/>
+      <c r="B23" s="202"/>
+      <c r="C23" s="203"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
+      <c r="E23" s="202"/>
+      <c r="F23" s="203"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="126" t="s">
+      <c r="C28" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="127"/>
-      <c r="E28" s="120"/>
-      <c r="F28" s="121"/>
+      <c r="D28" s="193"/>
+      <c r="E28" s="194"/>
+      <c r="F28" s="195"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
@@ -4129,46 +4266,46 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="125" t="s">
+      <c r="A30" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="125"/>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
+      <c r="B30" s="163"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="163"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="163"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="129" t="s">
+      <c r="B31" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="130"/>
+      <c r="C31" s="197"/>
       <c r="D31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="125" t="s">
+      <c r="E31" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="125"/>
+      <c r="F31" s="163"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="83"/>
+      <c r="C32" s="142"/>
       <c r="D32" s="25">
         <v>9000</v>
       </c>
-      <c r="E32" s="84" t="s">
+      <c r="E32" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="85"/>
+      <c r="F32" s="144"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
@@ -4177,14 +4314,14 @@
       <c r="B36" s="20">
         <v>45867</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="120">
+      <c r="D36" s="193"/>
+      <c r="E36" s="194">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F36" s="121"/>
+      <c r="F36" s="195"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -4207,78 +4344,78 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="125" t="s">
+      <c r="A38" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="163"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="129" t="s">
+      <c r="B39" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="130"/>
+      <c r="C39" s="197"/>
       <c r="D39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="125" t="s">
+      <c r="E39" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="125"/>
+      <c r="F39" s="163"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="83"/>
+      <c r="C40" s="142"/>
       <c r="D40" s="25">
         <v>6500</v>
       </c>
-      <c r="E40" s="84" t="s">
+      <c r="E40" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="85"/>
+      <c r="F40" s="144"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="83" t="s">
+      <c r="B41" s="142" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="83"/>
+      <c r="C41" s="142"/>
       <c r="D41" s="25">
         <v>9000</v>
       </c>
-      <c r="E41" s="84" t="s">
+      <c r="E41" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="85"/>
+      <c r="F41" s="144"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="114" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="93"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="84" t="s">
+      <c r="E42" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="85"/>
+      <c r="F42" s="144"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
@@ -4287,14 +4424,14 @@
       <c r="B45" s="20">
         <v>45883</v>
       </c>
-      <c r="C45" s="126" t="s">
+      <c r="C45" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="127"/>
-      <c r="E45" s="120">
+      <c r="D45" s="193"/>
+      <c r="E45" s="194">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F45" s="121"/>
+      <c r="F45" s="195"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
@@ -4317,30 +4454,30 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="125" t="s">
+      <c r="A47" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="163"/>
+      <c r="F47" s="163"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="142" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="83"/>
+      <c r="C48" s="142"/>
       <c r="D48" s="25">
         <v>6500</v>
       </c>
-      <c r="E48" s="84" t="s">
+      <c r="E48" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="85"/>
+      <c r="F48" s="144"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -4349,14 +4486,14 @@
       <c r="B51" s="20">
         <v>45864</v>
       </c>
-      <c r="C51" s="126" t="s">
+      <c r="C51" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="127"/>
-      <c r="E51" s="120">
+      <c r="D51" s="193"/>
+      <c r="E51" s="194">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F51" s="121"/>
+      <c r="F51" s="195"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
@@ -4373,78 +4510,78 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="125" t="s">
+      <c r="A53" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="163"/>
+      <c r="F53" s="163"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="129" t="s">
+      <c r="B54" s="196" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="130"/>
+      <c r="C54" s="197"/>
       <c r="D54" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="125" t="s">
+      <c r="E54" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="125"/>
+      <c r="F54" s="163"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="82" t="s">
+      <c r="B55" s="147" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="82"/>
+      <c r="C55" s="147"/>
       <c r="D55" s="25">
         <v>6000</v>
       </c>
-      <c r="E55" s="84" t="s">
+      <c r="E55" s="143" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="85"/>
+      <c r="F55" s="144"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="82" t="s">
+      <c r="B56" s="147" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="82"/>
+      <c r="C56" s="147"/>
       <c r="D56" s="25">
         <v>2000</v>
       </c>
-      <c r="E56" s="84" t="s">
+      <c r="E56" s="143" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="85"/>
+      <c r="F56" s="144"/>
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="83" t="s">
+      <c r="B57" s="142" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="83"/>
+      <c r="C57" s="142"/>
       <c r="D57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="84" t="s">
+      <c r="E57" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="85"/>
+      <c r="F57" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4522,10 +4659,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5F25C-3CA1-4780-B63C-D9DEDA2932CE}">
-  <dimension ref="B4:J13"/>
+  <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4534,9 +4671,9 @@
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
     <col min="7" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" customWidth="1"/>
     <col min="12" max="12" width="26.85546875" customWidth="1"/>
@@ -4547,150 +4684,169 @@
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="201" t="s">
-        <v>411</v>
-      </c>
-      <c r="C4" s="201"/>
-      <c r="D4" s="201"/>
-      <c r="E4" s="201"/>
-      <c r="F4" s="201"/>
-      <c r="G4" s="201"/>
-      <c r="H4" s="201"/>
-      <c r="I4" s="201"/>
-      <c r="J4" s="201"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="201"/>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="201"/>
-      <c r="F5" s="201"/>
-      <c r="G5" s="201"/>
-      <c r="H5" s="201"/>
-      <c r="I5" s="201"/>
-      <c r="J5" s="201"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="201"/>
-      <c r="C6" s="201"/>
-      <c r="D6" s="201"/>
-      <c r="E6" s="201"/>
-      <c r="F6" s="201"/>
-      <c r="G6" s="201"/>
-      <c r="H6" s="201"/>
-      <c r="I6" s="201"/>
-      <c r="J6" s="201"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="201"/>
-      <c r="C7" s="201"/>
-      <c r="D7" s="201"/>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="201"/>
-      <c r="I7" s="201"/>
-      <c r="J7" s="201"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="204" t="s">
+        <v>415</v>
+      </c>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
     </row>
     <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="194"/>
-      <c r="C8" s="195"/>
-      <c r="D8" s="194"/>
-      <c r="E8" s="194"/>
-      <c r="F8" s="194"/>
-      <c r="G8" s="194"/>
-      <c r="H8" s="194"/>
-      <c r="I8" s="200"/>
-      <c r="J8" s="200"/>
+      <c r="B8" s="205" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="97"/>
+      <c r="D8" s="206" t="s">
+        <v>413</v>
+      </c>
+      <c r="E8" s="207"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="102" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="107"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="108"/>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="194"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="192"/>
+      <c r="B9" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="206" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="207"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="40"/>
+      <c r="I9" s="102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
     </row>
     <row r="11" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="194" t="s">
+      <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="191" t="s">
+      <c r="C11" s="106" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="191"/>
-      <c r="E11" s="194" t="s">
+      <c r="D11" s="106"/>
+      <c r="E11" s="102" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="194" t="s">
+      <c r="F11" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="194" t="s">
+      <c r="G11" s="102" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="194" t="s">
+      <c r="H11" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="I11" s="191" t="s">
+      <c r="I11" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="191"/>
-    </row>
-    <row r="12" spans="2:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="B12" s="196" t="s">
+      <c r="J11" s="106"/>
+    </row>
+    <row r="12" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="197" t="s">
+      <c r="C12" s="103" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="197"/>
-      <c r="E12" s="202">
+      <c r="D12" s="103"/>
+      <c r="E12" s="100">
         <v>4</v>
       </c>
-      <c r="F12" s="203">
+      <c r="F12" s="101">
         <v>1200300</v>
       </c>
-      <c r="G12" s="199" t="s">
+      <c r="G12" s="99" t="s">
         <v>409</v>
       </c>
-      <c r="H12" s="192">
+      <c r="H12" s="40">
         <v>45454445544</v>
       </c>
-      <c r="I12" s="204" t="s">
+      <c r="I12" s="104" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="204"/>
-    </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="196"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="194"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="194"/>
-      <c r="I13" s="191"/>
-      <c r="J13" s="191"/>
+      <c r="J12" s="104"/>
+    </row>
+    <row r="13" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="98"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="104"/>
+      <c r="J13" s="104"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="B4:J7"/>
@@ -4699,9 +4855,13 @@
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I12:J12"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H8:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4723,15 +4883,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="91" t="s">
+      <c r="B3" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -5425,11 +5585,11 @@
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="119">
         <v>0.25</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="99"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="121"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
@@ -5452,372 +5612,372 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="108"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="131"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="131"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="106" t="s">
+      <c r="C5" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="108"/>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="132"/>
+      <c r="E5" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="107"/>
-      <c r="G5" s="108"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="132"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="92" t="s">
+      <c r="C6" s="114" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="100" t="s">
+      <c r="D6" s="115"/>
+      <c r="E6" s="122" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="101"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="123"/>
+      <c r="G6" s="124"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="109" t="s">
+      <c r="C7" s="133" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="94" t="s">
+      <c r="D7" s="134"/>
+      <c r="E7" s="116" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="96"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="118"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="109" t="s">
+      <c r="C8" s="133" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="110"/>
-      <c r="E8" s="94" t="s">
+      <c r="D8" s="134"/>
+      <c r="E8" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="118"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="92" t="s">
+      <c r="C9" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94" t="s">
+      <c r="D9" s="115"/>
+      <c r="E9" s="116" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="95"/>
-      <c r="G9" s="96"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="118"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="114" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="93"/>
-      <c r="E10" s="94" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="96"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="118"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="92" t="s">
+      <c r="C11" s="114" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="93"/>
-      <c r="E11" s="94" t="s">
+      <c r="D11" s="115"/>
+      <c r="E11" s="116" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="96"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="92" t="s">
+      <c r="C12" s="114" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="93"/>
-      <c r="E12" s="94" t="s">
+      <c r="D12" s="115"/>
+      <c r="E12" s="116" t="s">
         <v>370</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="96"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="118"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="92" t="s">
+      <c r="C13" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="93"/>
-      <c r="E13" s="100" t="s">
+      <c r="D13" s="115"/>
+      <c r="E13" s="122" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="101"/>
-      <c r="G13" s="102"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="124"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="114" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="94" t="s">
+      <c r="D14" s="115"/>
+      <c r="E14" s="116" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="95"/>
-      <c r="G14" s="96"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="118"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="114" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="94" t="s">
+      <c r="D15" s="115"/>
+      <c r="E15" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="95"/>
-      <c r="G15" s="96"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="118"/>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="92" t="s">
+      <c r="C16" s="114" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="94" t="s">
+      <c r="D16" s="115"/>
+      <c r="E16" s="116" t="s">
         <v>366</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="96"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="118"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="93"/>
-      <c r="E17" s="94" t="s">
+      <c r="D17" s="115"/>
+      <c r="E17" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="95"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="118"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="92" t="s">
+      <c r="C18" s="114" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="93"/>
-      <c r="E18" s="94" t="s">
+      <c r="D18" s="115"/>
+      <c r="E18" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="96"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="118"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="116" t="s">
+      <c r="C19" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="117"/>
-      <c r="E19" s="94" t="s">
+      <c r="D19" s="141"/>
+      <c r="E19" s="116" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="118"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="111" t="s">
+      <c r="B20" s="135" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="112"/>
-      <c r="D20" s="112"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="113"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114" t="s">
+      <c r="B21" s="138" t="s">
         <v>372</v>
       </c>
-      <c r="C21" s="115"/>
-      <c r="D21" s="115"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="115"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="139"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="77" t="s">
+      <c r="C23" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="78"/>
-      <c r="E23" s="103" t="s">
+      <c r="D23" s="126"/>
+      <c r="E23" s="127" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="92" t="s">
+      <c r="C24" s="114" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="93"/>
-      <c r="E24" s="103" t="s">
+      <c r="D24" s="115"/>
+      <c r="E24" s="127" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="104"/>
-      <c r="G24" s="105"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="129"/>
     </row>
     <row r="28" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="93"/>
-      <c r="E28" s="94" t="s">
+      <c r="D28" s="115"/>
+      <c r="E28" s="116" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="118"/>
     </row>
     <row r="29" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="92" t="s">
+      <c r="C29" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="93"/>
-      <c r="E29" s="94" t="s">
+      <c r="D29" s="115"/>
+      <c r="E29" s="116" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="118"/>
     </row>
     <row r="30" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="92" t="s">
+      <c r="C30" s="114" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="93"/>
-      <c r="E30" s="94" t="s">
+      <c r="D30" s="115"/>
+      <c r="E30" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="118"/>
     </row>
     <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="94" t="s">
+      <c r="D31" s="115"/>
+      <c r="E31" s="116" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="118"/>
     </row>
     <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="92" t="s">
+      <c r="C32" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="93"/>
-      <c r="E32" s="94" t="s">
+      <c r="D32" s="115"/>
+      <c r="E32" s="116" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="95"/>
-      <c r="G32" s="96"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="118"/>
     </row>
     <row r="33" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="93"/>
-      <c r="E33" s="94" t="s">
+      <c r="D33" s="115"/>
+      <c r="E33" s="116" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="118"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="93"/>
-      <c r="E34" s="100" t="s">
+      <c r="D34" s="115"/>
+      <c r="E34" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="101"/>
-      <c r="G34" s="102"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="124"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
@@ -5827,9 +5987,9 @@
       <c r="D40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="97"/>
-      <c r="F40" s="98"/>
-      <c r="G40" s="99"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="120"/>
+      <c r="G40" s="121"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
@@ -5846,44 +6006,44 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="106" t="s">
+      <c r="B42" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="108"/>
+      <c r="C42" s="131"/>
+      <c r="D42" s="131"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="132"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="106" t="s">
+      <c r="C43" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="106" t="s">
+      <c r="D43" s="132"/>
+      <c r="E43" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="107"/>
-      <c r="G43" s="108"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="132"/>
     </row>
     <row r="44" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
-      <c r="C44" s="92"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="96"/>
+      <c r="C44" s="114"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="116"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="118"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="78"/>
-      <c r="E45" s="103"/>
-      <c r="F45" s="104"/>
-      <c r="G45" s="105"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="126"/>
+      <c r="E45" s="127"/>
+      <c r="F45" s="128"/>
+      <c r="G45" s="129"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
@@ -5893,9 +6053,9 @@
       <c r="D49" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="97"/>
-      <c r="F49" s="98"/>
-      <c r="G49" s="99"/>
+      <c r="E49" s="119"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="121"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
@@ -5912,44 +6072,44 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="106" t="s">
+      <c r="B51" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="107"/>
-      <c r="D51" s="107"/>
-      <c r="E51" s="107"/>
-      <c r="F51" s="107"/>
-      <c r="G51" s="108"/>
+      <c r="C51" s="131"/>
+      <c r="D51" s="131"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="132"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="106" t="s">
+      <c r="C52" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="108"/>
-      <c r="E52" s="106" t="s">
+      <c r="D52" s="132"/>
+      <c r="E52" s="130" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="107"/>
-      <c r="G52" s="108"/>
+      <c r="F52" s="131"/>
+      <c r="G52" s="132"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="78"/>
-      <c r="E53" s="103"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="105"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="126"/>
+      <c r="E53" s="127"/>
+      <c r="F53" s="128"/>
+      <c r="G53" s="129"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="78"/>
-      <c r="E54" s="103"/>
-      <c r="F54" s="104"/>
-      <c r="G54" s="105"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="126"/>
+      <c r="E54" s="127"/>
+      <c r="F54" s="128"/>
+      <c r="G54" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -6058,14 +6218,14 @@
       <c r="C3" s="20">
         <v>45864</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="133">
+      <c r="E3" s="164"/>
+      <c r="F3" s="152">
         <v>0.125</v>
       </c>
-      <c r="G3" s="133"/>
+      <c r="G3" s="152"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6088,222 +6248,222 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="142"/>
       <c r="E7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="143" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="85"/>
+      <c r="G7" s="144"/>
     </row>
     <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="143" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="144"/>
     </row>
     <row r="9" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="83" t="s">
+      <c r="C9" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="142"/>
       <c r="E9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="84" t="s">
+      <c r="F9" s="143" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="85"/>
+      <c r="G9" s="144"/>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="83" t="s">
+      <c r="C10" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="142"/>
       <c r="E10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="84" t="s">
+      <c r="F10" s="143" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="85"/>
+      <c r="G10" s="144"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="76"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="82"/>
+      <c r="G11" s="147"/>
     </row>
     <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="145" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="132"/>
+      <c r="D12" s="146"/>
       <c r="E12" s="48">
         <v>6000</v>
       </c>
-      <c r="F12" s="82" t="s">
+      <c r="F12" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="82"/>
+      <c r="G12" s="147"/>
     </row>
     <row r="13" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="145" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="132"/>
+      <c r="D13" s="146"/>
       <c r="E13" s="48">
         <v>6300</v>
       </c>
-      <c r="F13" s="82" t="s">
+      <c r="F13" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="82"/>
+      <c r="G13" s="147"/>
     </row>
     <row r="14" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="144" t="s">
+      <c r="C14" s="165" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="145"/>
+      <c r="D14" s="166"/>
       <c r="E14" s="6">
         <v>11000</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="81"/>
+      <c r="G14" s="169"/>
     </row>
     <row r="15" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="167" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="146"/>
+      <c r="D15" s="167"/>
       <c r="E15" s="6">
         <v>6300</v>
       </c>
-      <c r="F15" s="80" t="s">
+      <c r="F15" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="81"/>
+      <c r="G15" s="169"/>
     </row>
     <row r="16" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="144" t="s">
+      <c r="C16" s="165" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="145"/>
+      <c r="D16" s="166"/>
       <c r="E16" s="6">
         <v>7000</v>
       </c>
-      <c r="F16" s="80" t="s">
+      <c r="F16" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="81"/>
+      <c r="G16" s="169"/>
     </row>
     <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="144" t="s">
+      <c r="C17" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="145"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="6">
         <v>6300</v>
       </c>
-      <c r="F17" s="80" t="s">
+      <c r="F17" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="81"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="148" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="6">
         <v>2600</v>
       </c>
-      <c r="F18" s="80" t="s">
+      <c r="F18" s="168" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="81"/>
+      <c r="G18" s="169"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -6312,14 +6472,14 @@
       <c r="C21" s="20">
         <v>45882</v>
       </c>
-      <c r="D21" s="128" t="s">
+      <c r="D21" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="128"/>
-      <c r="F21" s="143">
+      <c r="E21" s="164"/>
+      <c r="F21" s="162">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G21" s="143"/>
+      <c r="G21" s="162"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
@@ -6340,86 +6500,86 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
+      <c r="C23" s="163"/>
+      <c r="D23" s="163"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="163"/>
+      <c r="G23" s="163"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="125" t="s">
+      <c r="C24" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="125"/>
+      <c r="D24" s="163"/>
       <c r="E24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="125" t="s">
+      <c r="F24" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="125"/>
+      <c r="G24" s="163"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="83"/>
+      <c r="D25" s="142"/>
       <c r="E25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="85"/>
+      <c r="G25" s="144"/>
     </row>
     <row r="26" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="83"/>
+      <c r="D26" s="142"/>
       <c r="E26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="85"/>
+      <c r="G26" s="144"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="85"/>
+      <c r="F27" s="143"/>
+      <c r="G27" s="144"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="119"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="85"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="144"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="119"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="151"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="85"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="144"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
@@ -6428,14 +6588,14 @@
       <c r="C32" s="20">
         <v>45884</v>
       </c>
-      <c r="D32" s="128" t="s">
+      <c r="D32" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="143">
+      <c r="E32" s="164"/>
+      <c r="F32" s="162">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G32" s="143"/>
+      <c r="G32" s="162"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
@@ -6458,94 +6618,94 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="125" t="s">
+      <c r="B34" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="163"/>
+      <c r="F34" s="163"/>
+      <c r="G34" s="163"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="125" t="s">
+      <c r="C35" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="125"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="125" t="s">
+      <c r="F35" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="125"/>
+      <c r="G35" s="163"/>
     </row>
     <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="83"/>
+      <c r="D36" s="142"/>
       <c r="E36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="84" t="s">
+      <c r="F36" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="85"/>
+      <c r="G36" s="144"/>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="83" t="s">
+      <c r="C37" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="83"/>
+      <c r="D37" s="142"/>
       <c r="E37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="84" t="s">
+      <c r="F37" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="85"/>
+      <c r="G37" s="144"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="83" t="s">
+      <c r="C38" s="142" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="83"/>
+      <c r="D38" s="142"/>
       <c r="E38" s="25">
         <v>3500</v>
       </c>
-      <c r="F38" s="84" t="s">
+      <c r="F38" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="85"/>
+      <c r="G38" s="144"/>
     </row>
     <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="119"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="151"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="84"/>
-      <c r="G39" s="85"/>
+      <c r="F39" s="143"/>
+      <c r="G39" s="144"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="118"/>
-      <c r="D40" s="119"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="151"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="85"/>
+      <c r="F40" s="143"/>
+      <c r="G40" s="144"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
@@ -6554,14 +6714,14 @@
       <c r="C48" s="20">
         <v>45904</v>
       </c>
-      <c r="D48" s="128" t="s">
+      <c r="D48" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="128"/>
-      <c r="F48" s="133">
+      <c r="E48" s="164"/>
+      <c r="F48" s="152">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="133"/>
+      <c r="G48" s="152"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
@@ -6584,75 +6744,75 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="125" t="s">
+      <c r="B50" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="163"/>
+      <c r="F50" s="163"/>
+      <c r="G50" s="163"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="125" t="s">
+      <c r="C51" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="125"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="125" t="s">
+      <c r="F51" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="125"/>
+      <c r="G51" s="163"/>
     </row>
     <row r="52" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="83" t="s">
+      <c r="C52" s="142" t="s">
         <v>357</v>
       </c>
-      <c r="D52" s="83"/>
+      <c r="D52" s="142"/>
       <c r="E52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="84" t="s">
+      <c r="F52" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="85"/>
+      <c r="G52" s="144"/>
     </row>
     <row r="53" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="83" t="s">
+      <c r="C53" s="142" t="s">
         <v>356</v>
       </c>
-      <c r="D53" s="83"/>
+      <c r="D53" s="142"/>
       <c r="E53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="84" t="s">
+      <c r="F53" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="85"/>
+      <c r="G53" s="144"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="142" t="s">
+      <c r="B56" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="134" t="s">
+      <c r="C56" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="136"/>
+      <c r="D56" s="154"/>
+      <c r="E56" s="155"/>
     </row>
     <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="142"/>
+      <c r="B57" s="161"/>
       <c r="C57" s="38" t="s">
         <v>183</v>
       </c>
@@ -6664,7 +6824,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="142"/>
+      <c r="B58" s="161"/>
       <c r="C58" s="38" t="s">
         <v>183</v>
       </c>
@@ -6676,7 +6836,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="142"/>
+      <c r="B59" s="161"/>
       <c r="C59" s="38" t="s">
         <v>183</v>
       </c>
@@ -6688,7 +6848,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="142"/>
+      <c r="B60" s="161"/>
       <c r="C60" s="38" t="s">
         <v>183</v>
       </c>
@@ -6700,7 +6860,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="142"/>
+      <c r="B61" s="161"/>
       <c r="C61" s="38" t="s">
         <v>183</v>
       </c>
@@ -6712,14 +6872,14 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="142"/>
+      <c r="B62" s="161"/>
       <c r="C62" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D62" s="137">
+      <c r="D62" s="156">
         <v>4</v>
       </c>
-      <c r="E62" s="138"/>
+      <c r="E62" s="157"/>
     </row>
     <row r="63" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="55" t="s">
@@ -6728,18 +6888,18 @@
       <c r="C63" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="137">
+      <c r="D63" s="156">
         <v>5</v>
       </c>
-      <c r="E63" s="138"/>
+      <c r="E63" s="157"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="139" t="s">
+      <c r="B68" s="158" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="139"/>
-      <c r="D68" s="139"/>
-      <c r="E68" s="139"/>
+      <c r="C68" s="158"/>
+      <c r="D68" s="158"/>
+      <c r="E68" s="158"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
@@ -7050,18 +7210,18 @@
       <c r="G92" s="26"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="140" t="s">
+      <c r="B95" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="141" t="s">
+      <c r="C95" s="160" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="141"/>
-      <c r="E95" s="141"/>
-      <c r="F95" s="141"/>
+      <c r="D95" s="160"/>
+      <c r="E95" s="160"/>
+      <c r="F95" s="160"/>
     </row>
     <row r="96" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="140"/>
+      <c r="B96" s="159"/>
       <c r="C96" s="38" t="s">
         <v>183</v>
       </c>
@@ -7076,7 +7236,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="140"/>
+      <c r="B97" s="159"/>
       <c r="C97" s="38" t="s">
         <v>183</v>
       </c>
@@ -7094,7 +7254,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="140"/>
+      <c r="B98" s="159"/>
       <c r="C98" s="38" t="s">
         <v>183</v>
       </c>
@@ -7112,7 +7272,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="140"/>
+      <c r="B99" s="159"/>
       <c r="C99" s="38" t="s">
         <v>183</v>
       </c>
@@ -7130,7 +7290,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="140"/>
+      <c r="B100" s="159"/>
       <c r="C100" s="38" t="s">
         <v>183</v>
       </c>
@@ -7148,7 +7308,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="140"/>
+      <c r="B101" s="159"/>
       <c r="C101" s="38" t="s">
         <v>184</v>
       </c>
@@ -7167,97 +7327,97 @@
       <c r="B106" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="83" t="s">
+      <c r="C106" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="83"/>
+      <c r="D106" s="142"/>
       <c r="E106" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="84" t="s">
+      <c r="F106" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="85"/>
+      <c r="G106" s="144"/>
     </row>
     <row r="107" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="83" t="s">
+      <c r="C107" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="83"/>
+      <c r="D107" s="142"/>
       <c r="E107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="84" t="s">
+      <c r="F107" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G107" s="85"/>
+      <c r="G107" s="144"/>
     </row>
     <row r="108" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="83" t="s">
+      <c r="C108" s="142" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="83"/>
+      <c r="D108" s="142"/>
       <c r="E108" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="84" t="s">
+      <c r="F108" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="85"/>
+      <c r="G108" s="144"/>
     </row>
     <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="83" t="s">
+      <c r="C109" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="83"/>
+      <c r="D109" s="142"/>
       <c r="E109" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F109" s="84" t="s">
+      <c r="F109" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="85"/>
+      <c r="G109" s="144"/>
     </row>
     <row r="110" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="83" t="s">
+      <c r="C110" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="83"/>
+      <c r="D110" s="142"/>
       <c r="E110" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F110" s="84" t="s">
+      <c r="F110" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="85"/>
+      <c r="G110" s="144"/>
     </row>
     <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="83" t="s">
+      <c r="C111" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="83"/>
+      <c r="D111" s="142"/>
       <c r="E111" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="84" t="s">
+      <c r="F111" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="85"/>
+      <c r="G111" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -7377,12 +7537,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
+      <c r="E3" s="164"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7399,102 +7559,102 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="163"/>
+      <c r="E5" s="163"/>
+      <c r="F5" s="163"/>
+      <c r="G5" s="163"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="76"/>
+      <c r="D7" s="149"/>
       <c r="E7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="147"/>
+      <c r="G7" s="170"/>
     </row>
     <row r="8" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="75" t="s">
+      <c r="C8" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="76"/>
+      <c r="D8" s="149"/>
       <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="147" t="s">
+      <c r="F8" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="147"/>
+      <c r="G8" s="170"/>
     </row>
     <row r="9" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="75" t="s">
+      <c r="C9" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="149"/>
       <c r="E9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="147" t="s">
+      <c r="F9" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="147"/>
+      <c r="G9" s="170"/>
     </row>
     <row r="10" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C10" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="76"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="147" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="82"/>
+      <c r="G10" s="147"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="139" t="s">
+      <c r="B15" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="139"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="158"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -7709,12 +7869,12 @@
         <v>1</v>
       </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="128" t="s">
+      <c r="D44" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133"/>
+      <c r="E44" s="164"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="152"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
@@ -7731,218 +7891,218 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="125" t="s">
+      <c r="B46" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="163"/>
+      <c r="F46" s="163"/>
+      <c r="G46" s="163"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="125" t="s">
+      <c r="C47" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="125"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="125" t="s">
+      <c r="F47" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="125"/>
+      <c r="G47" s="163"/>
     </row>
     <row r="48" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="75" t="s">
+      <c r="C48" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="76"/>
+      <c r="D48" s="149"/>
       <c r="E48" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="147" t="s">
+      <c r="F48" s="170" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="147"/>
+      <c r="G48" s="170"/>
     </row>
     <row r="49" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="76"/>
+      <c r="D49" s="149"/>
       <c r="E49" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="147" t="s">
+      <c r="F49" s="170" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="147"/>
+      <c r="G49" s="170"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="76"/>
+      <c r="D50" s="149"/>
       <c r="E50" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="82"/>
-      <c r="G50" s="82"/>
+      <c r="F50" s="147"/>
+      <c r="G50" s="147"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="75" t="s">
+      <c r="C51" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="76"/>
+      <c r="D51" s="149"/>
       <c r="E51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="82"/>
-      <c r="G51" s="82"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
     </row>
     <row r="61" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="75" t="s">
+      <c r="C61" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="76"/>
+      <c r="D61" s="149"/>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="147" t="s">
+      <c r="F61" s="170" t="s">
         <v>278</v>
       </c>
-      <c r="G61" s="147"/>
+      <c r="G61" s="170"/>
     </row>
     <row r="62" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="75" t="s">
+      <c r="C62" s="148" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="76"/>
+      <c r="D62" s="149"/>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="147" t="s">
+      <c r="F62" s="170" t="s">
         <v>277</v>
       </c>
-      <c r="G62" s="147"/>
+      <c r="G62" s="170"/>
     </row>
     <row r="63" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="75" t="s">
+      <c r="C63" s="148" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="76"/>
+      <c r="D63" s="149"/>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="147" t="s">
+      <c r="F63" s="170" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="147"/>
+      <c r="G63" s="170"/>
     </row>
     <row r="64" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C64" s="75" t="s">
+      <c r="C64" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="76"/>
+      <c r="D64" s="149"/>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="82" t="s">
+      <c r="F64" s="147" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="82"/>
+      <c r="G64" s="147"/>
     </row>
     <row r="65" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="75" t="s">
+      <c r="C65" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="76"/>
+      <c r="D65" s="149"/>
       <c r="E65" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="82" t="s">
+      <c r="F65" s="147" t="s">
         <v>282</v>
       </c>
-      <c r="G65" s="82"/>
+      <c r="G65" s="147"/>
     </row>
     <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="76"/>
+      <c r="D66" s="149"/>
       <c r="E66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="82" t="s">
+      <c r="F66" s="147" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="82"/>
+      <c r="G66" s="147"/>
     </row>
     <row r="67" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="75" t="s">
+      <c r="C67" s="148" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="76"/>
+      <c r="D67" s="149"/>
       <c r="E67" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="82" t="s">
+      <c r="F67" s="147" t="s">
         <v>285</v>
       </c>
-      <c r="G67" s="82"/>
+      <c r="G67" s="147"/>
     </row>
     <row r="68" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="75" t="s">
+      <c r="C68" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="76"/>
+      <c r="D68" s="149"/>
       <c r="E68" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="82" t="s">
+      <c r="F68" s="147" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="82"/>
+      <c r="G68" s="147"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -8019,14 +8179,14 @@
       <c r="C3" s="20">
         <v>45797</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="133">
+      <c r="E3" s="164"/>
+      <c r="F3" s="152">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="133"/>
+      <c r="G3" s="152"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
@@ -8049,74 +8209,74 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="124"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="179"/>
+      <c r="F5" s="179"/>
+      <c r="G5" s="180"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="125" t="s">
+      <c r="C6" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="125"/>
+      <c r="D6" s="163"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="125" t="s">
+      <c r="F6" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="125"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="167" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="146"/>
+      <c r="D7" s="167"/>
       <c r="E7" s="25">
         <v>8500</v>
       </c>
-      <c r="F7" s="147" t="s">
+      <c r="F7" s="170" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="147"/>
+      <c r="G7" s="170"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="83" t="s">
+      <c r="C8" s="142" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="83"/>
+      <c r="D8" s="142"/>
       <c r="E8" s="25">
         <v>6500</v>
       </c>
-      <c r="F8" s="84" t="s">
+      <c r="F8" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="85"/>
+      <c r="G8" s="144"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="153"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
@@ -8133,46 +8293,46 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="86" t="s">
+      <c r="B13" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="171"/>
       <c r="E14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="86" t="s">
+      <c r="F14" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="86"/>
+      <c r="G14" s="171"/>
     </row>
     <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="79" t="s">
+      <c r="C15" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="79"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="6">
         <v>17000</v>
       </c>
-      <c r="F15" s="79" t="s">
+      <c r="F15" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="79"/>
+      <c r="G15" s="174"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
@@ -8184,11 +8344,11 @@
       <c r="D19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="152">
+      <c r="E19" s="177">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F19" s="152"/>
-      <c r="G19" s="152"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
@@ -8211,60 +8371,60 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="150" t="s">
+      <c r="B21" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="150"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="150"/>
-      <c r="G21" s="150"/>
+      <c r="C21" s="175"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="150" t="s">
+      <c r="C22" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="150"/>
+      <c r="D22" s="175"/>
       <c r="E22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="86" t="s">
+      <c r="F22" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="86"/>
+      <c r="G22" s="171"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="151" t="s">
+      <c r="C23" s="176" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="151"/>
+      <c r="D23" s="176"/>
       <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="148" t="s">
+      <c r="F23" s="172" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="149"/>
+      <c r="G23" s="173"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="139" t="s">
+      <c r="C24" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="139"/>
+      <c r="D24" s="158"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="148" t="s">
+      <c r="F24" s="172" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="149"/>
+      <c r="G24" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8323,14 +8483,14 @@
       <c r="B1" s="3">
         <v>45924</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="90">
+      <c r="D1" s="182"/>
+      <c r="E1" s="185">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="90"/>
+      <c r="F1" s="185"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8353,155 +8513,155 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="171"/>
       <c r="D4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="86"/>
+      <c r="F4" s="171"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="75" t="s">
+      <c r="B5" s="148" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="76"/>
+      <c r="C5" s="149"/>
       <c r="D5" s="48">
         <v>8300</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="82"/>
+      <c r="F5" s="147"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="75" t="s">
+      <c r="B6" s="148" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="76"/>
+      <c r="C6" s="149"/>
       <c r="D6" s="48">
         <v>6300</v>
       </c>
-      <c r="E6" s="82" t="s">
+      <c r="E6" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="82"/>
+      <c r="F6" s="147"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="76"/>
+      <c r="C7" s="149"/>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="78"/>
+      <c r="F7" s="126"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="148" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="149"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="75" t="s">
+      <c r="E8" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="149"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="83"/>
+      <c r="C9" s="142"/>
       <c r="D9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="85"/>
+      <c r="F9" s="144"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="83"/>
+      <c r="C10" s="142"/>
       <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="84" t="s">
+      <c r="E10" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="144"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="142" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="83"/>
+      <c r="C11" s="142"/>
       <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="85"/>
+      <c r="F11" s="144"/>
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="88"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="184"/>
+      <c r="F12" s="184"/>
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8515,292 +8675,292 @@
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="174"/>
       <c r="D16" s="6">
         <v>11000</v>
       </c>
-      <c r="E16" s="82" t="s">
+      <c r="E16" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="82"/>
+      <c r="F16" s="147"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="174"/>
       <c r="D17" s="6">
         <v>6000</v>
       </c>
-      <c r="E17" s="79" t="s">
+      <c r="E17" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="174"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="174"/>
       <c r="D18" s="6">
         <v>3000</v>
       </c>
-      <c r="E18" s="79" t="s">
+      <c r="E18" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="79"/>
+      <c r="F18" s="174"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="174" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="174"/>
       <c r="D19" s="6">
         <v>2500</v>
       </c>
-      <c r="E19" s="79" t="s">
+      <c r="E19" s="174" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="79"/>
+      <c r="F19" s="174"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="174" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="174"/>
       <c r="D20" s="6">
         <v>11000</v>
       </c>
-      <c r="E20" s="82" t="s">
+      <c r="E20" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="82"/>
+      <c r="F20" s="147"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="148" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="76"/>
+      <c r="C21" s="149"/>
       <c r="D21" s="6">
         <v>3000</v>
       </c>
-      <c r="E21" s="77" t="s">
+      <c r="E21" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="126"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="174" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="79"/>
+      <c r="C22" s="174"/>
       <c r="D22" s="6">
         <v>2300</v>
       </c>
-      <c r="E22" s="79" t="s">
+      <c r="E22" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="79"/>
+      <c r="F22" s="174"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="148" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="149"/>
       <c r="D23" s="6">
         <v>2300</v>
       </c>
-      <c r="E23" s="77" t="s">
+      <c r="E23" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="78"/>
+      <c r="F23" s="126"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="75" t="s">
+      <c r="E24" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="149"/>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="148" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="75" t="s">
+      <c r="E25" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="149"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="148" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="76"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="75" t="s">
+      <c r="E26" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="149"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="75" t="s">
+      <c r="B27" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="75" t="s">
+      <c r="E27" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="149"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="75" t="s">
+      <c r="B28" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="76"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="75" t="s">
+      <c r="E28" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="149"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="75" t="s">
+      <c r="B29" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="149"/>
       <c r="D29" s="48">
         <v>3000</v>
       </c>
-      <c r="E29" s="82" t="s">
+      <c r="E29" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="82"/>
+      <c r="F29" s="147"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="148" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="76"/>
+      <c r="C30" s="149"/>
       <c r="D30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="82" t="s">
+      <c r="E30" s="147" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="82"/>
+      <c r="F30" s="147"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="148" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="76"/>
+      <c r="C31" s="149"/>
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="75" t="s">
+      <c r="E31" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="149"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="75" t="s">
+      <c r="B32" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="149"/>
       <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="75" t="s">
+      <c r="E32" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="33" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="75" t="s">
+      <c r="B33" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="76"/>
+      <c r="C33" s="149"/>
       <c r="D33" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="80" t="s">
+      <c r="E33" s="168" t="s">
         <v>283</v>
       </c>
-      <c r="F33" s="81"/>
+      <c r="F33" s="169"/>
       <c r="I33" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8810,14 +8970,14 @@
       <c r="B36" s="3">
         <v>45867</v>
       </c>
-      <c r="C36" s="89" t="s">
+      <c r="C36" s="182" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90">
+      <c r="D36" s="182"/>
+      <c r="E36" s="185">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F36" s="90"/>
+      <c r="F36" s="185"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -8840,158 +9000,158 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="86" t="s">
+      <c r="A38" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="86"/>
-      <c r="C38" s="86"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="86"/>
-      <c r="F38" s="86"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="86" t="s">
+      <c r="B39" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="86"/>
+      <c r="C39" s="171"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="75" t="s">
+      <c r="B40" s="148" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="76"/>
+      <c r="C40" s="149"/>
       <c r="D40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="75" t="s">
+      <c r="E40" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="76"/>
+      <c r="F40" s="149"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="75" t="s">
+      <c r="B41" s="148" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="76"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="75" t="s">
+      <c r="E41" s="148" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="76"/>
+      <c r="F41" s="149"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="148" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="76"/>
+      <c r="C42" s="149"/>
       <c r="D42" s="6">
         <v>3400</v>
       </c>
-      <c r="E42" s="77" t="s">
+      <c r="E42" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="78"/>
+      <c r="F42" s="126"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B43" s="83" t="s">
+      <c r="B43" s="142" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="83"/>
+      <c r="C43" s="142"/>
       <c r="D43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="84" t="s">
+      <c r="E43" s="143" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="85"/>
+      <c r="F43" s="144"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="83" t="s">
+      <c r="B44" s="142" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="83"/>
+      <c r="C44" s="142"/>
       <c r="D44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="84" t="s">
+      <c r="E44" s="143" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="85"/>
+      <c r="F44" s="144"/>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="83" t="s">
+      <c r="B45" s="142" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="83"/>
+      <c r="C45" s="142"/>
       <c r="D45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="84" t="s">
+      <c r="E45" s="143" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="85"/>
+      <c r="F45" s="144"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="83" t="s">
+      <c r="B46" s="142" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="83"/>
+      <c r="C46" s="142"/>
       <c r="D46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="84" t="s">
+      <c r="E46" s="143" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="85"/>
+      <c r="F46" s="144"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="83" t="s">
+      <c r="B47" s="142" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="83"/>
+      <c r="C47" s="142"/>
       <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="84" t="s">
+      <c r="E47" s="143" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="85"/>
+      <c r="F47" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -9102,14 +9262,14 @@
       <c r="B1" s="3">
         <v>45842</v>
       </c>
-      <c r="C1" s="158" t="s">
+      <c r="C1" s="190" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="159"/>
-      <c r="E1" s="153">
+      <c r="D1" s="191"/>
+      <c r="E1" s="181">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="79"/>
+      <c r="F1" s="174"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -9132,24 +9292,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="171" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
+      <c r="B3" s="171"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
+      <c r="E3" s="171"/>
+      <c r="F3" s="171"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
+      <c r="A4" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="171"/>
+      <c r="C4" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="86"/>
+      <c r="D4" s="171"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
@@ -9158,14 +9318,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="154" t="s">
+      <c r="A5" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="144" t="s">
+      <c r="B5" s="187"/>
+      <c r="C5" s="165" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="145"/>
+      <c r="D5" s="166"/>
       <c r="E5" s="2">
         <v>11000</v>
       </c>
@@ -9174,14 +9334,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="154" t="s">
+      <c r="A6" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="155"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="187"/>
+      <c r="C6" s="167" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="146"/>
+      <c r="D6" s="167"/>
       <c r="E6" s="2">
         <v>6300</v>
       </c>
@@ -9190,14 +9350,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="154" t="s">
+      <c r="A7" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="155"/>
-      <c r="C7" s="144" t="s">
+      <c r="B7" s="187"/>
+      <c r="C7" s="165" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="145"/>
+      <c r="D7" s="166"/>
       <c r="E7" s="2">
         <v>7000</v>
       </c>
@@ -9206,14 +9366,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="155"/>
-      <c r="C8" s="144" t="s">
+      <c r="B8" s="187"/>
+      <c r="C8" s="165" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="145"/>
+      <c r="D8" s="166"/>
       <c r="E8" s="6">
         <v>6300</v>
       </c>
@@ -9222,14 +9382,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="79" t="s">
+      <c r="B9" s="149"/>
+      <c r="C9" s="174" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="79"/>
+      <c r="D9" s="174"/>
       <c r="E9" s="15">
         <v>6000</v>
       </c>
@@ -9238,14 +9398,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="116" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="118"/>
+      <c r="C10" s="143" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="144"/>
       <c r="E10" s="61" t="s">
         <v>0</v>
       </c>
@@ -9254,14 +9414,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="116" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="96"/>
-      <c r="C11" s="84" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="143" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="85"/>
+      <c r="D11" s="144"/>
       <c r="E11" s="61" t="s">
         <v>0</v>
       </c>
@@ -9270,14 +9430,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75" t="s">
+      <c r="A12" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="75" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="148" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="76"/>
+      <c r="D12" s="149"/>
       <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
@@ -9288,14 +9448,14 @@
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="154" t="s">
+      <c r="A15" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="155"/>
-      <c r="C15" s="75" t="s">
+      <c r="B15" s="187"/>
+      <c r="C15" s="148" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="76"/>
+      <c r="D15" s="149"/>
       <c r="E15" s="2">
         <v>2600</v>
       </c>
@@ -9304,14 +9464,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="154" t="s">
+      <c r="A16" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="155"/>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="187"/>
+      <c r="C16" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="76"/>
+      <c r="D16" s="149"/>
       <c r="E16" s="2">
         <v>2600</v>
       </c>
@@ -9320,14 +9480,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="154" t="s">
+      <c r="A17" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="155"/>
-      <c r="C17" s="144" t="s">
+      <c r="B17" s="187"/>
+      <c r="C17" s="165" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="145"/>
+      <c r="D17" s="166"/>
       <c r="E17" s="2">
         <v>6300</v>
       </c>
@@ -9336,14 +9496,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="148" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="75" t="s">
+      <c r="B18" s="149"/>
+      <c r="C18" s="148" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="76"/>
+      <c r="D18" s="149"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
@@ -9352,14 +9512,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="75" t="s">
+      <c r="A19" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="75" t="s">
+      <c r="B19" s="149"/>
+      <c r="C19" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="76"/>
+      <c r="D19" s="149"/>
       <c r="E19" s="6">
         <v>2300</v>
       </c>
@@ -9368,14 +9528,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="146" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="146"/>
+      <c r="D20" s="167"/>
       <c r="E20" s="15">
         <v>2300</v>
       </c>
@@ -9384,28 +9544,28 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="75" t="s">
+      <c r="A21" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="79" t="s">
+      <c r="B21" s="149"/>
+      <c r="C21" s="174" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="156" t="s">
+      <c r="D21" s="174"/>
+      <c r="E21" s="188" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="157"/>
+      <c r="F21" s="189"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="A22" s="145" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="132"/>
-      <c r="C22" s="79" t="s">
+      <c r="B22" s="146"/>
+      <c r="C22" s="174" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="79"/>
+      <c r="D22" s="174"/>
       <c r="E22" s="15">
         <v>6000</v>
       </c>
@@ -9414,14 +9574,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="116" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="84" t="s">
+      <c r="B23" s="118"/>
+      <c r="C23" s="143" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="85"/>
+      <c r="D23" s="144"/>
       <c r="E23" s="61">
         <v>6300</v>
       </c>
@@ -9430,14 +9590,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="116" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="96"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="118"/>
+      <c r="C24" s="143" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="144"/>
       <c r="E24" s="61">
         <v>6300</v>
       </c>

--- a/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
+++ b/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipea\OneDrive\Documentos\HIELO-FOCA\Programacion Supermercados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D959888-179A-4EF2-8F63-9ED5B228B9C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FAC022-2EA4-431E-A694-93D46BF0FA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" activeTab="1" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="421">
   <si>
     <t>REMISION</t>
   </si>
@@ -1408,18 +1408,33 @@
     <t>GOMEZ FIERRO JHON ALEXANDER</t>
   </si>
   <si>
-    <t>FECHA DE REGISTRO</t>
-  </si>
-  <si>
-    <t>HORA DE REGISTRO</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Programacion de Pedidos
 SUPERMERCADOS
 Control de Despacho</t>
+  </si>
+  <si>
+    <t>FECHA DE REGISTRO:</t>
+  </si>
+  <si>
+    <t>FECHA DE ENTREGA:</t>
+  </si>
+  <si>
+    <t>HORA DE REGISTRO:</t>
+  </si>
+  <si>
+    <t>HORA DE ENTREGA:</t>
+  </si>
+  <si>
+    <t>CONDUCTOR:</t>
+  </si>
+  <si>
+    <t>VEHICULO:</t>
+  </si>
+  <si>
+    <t>CODIGO:</t>
   </si>
 </sst>
 </file>
@@ -2180,6 +2195,9 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2187,20 +2205,29 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2228,6 +2255,60 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="20" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2237,73 +2318,85 @@
     <xf numFmtId="20" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="6" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2315,87 +2408,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="6" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2405,20 +2447,8 @@
     <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2426,26 +2456,35 @@
     <xf numFmtId="0" fontId="19" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2453,47 +2492,23 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2948,25 +2963,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="E1" s="110" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="E1" s="114" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="110"/>
-      <c r="H1" s="110" t="s">
+      <c r="F1" s="114"/>
+      <c r="H1" s="114" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="L1" s="111" t="s">
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="L1" s="115" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -2978,10 +2993,10 @@
       <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="112"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="87" t="s">
         <v>54</v>
       </c>
@@ -3946,14 +3961,14 @@
       <c r="B2" s="11">
         <v>45848</v>
       </c>
-      <c r="C2" s="198" t="s">
+      <c r="C2" s="207" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="198"/>
-      <c r="E2" s="185">
+      <c r="D2" s="207"/>
+      <c r="E2" s="187">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="185"/>
+      <c r="F2" s="187"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -3976,62 +3991,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="171"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="171"/>
+      <c r="F5" s="175"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="174" t="s">
+      <c r="B6" s="176" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="174"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="158" t="s">
+      <c r="E6" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="158"/>
+      <c r="F6" s="167"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="150"/>
       <c r="D7" s="25">
         <v>6500</v>
       </c>
-      <c r="E7" s="143" t="s">
+      <c r="E7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="144"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4048,14 +4063,14 @@
       <c r="B11" s="20">
         <v>45806</v>
       </c>
-      <c r="C11" s="164" t="s">
+      <c r="C11" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="164"/>
-      <c r="E11" s="152" t="s">
+      <c r="D11" s="151"/>
+      <c r="E11" s="161" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="152"/>
+      <c r="F11" s="161"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
@@ -4078,14 +4093,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="163" t="s">
+      <c r="A13" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
@@ -4098,158 +4113,158 @@
       <c r="D14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="163" t="s">
+      <c r="E14" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="163"/>
+      <c r="F14" s="153"/>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="150" t="s">
+      <c r="B15" s="146" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="151"/>
+      <c r="C15" s="147"/>
       <c r="D15" s="25">
         <v>2200</v>
       </c>
-      <c r="E15" s="143" t="s">
+      <c r="E15" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="144"/>
+      <c r="F15" s="149"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="150" t="s">
+      <c r="B16" s="146" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="151"/>
+      <c r="C16" s="147"/>
       <c r="D16" s="25">
         <v>7700</v>
       </c>
-      <c r="E16" s="143" t="s">
+      <c r="E16" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="144"/>
+      <c r="F16" s="149"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="150" t="s">
+      <c r="B17" s="146" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="151"/>
+      <c r="C17" s="147"/>
       <c r="D17" s="25">
         <v>6200</v>
       </c>
-      <c r="E17" s="143" t="s">
+      <c r="E17" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="144"/>
+      <c r="F17" s="149"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="202" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="199"/>
+      <c r="C18" s="202"/>
       <c r="D18" s="25">
         <v>3700</v>
       </c>
-      <c r="E18" s="143" t="s">
+      <c r="E18" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="144"/>
+      <c r="F18" s="149"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="199" t="s">
+      <c r="B19" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="199"/>
+      <c r="C19" s="202"/>
       <c r="D19" s="25">
         <v>7900</v>
       </c>
-      <c r="E19" s="143" t="s">
+      <c r="E19" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="144"/>
+      <c r="F19" s="149"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="114" t="s">
+      <c r="B20" s="118" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="115"/>
+      <c r="C20" s="119"/>
       <c r="D20" s="25">
         <v>6300</v>
       </c>
-      <c r="E20" s="143" t="s">
+      <c r="E20" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="144"/>
+      <c r="F20" s="149"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="200" t="s">
+      <c r="B21" s="203" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="201"/>
+      <c r="C21" s="204"/>
       <c r="D21" s="13">
         <v>13000</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="150" t="s">
+      <c r="B22" s="146" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="151"/>
+      <c r="C22" s="147"/>
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="143" t="s">
+      <c r="E22" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="144"/>
+      <c r="F22" s="149"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="202"/>
-      <c r="C23" s="203"/>
+      <c r="B23" s="205"/>
+      <c r="C23" s="206"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="202"/>
-      <c r="F23" s="203"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="206"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="192" t="s">
+      <c r="C28" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="194"/>
-      <c r="F28" s="195"/>
+      <c r="D28" s="201"/>
+      <c r="E28" s="198"/>
+      <c r="F28" s="199"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
@@ -4266,14 +4281,14 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="163"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
@@ -4286,26 +4301,26 @@
       <c r="D31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="163" t="s">
+      <c r="E31" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="163"/>
+      <c r="F31" s="153"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="142" t="s">
+      <c r="B32" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="142"/>
+      <c r="C32" s="150"/>
       <c r="D32" s="25">
         <v>9000</v>
       </c>
-      <c r="E32" s="143" t="s">
+      <c r="E32" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="144"/>
+      <c r="F32" s="149"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
@@ -4314,14 +4329,14 @@
       <c r="B36" s="20">
         <v>45867</v>
       </c>
-      <c r="C36" s="192" t="s">
+      <c r="C36" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="194">
+      <c r="D36" s="201"/>
+      <c r="E36" s="198">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F36" s="195"/>
+      <c r="F36" s="199"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -4344,14 +4359,14 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="163" t="s">
+      <c r="A38" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
+      <c r="B38" s="153"/>
+      <c r="C38" s="153"/>
+      <c r="D38" s="153"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="153"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
@@ -4364,58 +4379,58 @@
       <c r="D39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="163" t="s">
+      <c r="E39" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="163"/>
+      <c r="F39" s="153"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="142" t="s">
+      <c r="B40" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="142"/>
+      <c r="C40" s="150"/>
       <c r="D40" s="25">
         <v>6500</v>
       </c>
-      <c r="E40" s="143" t="s">
+      <c r="E40" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="144"/>
+      <c r="F40" s="149"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="142" t="s">
+      <c r="B41" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="142"/>
+      <c r="C41" s="150"/>
       <c r="D41" s="25">
         <v>9000</v>
       </c>
-      <c r="E41" s="143" t="s">
+      <c r="E41" s="148" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="144"/>
+      <c r="F41" s="149"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B42" s="114" t="s">
+      <c r="B42" s="118" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="115"/>
+      <c r="C42" s="119"/>
       <c r="D42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="143" t="s">
+      <c r="E42" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="144"/>
+      <c r="F42" s="149"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
@@ -4424,14 +4439,14 @@
       <c r="B45" s="20">
         <v>45883</v>
       </c>
-      <c r="C45" s="192" t="s">
+      <c r="C45" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="193"/>
-      <c r="E45" s="194">
+      <c r="D45" s="201"/>
+      <c r="E45" s="198">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F45" s="195"/>
+      <c r="F45" s="199"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
@@ -4454,30 +4469,30 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="163" t="s">
+      <c r="A47" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="163"/>
-      <c r="F47" s="163"/>
+      <c r="B47" s="153"/>
+      <c r="C47" s="153"/>
+      <c r="D47" s="153"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="153"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="150" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="142"/>
+      <c r="C48" s="150"/>
       <c r="D48" s="25">
         <v>6500</v>
       </c>
-      <c r="E48" s="143" t="s">
+      <c r="E48" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="144"/>
+      <c r="F48" s="149"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -4486,14 +4501,14 @@
       <c r="B51" s="20">
         <v>45864</v>
       </c>
-      <c r="C51" s="192" t="s">
+      <c r="C51" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="193"/>
-      <c r="E51" s="194">
+      <c r="D51" s="201"/>
+      <c r="E51" s="198">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F51" s="195"/>
+      <c r="F51" s="199"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
@@ -4510,14 +4525,14 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="163" t="s">
+      <c r="A53" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="163"/>
-      <c r="F53" s="163"/>
+      <c r="B53" s="153"/>
+      <c r="C53" s="153"/>
+      <c r="D53" s="153"/>
+      <c r="E53" s="153"/>
+      <c r="F53" s="153"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
@@ -4530,66 +4545,106 @@
       <c r="D54" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="163" t="s">
+      <c r="E54" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="163"/>
+      <c r="F54" s="153"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="147" t="s">
+      <c r="B55" s="173" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="147"/>
+      <c r="C55" s="173"/>
       <c r="D55" s="25">
         <v>6000</v>
       </c>
-      <c r="E55" s="143" t="s">
+      <c r="E55" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="144"/>
+      <c r="F55" s="149"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="147" t="s">
+      <c r="B56" s="173" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="147"/>
+      <c r="C56" s="173"/>
       <c r="D56" s="25">
         <v>2000</v>
       </c>
-      <c r="E56" s="143" t="s">
+      <c r="E56" s="148" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="144"/>
+      <c r="F56" s="149"/>
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="142" t="s">
+      <c r="B57" s="150" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="142"/>
+      <c r="C57" s="150"/>
       <c r="D57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="143" t="s">
+      <c r="E57" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="144"/>
+      <c r="F57" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="A30:F30"/>
@@ -4606,51 +4661,11 @@
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="E42:F42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="120" verticalDpi="72" r:id="rId1"/>
@@ -4662,7 +4677,7 @@
   <dimension ref="B3:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4686,112 +4701,112 @@
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G3" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="106" t="s">
+        <v>413</v>
+      </c>
+      <c r="C4" s="107"/>
+      <c r="D4" s="107"/>
+      <c r="E4" s="107"/>
+      <c r="F4" s="107"/>
+      <c r="G4" s="107"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+    </row>
+    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="107"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+    </row>
+    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+    </row>
+    <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="103" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="204" t="s">
-        <v>415</v>
-      </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-    </row>
-    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-    </row>
-    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="105"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="105"/>
-      <c r="J6" s="105"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="105"/>
-    </row>
-    <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="205" t="s">
-        <v>412</v>
-      </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="206" t="s">
-        <v>413</v>
-      </c>
-      <c r="E8" s="207"/>
+      <c r="D8" s="109" t="s">
+        <v>416</v>
+      </c>
+      <c r="E8" s="110"/>
       <c r="F8" s="96"/>
       <c r="G8" s="102" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="107"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="108"/>
+        <v>418</v>
+      </c>
+      <c r="H8" s="111"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102" t="s">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="C9" s="40"/>
-      <c r="D9" s="206" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="207"/>
+      <c r="D9" s="109" t="s">
+        <v>417</v>
+      </c>
+      <c r="E9" s="110"/>
       <c r="F9" s="96"/>
       <c r="G9" s="102" t="s">
-        <v>12</v>
+        <v>419</v>
       </c>
       <c r="H9" s="40"/>
       <c r="I9" s="102" t="s">
-        <v>16</v>
+        <v>420</v>
       </c>
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
     </row>
     <row r="11" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="106" t="s">
+      <c r="C11" s="108" t="s">
         <v>376</v>
       </c>
-      <c r="D11" s="106"/>
+      <c r="D11" s="108"/>
       <c r="E11" s="102" t="s">
         <v>152</v>
       </c>
@@ -4804,19 +4819,19 @@
       <c r="H11" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="I11" s="106" t="s">
+      <c r="I11" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="106"/>
+      <c r="J11" s="108"/>
     </row>
     <row r="12" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="103"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="100">
         <v>4</v>
       </c>
@@ -4829,21 +4844,21 @@
       <c r="H12" s="40">
         <v>45454445544</v>
       </c>
-      <c r="I12" s="104" t="s">
+      <c r="I12" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="104"/>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="98"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="100"/>
       <c r="F13" s="101"/>
       <c r="G13" s="99"/>
       <c r="H13" s="40"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4883,15 +4898,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="113" t="s">
+      <c r="B3" s="117" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -5585,11 +5600,11 @@
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="119">
+      <c r="E2" s="141">
         <v>0.25</v>
       </c>
-      <c r="F2" s="120"/>
-      <c r="G2" s="121"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="143"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
@@ -5612,224 +5627,224 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="132"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="139"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="130" t="s">
+      <c r="C5" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="132"/>
-      <c r="E5" s="130" t="s">
+      <c r="D5" s="139"/>
+      <c r="E5" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="131"/>
-      <c r="G5" s="132"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="139"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="114" t="s">
+      <c r="C6" s="118" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="122" t="s">
+      <c r="D6" s="119"/>
+      <c r="E6" s="125" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="123"/>
-      <c r="G6" s="124"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="127"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="133" t="s">
+      <c r="C7" s="144" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="116" t="s">
+      <c r="D7" s="145"/>
+      <c r="E7" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="117"/>
-      <c r="G7" s="118"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="122"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="133" t="s">
+      <c r="C8" s="144" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="116" t="s">
+      <c r="D8" s="145"/>
+      <c r="E8" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="118"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="122"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="114" t="s">
+      <c r="C9" s="118" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="115"/>
-      <c r="E9" s="116" t="s">
+      <c r="D9" s="119"/>
+      <c r="E9" s="120" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="117"/>
-      <c r="G9" s="118"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="122"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="114" t="s">
+      <c r="C10" s="118" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="116" t="s">
+      <c r="D10" s="119"/>
+      <c r="E10" s="120" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="117"/>
-      <c r="G10" s="118"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="122"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="114" t="s">
+      <c r="C11" s="118" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="115"/>
-      <c r="E11" s="116" t="s">
+      <c r="D11" s="119"/>
+      <c r="E11" s="120" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="117"/>
-      <c r="G11" s="118"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="122"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="114" t="s">
+      <c r="C12" s="118" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="115"/>
-      <c r="E12" s="116" t="s">
+      <c r="D12" s="119"/>
+      <c r="E12" s="120" t="s">
         <v>370</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="118"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="115"/>
-      <c r="E13" s="122" t="s">
+      <c r="D13" s="119"/>
+      <c r="E13" s="125" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="123"/>
-      <c r="G13" s="124"/>
+      <c r="F13" s="126"/>
+      <c r="G13" s="127"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="114" t="s">
+      <c r="C14" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="115"/>
-      <c r="E14" s="116" t="s">
+      <c r="D14" s="119"/>
+      <c r="E14" s="120" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="118"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="122"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="118" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="115"/>
-      <c r="E15" s="116" t="s">
+      <c r="D15" s="119"/>
+      <c r="E15" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="118"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="122"/>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="114" t="s">
+      <c r="C16" s="118" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="115"/>
-      <c r="E16" s="116" t="s">
+      <c r="D16" s="119"/>
+      <c r="E16" s="120" t="s">
         <v>366</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="118"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="122"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="114" t="s">
+      <c r="C17" s="118" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="115"/>
-      <c r="E17" s="116" t="s">
+      <c r="D17" s="119"/>
+      <c r="E17" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="118"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="122"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="114" t="s">
+      <c r="C18" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="115"/>
-      <c r="E18" s="116" t="s">
+      <c r="D18" s="119"/>
+      <c r="E18" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="117"/>
-      <c r="G18" s="118"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="122"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="140" t="s">
+      <c r="C19" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="141"/>
-      <c r="E19" s="116" t="s">
+      <c r="D19" s="124"/>
+      <c r="E19" s="120" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="118"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="122"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
@@ -5843,141 +5858,141 @@
       <c r="G20" s="137"/>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="138" t="s">
+      <c r="B21" s="128" t="s">
         <v>372</v>
       </c>
-      <c r="C21" s="139"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="129"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="126"/>
-      <c r="E23" s="127" t="s">
+      <c r="D23" s="131"/>
+      <c r="E23" s="132" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="128"/>
-      <c r="G23" s="129"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="134"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="114" t="s">
+      <c r="C24" s="118" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="115"/>
-      <c r="E24" s="127" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="132" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="128"/>
-      <c r="G24" s="129"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="134"/>
     </row>
     <row r="28" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="114" t="s">
+      <c r="C28" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116" t="s">
+      <c r="D28" s="119"/>
+      <c r="E28" s="120" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="117"/>
-      <c r="G28" s="118"/>
+      <c r="F28" s="121"/>
+      <c r="G28" s="122"/>
     </row>
     <row r="29" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="114" t="s">
+      <c r="C29" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="115"/>
-      <c r="E29" s="116" t="s">
+      <c r="D29" s="119"/>
+      <c r="E29" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="117"/>
-      <c r="G29" s="118"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="30" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="114" t="s">
+      <c r="C30" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116" t="s">
+      <c r="D30" s="119"/>
+      <c r="E30" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="F30" s="121"/>
+      <c r="G30" s="122"/>
     </row>
     <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="114" t="s">
+      <c r="C31" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116" t="s">
+      <c r="D31" s="119"/>
+      <c r="E31" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="117"/>
-      <c r="G31" s="118"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="122"/>
     </row>
     <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="114" t="s">
+      <c r="C32" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116" t="s">
+      <c r="D32" s="119"/>
+      <c r="E32" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="117"/>
-      <c r="G32" s="118"/>
+      <c r="F32" s="121"/>
+      <c r="G32" s="122"/>
     </row>
     <row r="33" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="114" t="s">
+      <c r="C33" s="118" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116" t="s">
+      <c r="D33" s="119"/>
+      <c r="E33" s="120" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="117"/>
-      <c r="G33" s="118"/>
+      <c r="F33" s="121"/>
+      <c r="G33" s="122"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="114" t="s">
+      <c r="C34" s="118" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="115"/>
-      <c r="E34" s="122" t="s">
+      <c r="D34" s="119"/>
+      <c r="E34" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="123"/>
-      <c r="G34" s="124"/>
+      <c r="F34" s="126"/>
+      <c r="G34" s="127"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
@@ -5987,9 +6002,9 @@
       <c r="D40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="119"/>
-      <c r="F40" s="120"/>
-      <c r="G40" s="121"/>
+      <c r="E40" s="141"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="143"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
@@ -6006,44 +6021,44 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="130" t="s">
+      <c r="B42" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="131"/>
-      <c r="D42" s="131"/>
-      <c r="E42" s="131"/>
-      <c r="F42" s="131"/>
-      <c r="G42" s="132"/>
+      <c r="C42" s="140"/>
+      <c r="D42" s="140"/>
+      <c r="E42" s="140"/>
+      <c r="F42" s="140"/>
+      <c r="G42" s="139"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="130" t="s">
+      <c r="C43" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="132"/>
-      <c r="E43" s="130" t="s">
+      <c r="D43" s="139"/>
+      <c r="E43" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="131"/>
-      <c r="G43" s="132"/>
+      <c r="F43" s="140"/>
+      <c r="G43" s="139"/>
     </row>
     <row r="44" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
-      <c r="C44" s="114"/>
-      <c r="D44" s="115"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="118"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="121"/>
+      <c r="G44" s="122"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="128"/>
-      <c r="G45" s="129"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="134"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
@@ -6053,9 +6068,9 @@
       <c r="D49" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="119"/>
-      <c r="F49" s="120"/>
-      <c r="G49" s="121"/>
+      <c r="E49" s="141"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="143"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
@@ -6072,64 +6087,82 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="130" t="s">
+      <c r="B51" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="131"/>
-      <c r="D51" s="131"/>
-      <c r="E51" s="131"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="132"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="139"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="130" t="s">
+      <c r="C52" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="132"/>
-      <c r="E52" s="130" t="s">
+      <c r="D52" s="139"/>
+      <c r="E52" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="131"/>
-      <c r="G52" s="132"/>
+      <c r="F52" s="140"/>
+      <c r="G52" s="139"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="126"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="128"/>
-      <c r="G53" s="129"/>
+      <c r="C53" s="130"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="134"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="126"/>
-      <c r="E54" s="127"/>
-      <c r="F54" s="128"/>
-      <c r="G54" s="129"/>
+      <c r="C54" s="130"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="B51:G51"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
     <mergeCell ref="C54:D54"/>
     <mergeCell ref="E54:G54"/>
     <mergeCell ref="C14:D14"/>
@@ -6146,41 +6179,23 @@
     <mergeCell ref="E28:G28"/>
     <mergeCell ref="E33:G33"/>
     <mergeCell ref="C29:D29"/>
-    <mergeCell ref="B51:G51"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
@@ -6218,14 +6233,14 @@
       <c r="C3" s="20">
         <v>45864</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="152">
+      <c r="E3" s="151"/>
+      <c r="F3" s="161">
         <v>0.125</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="161"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6248,222 +6263,222 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="F6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="163"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="142"/>
+      <c r="D7" s="150"/>
       <c r="E7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="143" t="s">
+      <c r="F7" s="148" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="144"/>
+      <c r="G7" s="149"/>
     </row>
     <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="150" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="142"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="148" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="144"/>
+      <c r="G8" s="149"/>
     </row>
     <row r="9" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="142" t="s">
+      <c r="C9" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="142"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="148" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="144"/>
+      <c r="G9" s="149"/>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="142" t="s">
+      <c r="C10" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="142"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="143" t="s">
+      <c r="F10" s="148" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="144"/>
+      <c r="G10" s="149"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="158"/>
       <c r="E11" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="147"/>
+      <c r="G11" s="173"/>
     </row>
     <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="145" t="s">
+      <c r="C12" s="171" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="146"/>
+      <c r="D12" s="172"/>
       <c r="E12" s="48">
         <v>6000</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="147"/>
+      <c r="G12" s="173"/>
     </row>
     <row r="13" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="145" t="s">
+      <c r="C13" s="171" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="146"/>
+      <c r="D13" s="172"/>
       <c r="E13" s="48">
         <v>6300</v>
       </c>
-      <c r="F13" s="147" t="s">
+      <c r="F13" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="147"/>
+      <c r="G13" s="173"/>
     </row>
     <row r="14" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="154" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="155"/>
       <c r="E14" s="6">
         <v>11000</v>
       </c>
-      <c r="F14" s="168" t="s">
+      <c r="F14" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="169"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="167" t="s">
+      <c r="C15" s="156" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="167"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="6">
         <v>6300</v>
       </c>
-      <c r="F15" s="168" t="s">
+      <c r="F15" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="169"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="165" t="s">
+      <c r="C16" s="154" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="166"/>
+      <c r="D16" s="155"/>
       <c r="E16" s="6">
         <v>7000</v>
       </c>
-      <c r="F16" s="168" t="s">
+      <c r="F16" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="169"/>
+      <c r="G16" s="160"/>
     </row>
     <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="165" t="s">
+      <c r="C17" s="154" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="6">
         <v>6300</v>
       </c>
-      <c r="F17" s="168" t="s">
+      <c r="F17" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="169"/>
+      <c r="G17" s="160"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="157" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="149"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="6">
         <v>2600</v>
       </c>
-      <c r="F18" s="168" t="s">
+      <c r="F18" s="159" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="169"/>
+      <c r="G18" s="160"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -6472,14 +6487,14 @@
       <c r="C21" s="20">
         <v>45882</v>
       </c>
-      <c r="D21" s="164" t="s">
+      <c r="D21" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="164"/>
-      <c r="F21" s="162">
+      <c r="E21" s="151"/>
+      <c r="F21" s="152">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G21" s="162"/>
+      <c r="G21" s="152"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
@@ -6500,86 +6515,86 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="163"/>
-      <c r="D23" s="163"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="163"/>
-      <c r="G23" s="163"/>
+      <c r="C23" s="153"/>
+      <c r="D23" s="153"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="153"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="163" t="s">
+      <c r="C24" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="163"/>
+      <c r="D24" s="153"/>
       <c r="E24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="163" t="s">
+      <c r="F24" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="163"/>
+      <c r="G24" s="153"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="142" t="s">
+      <c r="C25" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="142"/>
+      <c r="D25" s="150"/>
       <c r="E25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="143" t="s">
+      <c r="F25" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="144"/>
+      <c r="G25" s="149"/>
     </row>
     <row r="26" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="142" t="s">
+      <c r="C26" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="142"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="143" t="s">
+      <c r="F26" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="144"/>
+      <c r="G26" s="149"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
+      <c r="C27" s="150"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="143"/>
-      <c r="G27" s="144"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="150"/>
-      <c r="D28" s="151"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="143"/>
-      <c r="G28" s="144"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="149"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="150"/>
-      <c r="D29" s="151"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="143"/>
-      <c r="G29" s="144"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
@@ -6588,14 +6603,14 @@
       <c r="C32" s="20">
         <v>45884</v>
       </c>
-      <c r="D32" s="164" t="s">
+      <c r="D32" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="162">
+      <c r="E32" s="151"/>
+      <c r="F32" s="152">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G32" s="162"/>
+      <c r="G32" s="152"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
@@ -6618,94 +6633,94 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="163"/>
-      <c r="F34" s="163"/>
-      <c r="G34" s="163"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="153"/>
+      <c r="F34" s="153"/>
+      <c r="G34" s="153"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="163" t="s">
+      <c r="C35" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="163"/>
+      <c r="D35" s="153"/>
       <c r="E35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="163" t="s">
+      <c r="F35" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="163"/>
+      <c r="G35" s="153"/>
     </row>
     <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="142"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="143" t="s">
+      <c r="F36" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="144"/>
+      <c r="G36" s="149"/>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="142" t="s">
+      <c r="C37" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="142"/>
+      <c r="D37" s="150"/>
       <c r="E37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="143" t="s">
+      <c r="F37" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="144"/>
+      <c r="G37" s="149"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="142" t="s">
+      <c r="C38" s="150" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="142"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="25">
         <v>3500</v>
       </c>
-      <c r="F38" s="143" t="s">
+      <c r="F38" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="144"/>
+      <c r="G38" s="149"/>
     </row>
     <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="151"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="147"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="143"/>
-      <c r="G39" s="144"/>
+      <c r="F39" s="148"/>
+      <c r="G39" s="149"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="151"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="147"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="143"/>
-      <c r="G40" s="144"/>
+      <c r="F40" s="148"/>
+      <c r="G40" s="149"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
@@ -6714,14 +6729,14 @@
       <c r="C48" s="20">
         <v>45904</v>
       </c>
-      <c r="D48" s="164" t="s">
+      <c r="D48" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="164"/>
-      <c r="F48" s="152">
+      <c r="E48" s="151"/>
+      <c r="F48" s="161">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="152"/>
+      <c r="G48" s="161"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
@@ -6744,75 +6759,75 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="163"/>
-      <c r="F50" s="163"/>
-      <c r="G50" s="163"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="153"/>
+      <c r="F50" s="153"/>
+      <c r="G50" s="153"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="163" t="s">
+      <c r="C51" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="163"/>
+      <c r="D51" s="153"/>
       <c r="E51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="163" t="s">
+      <c r="F51" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="163"/>
+      <c r="G51" s="153"/>
     </row>
     <row r="52" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="142" t="s">
+      <c r="C52" s="150" t="s">
         <v>357</v>
       </c>
-      <c r="D52" s="142"/>
+      <c r="D52" s="150"/>
       <c r="E52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="143" t="s">
+      <c r="F52" s="148" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="144"/>
+      <c r="G52" s="149"/>
     </row>
     <row r="53" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="142" t="s">
+      <c r="C53" s="150" t="s">
         <v>356</v>
       </c>
-      <c r="D53" s="142"/>
+      <c r="D53" s="150"/>
       <c r="E53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="143" t="s">
+      <c r="F53" s="148" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="144"/>
+      <c r="G53" s="149"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="161" t="s">
+      <c r="B56" s="170" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="153" t="s">
+      <c r="C56" s="162" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="154"/>
-      <c r="E56" s="155"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="164"/>
     </row>
     <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="161"/>
+      <c r="B57" s="170"/>
       <c r="C57" s="38" t="s">
         <v>183</v>
       </c>
@@ -6824,7 +6839,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="161"/>
+      <c r="B58" s="170"/>
       <c r="C58" s="38" t="s">
         <v>183</v>
       </c>
@@ -6836,7 +6851,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="161"/>
+      <c r="B59" s="170"/>
       <c r="C59" s="38" t="s">
         <v>183</v>
       </c>
@@ -6848,7 +6863,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="161"/>
+      <c r="B60" s="170"/>
       <c r="C60" s="38" t="s">
         <v>183</v>
       </c>
@@ -6860,7 +6875,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="161"/>
+      <c r="B61" s="170"/>
       <c r="C61" s="38" t="s">
         <v>183</v>
       </c>
@@ -6872,14 +6887,14 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="161"/>
+      <c r="B62" s="170"/>
       <c r="C62" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D62" s="156">
+      <c r="D62" s="165">
         <v>4</v>
       </c>
-      <c r="E62" s="157"/>
+      <c r="E62" s="166"/>
     </row>
     <row r="63" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="55" t="s">
@@ -6888,18 +6903,18 @@
       <c r="C63" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="156">
+      <c r="D63" s="165">
         <v>5</v>
       </c>
-      <c r="E63" s="157"/>
+      <c r="E63" s="166"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="158" t="s">
+      <c r="B68" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="158"/>
-      <c r="D68" s="158"/>
-      <c r="E68" s="158"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
@@ -7210,18 +7225,18 @@
       <c r="G92" s="26"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="159" t="s">
+      <c r="B95" s="168" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="160" t="s">
+      <c r="C95" s="169" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="160"/>
-      <c r="E95" s="160"/>
-      <c r="F95" s="160"/>
+      <c r="D95" s="169"/>
+      <c r="E95" s="169"/>
+      <c r="F95" s="169"/>
     </row>
     <row r="96" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="159"/>
+      <c r="B96" s="168"/>
       <c r="C96" s="38" t="s">
         <v>183</v>
       </c>
@@ -7236,7 +7251,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="159"/>
+      <c r="B97" s="168"/>
       <c r="C97" s="38" t="s">
         <v>183</v>
       </c>
@@ -7254,7 +7269,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="159"/>
+      <c r="B98" s="168"/>
       <c r="C98" s="38" t="s">
         <v>183</v>
       </c>
@@ -7272,7 +7287,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="159"/>
+      <c r="B99" s="168"/>
       <c r="C99" s="38" t="s">
         <v>183</v>
       </c>
@@ -7290,7 +7305,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="159"/>
+      <c r="B100" s="168"/>
       <c r="C100" s="38" t="s">
         <v>183</v>
       </c>
@@ -7308,7 +7323,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="159"/>
+      <c r="B101" s="168"/>
       <c r="C101" s="38" t="s">
         <v>184</v>
       </c>
@@ -7327,115 +7342,156 @@
       <c r="B106" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="142" t="s">
+      <c r="C106" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="142"/>
+      <c r="D106" s="150"/>
       <c r="E106" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="143" t="s">
+      <c r="F106" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="144"/>
+      <c r="G106" s="149"/>
     </row>
     <row r="107" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="142" t="s">
+      <c r="C107" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="142"/>
+      <c r="D107" s="150"/>
       <c r="E107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="143" t="s">
+      <c r="F107" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G107" s="144"/>
+      <c r="G107" s="149"/>
     </row>
     <row r="108" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="142" t="s">
+      <c r="C108" s="150" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="142"/>
+      <c r="D108" s="150"/>
       <c r="E108" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="143" t="s">
+      <c r="F108" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="144"/>
+      <c r="G108" s="149"/>
     </row>
     <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="142" t="s">
+      <c r="C109" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="142"/>
+      <c r="D109" s="150"/>
       <c r="E109" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F109" s="143" t="s">
+      <c r="F109" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="144"/>
+      <c r="G109" s="149"/>
     </row>
     <row r="110" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="142" t="s">
+      <c r="C110" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="142"/>
+      <c r="D110" s="150"/>
       <c r="E110" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F110" s="143" t="s">
+      <c r="F110" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="144"/>
+      <c r="G110" s="149"/>
     </row>
     <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="142" t="s">
+      <c r="C111" s="150" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="142"/>
+      <c r="D111" s="150"/>
       <c r="E111" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="143" t="s">
+      <c r="F111" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="144"/>
+      <c r="G111" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C108:D108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="B56:B62"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
@@ -7452,62 +7508,21 @@
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="C95:F95"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C108:D108"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="C109:D109"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="F38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -7537,12 +7552,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7559,102 +7574,102 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="163"/>
-      <c r="D5" s="163"/>
-      <c r="E5" s="163"/>
-      <c r="F5" s="163"/>
-      <c r="G5" s="163"/>
+      <c r="C5" s="153"/>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="F6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="163"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="170"/>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="170" t="s">
+      <c r="F8" s="174" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="170"/>
+      <c r="G8" s="174"/>
     </row>
     <row r="9" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="149"/>
+      <c r="D9" s="158"/>
       <c r="E9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="170" t="s">
+      <c r="F9" s="174" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="170"/>
+      <c r="G9" s="174"/>
     </row>
     <row r="10" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="149"/>
+      <c r="D10" s="158"/>
       <c r="E10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="147" t="s">
+      <c r="F10" s="173" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="147"/>
+      <c r="G10" s="173"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="158" t="s">
+      <c r="B15" s="167" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="158"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -7869,12 +7884,12 @@
         <v>1</v>
       </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="164" t="s">
+      <c r="D44" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="152"/>
-      <c r="G44" s="152"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="161"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
@@ -7891,221 +7906,250 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="163"/>
-      <c r="F46" s="163"/>
-      <c r="G46" s="163"/>
+      <c r="C46" s="153"/>
+      <c r="D46" s="153"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="153"/>
+      <c r="G46" s="153"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="163" t="s">
+      <c r="C47" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="163"/>
+      <c r="D47" s="153"/>
       <c r="E47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="163" t="s">
+      <c r="F47" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="163"/>
+      <c r="G47" s="153"/>
     </row>
     <row r="48" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="148" t="s">
+      <c r="C48" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="149"/>
+      <c r="D48" s="158"/>
       <c r="E48" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="170" t="s">
+      <c r="F48" s="174" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="170"/>
+      <c r="G48" s="174"/>
     </row>
     <row r="49" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="148" t="s">
+      <c r="C49" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="149"/>
+      <c r="D49" s="158"/>
       <c r="E49" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="170" t="s">
+      <c r="F49" s="174" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="170"/>
+      <c r="G49" s="174"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="148" t="s">
+      <c r="C50" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="149"/>
+      <c r="D50" s="158"/>
       <c r="E50" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="147"/>
-      <c r="G50" s="147"/>
+      <c r="F50" s="173"/>
+      <c r="G50" s="173"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="148" t="s">
+      <c r="C51" s="157" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="149"/>
+      <c r="D51" s="158"/>
       <c r="E51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="147"/>
-      <c r="G51" s="147"/>
+      <c r="F51" s="173"/>
+      <c r="G51" s="173"/>
     </row>
     <row r="61" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="148" t="s">
+      <c r="C61" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="149"/>
+      <c r="D61" s="158"/>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="170" t="s">
+      <c r="F61" s="174" t="s">
         <v>278</v>
       </c>
-      <c r="G61" s="170"/>
+      <c r="G61" s="174"/>
     </row>
     <row r="62" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="148" t="s">
+      <c r="C62" s="157" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="149"/>
+      <c r="D62" s="158"/>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="170" t="s">
+      <c r="F62" s="174" t="s">
         <v>277</v>
       </c>
-      <c r="G62" s="170"/>
+      <c r="G62" s="174"/>
     </row>
     <row r="63" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="148" t="s">
+      <c r="C63" s="157" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="149"/>
+      <c r="D63" s="158"/>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="170" t="s">
+      <c r="F63" s="174" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="170"/>
+      <c r="G63" s="174"/>
     </row>
     <row r="64" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C64" s="148" t="s">
+      <c r="C64" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="149"/>
+      <c r="D64" s="158"/>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="147" t="s">
+      <c r="F64" s="173" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="147"/>
+      <c r="G64" s="173"/>
     </row>
     <row r="65" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="148" t="s">
+      <c r="C65" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="149"/>
+      <c r="D65" s="158"/>
       <c r="E65" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="147" t="s">
+      <c r="F65" s="173" t="s">
         <v>282</v>
       </c>
-      <c r="G65" s="147"/>
+      <c r="G65" s="173"/>
     </row>
     <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="148" t="s">
+      <c r="C66" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="149"/>
+      <c r="D66" s="158"/>
       <c r="E66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="147" t="s">
+      <c r="F66" s="173" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="147"/>
+      <c r="G66" s="173"/>
     </row>
     <row r="67" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="148" t="s">
+      <c r="C67" s="157" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="149"/>
+      <c r="D67" s="158"/>
       <c r="E67" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="147" t="s">
+      <c r="F67" s="173" t="s">
         <v>285</v>
       </c>
-      <c r="G67" s="147"/>
+      <c r="G67" s="173"/>
     </row>
     <row r="68" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="148" t="s">
+      <c r="C68" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="149"/>
+      <c r="D68" s="158"/>
       <c r="E68" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="147" t="s">
+      <c r="F68" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="147"/>
+      <c r="G68" s="173"/>
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="F47:G47"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="F7:G7"/>
@@ -8120,35 +8164,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="F66:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -8179,14 +8194,14 @@
       <c r="C3" s="20">
         <v>45797</v>
       </c>
-      <c r="D3" s="164" t="s">
+      <c r="D3" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="152">
+      <c r="E3" s="151"/>
+      <c r="F3" s="161">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="152"/>
+      <c r="G3" s="161"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
@@ -8209,74 +8224,74 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="178" t="s">
+      <c r="B5" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="179"/>
-      <c r="D5" s="179"/>
-      <c r="E5" s="179"/>
-      <c r="F5" s="179"/>
-      <c r="G5" s="180"/>
+      <c r="C5" s="178"/>
+      <c r="D5" s="178"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="179"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="163" t="s">
+      <c r="C6" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="163"/>
+      <c r="D6" s="153"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="163" t="s">
+      <c r="F6" s="153" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="163"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="167"/>
+      <c r="D7" s="156"/>
       <c r="E7" s="25">
         <v>8500</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="170"/>
+      <c r="G7" s="174"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="142" t="s">
+      <c r="C8" s="150" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="142"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="25">
         <v>6500</v>
       </c>
-      <c r="F8" s="143" t="s">
+      <c r="F8" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="144"/>
+      <c r="G8" s="149"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="182" t="s">
+      <c r="D11" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="182"/>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
+      <c r="E11" s="181"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
@@ -8293,46 +8308,46 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="175"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="171" t="s">
+      <c r="C14" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="171"/>
+      <c r="D14" s="175"/>
       <c r="E14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="171" t="s">
+      <c r="F14" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="171"/>
+      <c r="G14" s="175"/>
     </row>
     <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="176" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="174"/>
+      <c r="D15" s="176"/>
       <c r="E15" s="6">
         <v>17000</v>
       </c>
-      <c r="F15" s="174" t="s">
+      <c r="F15" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="174"/>
+      <c r="G15" s="176"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
@@ -8344,11 +8359,11 @@
       <c r="D19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="177">
+      <c r="E19" s="186">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
+      <c r="F19" s="186"/>
+      <c r="G19" s="186"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
@@ -8371,63 +8386,72 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="184" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="175"/>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="175"/>
+      <c r="D22" s="184"/>
       <c r="E22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="171" t="s">
+      <c r="F22" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="171"/>
+      <c r="G22" s="175"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="185" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="176"/>
+      <c r="D23" s="185"/>
       <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="172" t="s">
+      <c r="F23" s="182" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="173"/>
+      <c r="G23" s="183"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="167" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="158"/>
+      <c r="D24" s="167"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="172" t="s">
+      <c r="F24" s="182" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="173"/>
+      <c r="G24" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="B21:G21"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="F3:G3"/>
@@ -8443,15 +8467,6 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="B21:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId1"/>
@@ -8483,14 +8498,14 @@
       <c r="B1" s="3">
         <v>45924</v>
       </c>
-      <c r="C1" s="182" t="s">
+      <c r="C1" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="182"/>
-      <c r="E1" s="185">
+      <c r="D1" s="181"/>
+      <c r="E1" s="187">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="185"/>
+      <c r="F1" s="187"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8513,155 +8528,155 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="171"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="171"/>
+      <c r="F4" s="175"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="148" t="s">
+      <c r="B5" s="157" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="149"/>
+      <c r="C5" s="158"/>
       <c r="D5" s="48">
         <v>8300</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="147"/>
+      <c r="F5" s="173"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="148" t="s">
+      <c r="B6" s="157" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="149"/>
+      <c r="C6" s="158"/>
       <c r="D6" s="48">
         <v>6300</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="147"/>
+      <c r="F6" s="173"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="149"/>
+      <c r="C7" s="158"/>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="125" t="s">
+      <c r="E7" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="126"/>
+      <c r="F7" s="131"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="148" t="s">
+      <c r="B8" s="157" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="149"/>
+      <c r="C8" s="158"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="148" t="s">
+      <c r="E8" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="149"/>
+      <c r="F8" s="158"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="142" t="s">
+      <c r="B9" s="150" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="142"/>
+      <c r="C9" s="150"/>
       <c r="D9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="143" t="s">
+      <c r="E9" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="144"/>
+      <c r="F9" s="149"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="150" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="142"/>
+      <c r="C10" s="150"/>
       <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="143" t="s">
+      <c r="E10" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="144"/>
+      <c r="F10" s="149"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="150" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="142"/>
+      <c r="C11" s="150"/>
       <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="143" t="s">
+      <c r="E11" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="144"/>
+      <c r="F11" s="149"/>
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="183" t="s">
+      <c r="A12" s="188" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="184"/>
-      <c r="C12" s="184"/>
-      <c r="D12" s="184"/>
-      <c r="E12" s="184"/>
-      <c r="F12" s="184"/>
+      <c r="B12" s="189"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8675,292 +8690,292 @@
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="174" t="s">
+      <c r="B16" s="176" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="174"/>
+      <c r="C16" s="176"/>
       <c r="D16" s="6">
         <v>11000</v>
       </c>
-      <c r="E16" s="147" t="s">
+      <c r="E16" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="147"/>
+      <c r="F16" s="173"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="174" t="s">
+      <c r="B17" s="176" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="174"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="6">
         <v>6000</v>
       </c>
-      <c r="E17" s="174" t="s">
+      <c r="E17" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="174"/>
+      <c r="F17" s="176"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="174" t="s">
+      <c r="B18" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="174"/>
+      <c r="C18" s="176"/>
       <c r="D18" s="6">
         <v>3000</v>
       </c>
-      <c r="E18" s="174" t="s">
+      <c r="E18" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="174"/>
+      <c r="F18" s="176"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="174" t="s">
+      <c r="B19" s="176" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="174"/>
+      <c r="C19" s="176"/>
       <c r="D19" s="6">
         <v>2500</v>
       </c>
-      <c r="E19" s="174" t="s">
+      <c r="E19" s="176" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="174"/>
+      <c r="F19" s="176"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="174" t="s">
+      <c r="B20" s="176" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="174"/>
+      <c r="C20" s="176"/>
       <c r="D20" s="6">
         <v>11000</v>
       </c>
-      <c r="E20" s="147" t="s">
+      <c r="E20" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="147"/>
+      <c r="F20" s="173"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="148" t="s">
+      <c r="B21" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="149"/>
+      <c r="C21" s="158"/>
       <c r="D21" s="6">
         <v>3000</v>
       </c>
-      <c r="E21" s="125" t="s">
+      <c r="E21" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="126"/>
+      <c r="F21" s="131"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="174" t="s">
+      <c r="B22" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="174"/>
+      <c r="C22" s="176"/>
       <c r="D22" s="6">
         <v>2300</v>
       </c>
-      <c r="E22" s="174" t="s">
+      <c r="E22" s="176" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="174"/>
+      <c r="F22" s="176"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="148" t="s">
+      <c r="B23" s="157" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="149"/>
+      <c r="C23" s="158"/>
       <c r="D23" s="6">
         <v>2300</v>
       </c>
-      <c r="E23" s="125" t="s">
+      <c r="E23" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="126"/>
+      <c r="F23" s="131"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="148" t="s">
+      <c r="B24" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="149"/>
+      <c r="C24" s="158"/>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="148" t="s">
+      <c r="E24" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="149"/>
+      <c r="F24" s="158"/>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="148" t="s">
+      <c r="B25" s="157" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="149"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="148" t="s">
+      <c r="E25" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="149"/>
+      <c r="F25" s="158"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="148" t="s">
+      <c r="B26" s="157" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="149"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="149"/>
+      <c r="F26" s="158"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="148" t="s">
+      <c r="B27" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="149"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="148" t="s">
+      <c r="E27" s="157" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="149"/>
+      <c r="F27" s="158"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="148" t="s">
+      <c r="B28" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="149"/>
+      <c r="C28" s="158"/>
       <c r="D28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="148" t="s">
+      <c r="E28" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="149"/>
+      <c r="F28" s="158"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="148" t="s">
+      <c r="B29" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="149"/>
+      <c r="C29" s="158"/>
       <c r="D29" s="48">
         <v>3000</v>
       </c>
-      <c r="E29" s="147" t="s">
+      <c r="E29" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="147"/>
+      <c r="F29" s="173"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="148" t="s">
+      <c r="B30" s="157" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="149"/>
+      <c r="C30" s="158"/>
       <c r="D30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="147" t="s">
+      <c r="E30" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="147"/>
+      <c r="F30" s="173"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="148" t="s">
+      <c r="B31" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="149"/>
+      <c r="C31" s="158"/>
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="148" t="s">
+      <c r="E31" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="149"/>
+      <c r="F31" s="158"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="148" t="s">
+      <c r="B32" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="149"/>
+      <c r="C32" s="158"/>
       <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="148" t="s">
+      <c r="E32" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="158"/>
     </row>
     <row r="33" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="148" t="s">
+      <c r="B33" s="157" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="149"/>
+      <c r="C33" s="158"/>
       <c r="D33" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="168" t="s">
+      <c r="E33" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="F33" s="169"/>
+      <c r="F33" s="160"/>
       <c r="I33" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8970,14 +8985,14 @@
       <c r="B36" s="3">
         <v>45867</v>
       </c>
-      <c r="C36" s="182" t="s">
+      <c r="C36" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="182"/>
-      <c r="E36" s="185">
+      <c r="D36" s="181"/>
+      <c r="E36" s="187">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F36" s="185"/>
+      <c r="F36" s="187"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -9000,172 +9015,211 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="171" t="s">
+      <c r="B39" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="171"/>
+      <c r="C39" s="175"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="171" t="s">
+      <c r="E39" s="175" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="171"/>
+      <c r="F39" s="175"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="148" t="s">
+      <c r="B40" s="157" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="149"/>
+      <c r="C40" s="158"/>
       <c r="D40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="148" t="s">
+      <c r="E40" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="149"/>
+      <c r="F40" s="158"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="148" t="s">
+      <c r="B41" s="157" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="149"/>
+      <c r="C41" s="158"/>
       <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="148" t="s">
+      <c r="E41" s="157" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="149"/>
+      <c r="F41" s="158"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="148" t="s">
+      <c r="B42" s="157" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="149"/>
+      <c r="C42" s="158"/>
       <c r="D42" s="6">
         <v>3400</v>
       </c>
-      <c r="E42" s="125" t="s">
+      <c r="E42" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="126"/>
+      <c r="F42" s="131"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B43" s="142" t="s">
+      <c r="B43" s="150" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="142"/>
+      <c r="C43" s="150"/>
       <c r="D43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="143" t="s">
+      <c r="E43" s="148" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="144"/>
+      <c r="F43" s="149"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="142" t="s">
+      <c r="B44" s="150" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="142"/>
+      <c r="C44" s="150"/>
       <c r="D44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="143" t="s">
+      <c r="E44" s="148" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="144"/>
+      <c r="F44" s="149"/>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="142" t="s">
+      <c r="B45" s="150" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="142"/>
+      <c r="C45" s="150"/>
       <c r="D45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="143" t="s">
+      <c r="E45" s="148" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="144"/>
+      <c r="F45" s="149"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="142" t="s">
+      <c r="B46" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="142"/>
+      <c r="C46" s="150"/>
       <c r="D46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="143" t="s">
+      <c r="E46" s="148" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="144"/>
+      <c r="F46" s="149"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="142" t="s">
+      <c r="B47" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="142"/>
+      <c r="C47" s="150"/>
       <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="143" t="s">
+      <c r="E47" s="148" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="144"/>
+      <c r="F47" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="E46:F46"/>
     <mergeCell ref="B47:C47"/>
@@ -9182,56 +9236,17 @@
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="E45:F45"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="E27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
@@ -9262,14 +9277,14 @@
       <c r="B1" s="3">
         <v>45842</v>
       </c>
-      <c r="C1" s="190" t="s">
+      <c r="C1" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="191"/>
-      <c r="E1" s="181">
+      <c r="D1" s="193"/>
+      <c r="E1" s="180">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="174"/>
+      <c r="F1" s="176"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -9292,24 +9307,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="B3" s="175"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="175"/>
+      <c r="F3" s="175"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="175" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171" t="s">
+      <c r="B4" s="175"/>
+      <c r="C4" s="175" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="171"/>
+      <c r="D4" s="175"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
@@ -9318,14 +9333,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="186" t="s">
+      <c r="A5" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="165" t="s">
+      <c r="B5" s="191"/>
+      <c r="C5" s="154" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="166"/>
+      <c r="D5" s="155"/>
       <c r="E5" s="2">
         <v>11000</v>
       </c>
@@ -9334,14 +9349,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="167" t="s">
+      <c r="B6" s="191"/>
+      <c r="C6" s="156" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="167"/>
+      <c r="D6" s="156"/>
       <c r="E6" s="2">
         <v>6300</v>
       </c>
@@ -9350,14 +9365,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="165" t="s">
+      <c r="B7" s="191"/>
+      <c r="C7" s="154" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="166"/>
+      <c r="D7" s="155"/>
       <c r="E7" s="2">
         <v>7000</v>
       </c>
@@ -9366,14 +9381,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="165" t="s">
+      <c r="B8" s="191"/>
+      <c r="C8" s="154" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="166"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="6">
         <v>6300</v>
       </c>
@@ -9382,14 +9397,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="148" t="s">
+      <c r="A9" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="174" t="s">
+      <c r="B9" s="158"/>
+      <c r="C9" s="176" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="174"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="15">
         <v>6000</v>
       </c>
@@ -9398,14 +9413,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="118"/>
-      <c r="C10" s="143" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="148" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="144"/>
+      <c r="D10" s="149"/>
       <c r="E10" s="61" t="s">
         <v>0</v>
       </c>
@@ -9414,14 +9429,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="143" t="s">
+      <c r="B11" s="122"/>
+      <c r="C11" s="148" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="144"/>
+      <c r="D11" s="149"/>
       <c r="E11" s="61" t="s">
         <v>0</v>
       </c>
@@ -9430,14 +9445,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148" t="s">
+      <c r="A12" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="149"/>
-      <c r="C12" s="148" t="s">
+      <c r="B12" s="158"/>
+      <c r="C12" s="157" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="149"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
@@ -9448,14 +9463,14 @@
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="148" t="s">
+      <c r="B15" s="191"/>
+      <c r="C15" s="157" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="149"/>
+      <c r="D15" s="158"/>
       <c r="E15" s="2">
         <v>2600</v>
       </c>
@@ -9464,14 +9479,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="148" t="s">
+      <c r="B16" s="191"/>
+      <c r="C16" s="157" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="2">
         <v>2600</v>
       </c>
@@ -9480,14 +9495,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="190" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="165" t="s">
+      <c r="B17" s="191"/>
+      <c r="C17" s="154" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="166"/>
+      <c r="D17" s="155"/>
       <c r="E17" s="2">
         <v>6300</v>
       </c>
@@ -9496,14 +9511,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="148" t="s">
+      <c r="A18" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="149"/>
-      <c r="C18" s="148" t="s">
+      <c r="B18" s="158"/>
+      <c r="C18" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="149"/>
+      <c r="D18" s="158"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
@@ -9512,14 +9527,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="157" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="148" t="s">
+      <c r="B19" s="158"/>
+      <c r="C19" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="149"/>
+      <c r="D19" s="158"/>
       <c r="E19" s="6">
         <v>2300</v>
       </c>
@@ -9528,14 +9543,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="148" t="s">
+      <c r="A20" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="149"/>
-      <c r="C20" s="167" t="s">
+      <c r="B20" s="158"/>
+      <c r="C20" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="167"/>
+      <c r="D20" s="156"/>
       <c r="E20" s="15">
         <v>2300</v>
       </c>
@@ -9544,28 +9559,28 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="148" t="s">
+      <c r="A21" s="157" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="149"/>
-      <c r="C21" s="174" t="s">
+      <c r="B21" s="158"/>
+      <c r="C21" s="176" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="174"/>
-      <c r="E21" s="188" t="s">
+      <c r="D21" s="176"/>
+      <c r="E21" s="194" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="189"/>
+      <c r="F21" s="195"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="171" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="146"/>
-      <c r="C22" s="174" t="s">
+      <c r="B22" s="172"/>
+      <c r="C22" s="176" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="174"/>
+      <c r="D22" s="176"/>
       <c r="E22" s="15">
         <v>6000</v>
       </c>
@@ -9574,14 +9589,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="143" t="s">
+      <c r="B23" s="122"/>
+      <c r="C23" s="148" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="144"/>
+      <c r="D23" s="149"/>
       <c r="E23" s="61">
         <v>6300</v>
       </c>
@@ -9590,14 +9605,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116" t="s">
+      <c r="A24" s="120" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="118"/>
-      <c r="C24" s="143" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="148" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="144"/>
+      <c r="D24" s="149"/>
       <c r="E24" s="61">
         <v>6300</v>
       </c>
@@ -9607,6 +9622,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="A24:B24"/>
@@ -9623,32 +9664,6 @@
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>

--- a/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
+++ b/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipea\OneDrive\Documentos\HIELO-FOCA\Programacion Supermercados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FAC022-2EA4-431E-A694-93D46BF0FA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32381DD-E25B-4CDF-8E40-E1A2F7051484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" activeTab="1" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
+    <workbookView xWindow="-105" yWindow="5340" windowWidth="20700" windowHeight="6285" tabRatio="713" activeTab="1" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
   </bookViews>
   <sheets>
     <sheet name="CODIGO DOMICILIARIOS" sheetId="23" r:id="rId1"/>
@@ -2543,13 +2543,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2594,13 +2594,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2942,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD16EF1-1413-490B-B8B7-AEA40B513DE6}">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
@@ -4674,10 +4674,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5F25C-3CA1-4780-B63C-D9DEDA2932CE}">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4699,15 +4699,37 @@
     <col min="17" max="17" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+    <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="106" t="s">
         <v>413</v>
       </c>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+    </row>
+    <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="107"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="107"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+    </row>
+    <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="107"/>
       <c r="C4" s="107"/>
       <c r="D4" s="107"/>
       <c r="E4" s="107"/>
@@ -4717,7 +4739,7 @@
       <c r="I4" s="107"/>
       <c r="J4" s="107"/>
     </row>
-    <row r="5" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="107"/>
       <c r="C5" s="107"/>
       <c r="D5" s="107"/>
@@ -4728,151 +4750,129 @@
       <c r="I5" s="107"/>
       <c r="J5" s="107"/>
     </row>
-    <row r="6" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-    </row>
-    <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-    </row>
-    <row r="8" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103" t="s">
+    <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="103" t="s">
         <v>414</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="109" t="s">
+      <c r="C6" s="97"/>
+      <c r="D6" s="109" t="s">
         <v>416</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="102" t="s">
+      <c r="E6" s="110"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="102" t="s">
         <v>418</v>
       </c>
-      <c r="H8" s="111"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="113"/>
-    </row>
-    <row r="9" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H6" s="111"/>
+      <c r="I6" s="112"/>
+      <c r="J6" s="113"/>
+    </row>
+    <row r="7" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="102" t="s">
+        <v>415</v>
+      </c>
+      <c r="C7" s="40"/>
+      <c r="D7" s="109" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="110"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="102" t="s">
+        <v>419</v>
+      </c>
+      <c r="H7" s="40"/>
+      <c r="I7" s="102" t="s">
+        <v>420</v>
+      </c>
+      <c r="J7" s="40"/>
+    </row>
+    <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+    </row>
+    <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102" t="s">
-        <v>415</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="109" t="s">
-        <v>417</v>
-      </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="96"/>
+        <v>6</v>
+      </c>
+      <c r="C9" s="108" t="s">
+        <v>376</v>
+      </c>
+      <c r="D9" s="108"/>
+      <c r="E9" s="102" t="s">
+        <v>152</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>8</v>
+      </c>
       <c r="G9" s="102" t="s">
-        <v>419</v>
-      </c>
-      <c r="H9" s="40"/>
-      <c r="I9" s="102" t="s">
-        <v>420</v>
-      </c>
-      <c r="J9" s="40"/>
-    </row>
-    <row r="10" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-    </row>
-    <row r="11" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="102" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>376</v>
-      </c>
-      <c r="D11" s="108"/>
-      <c r="E11" s="102" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="102" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="102" t="s">
         <v>406</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="H9" s="102" t="s">
         <v>410</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I9" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="108"/>
-    </row>
-    <row r="12" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="98" t="s">
+      <c r="J9" s="108"/>
+    </row>
+    <row r="10" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="98" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="104" t="s">
+      <c r="C10" s="104" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="104"/>
-      <c r="E12" s="100">
+      <c r="D10" s="104"/>
+      <c r="E10" s="100">
         <v>4</v>
       </c>
-      <c r="F12" s="101">
+      <c r="F10" s="101">
         <v>1200300</v>
       </c>
-      <c r="G12" s="99" t="s">
+      <c r="G10" s="99" t="s">
         <v>409</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H10" s="40">
         <v>45454445544</v>
       </c>
-      <c r="I12" s="105" t="s">
+      <c r="I10" s="105" t="s">
         <v>92</v>
       </c>
-      <c r="J12" s="105"/>
-    </row>
-    <row r="13" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="98"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="101"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="105"/>
+      <c r="J10" s="105"/>
+    </row>
+    <row r="11" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="98"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="B4:J7"/>
-    <mergeCell ref="B10:J10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="B2:J5"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>

--- a/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
+++ b/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
@@ -2,30 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipea\OneDrive\Documentos\HIELO-FOCA\Programacion Supermercados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32381DD-E25B-4CDF-8E40-E1A2F7051484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0A326-741E-4C3B-8F7A-C885EDF7E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="5340" windowWidth="20700" windowHeight="6285" tabRatio="713" activeTab="1" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" activeTab="2" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
   </bookViews>
   <sheets>
-    <sheet name="CODIGO DOMICILIARIOS" sheetId="23" r:id="rId1"/>
-    <sheet name="SUPERMERCADOS" sheetId="24" r:id="rId2"/>
-    <sheet name="MOVIMIENTO BANCO AGRARIO" sheetId="20" r:id="rId3"/>
-    <sheet name="CONSORCIOS" sheetId="6" r:id="rId4"/>
-    <sheet name="BANCO AGRARIO " sheetId="19" r:id="rId5"/>
-    <sheet name="SENA " sheetId="21" r:id="rId6"/>
-    <sheet name="PISCICOLA" sheetId="18" r:id="rId7"/>
-    <sheet name="GARZON" sheetId="8" r:id="rId8"/>
-    <sheet name="LA PLATA" sheetId="9" r:id="rId9"/>
-    <sheet name="RIVERA" sheetId="12" r:id="rId10"/>
+    <sheet name="BASE_DATOS" sheetId="25" r:id="rId1"/>
+    <sheet name="CODIGO DOMICILIARIOS" sheetId="23" r:id="rId2"/>
+    <sheet name="SUPERMERCADOS" sheetId="24" r:id="rId3"/>
+    <sheet name="MOVIMIENTO BANCO AGRARIO" sheetId="20" r:id="rId4"/>
+    <sheet name="CONSORCIOS" sheetId="6" r:id="rId5"/>
+    <sheet name="BANCO AGRARIO " sheetId="19" r:id="rId6"/>
+    <sheet name="SENA " sheetId="21" r:id="rId7"/>
+    <sheet name="PISCICOLA" sheetId="18" r:id="rId8"/>
+    <sheet name="GARZON" sheetId="8" r:id="rId9"/>
+    <sheet name="LA PLATA" sheetId="9" r:id="rId10"/>
+    <sheet name="RIVERA" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CODIGO DOMICILIARIOS'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BASE_DATOS!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'CODIGO DOMICILIARIOS'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,6 +41,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="421">
   <si>
     <t>REMISION</t>
   </si>
@@ -1447,7 +1451,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1683,6 +1687,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="16">
     <fill>
@@ -1776,7 +1789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1894,6 +1907,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1901,7 +1973,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2174,59 +2246,132 @@
     <xf numFmtId="3" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2517,7 +2662,192 @@
     <cellStyle name="Moneda [0] 2" xfId="3" xr:uid="{A700F51D-CFE4-48B1-93DF-61A182D08489}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="4.9989318521683403E-2"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -2641,6 +2971,18 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{62E2F28C-23D2-4BFB-8D4E-58A98B1A1DCE}" name="Tabla_Conductores" displayName="Tabla_Conductores" ref="A2:C51" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A2:C51" xr:uid="{62E2F28C-23D2-4BFB-8D4E-58A98B1A1DCE}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3E2638BF-46BE-48ED-B981-8992650553F0}" name="CODIGO" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4871B49C-FC15-4D26-9ABF-22149E253CA9}" name="VEHICULO" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{2F274683-51A4-417C-AC03-A22118229720}" name="CONDUCTOR" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2939,18 +3281,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD16EF1-1413-490B-B8B7-AEA40B513DE6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58780E1-5A44-4AA9-A3B8-3B497F2B5CA0}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="45.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
@@ -2963,40 +3306,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="132" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="E1" s="114" t="s">
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="E1" s="132" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="114"/>
-      <c r="H1" s="114" t="s">
+      <c r="F1" s="132"/>
+      <c r="H1" s="132" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="L1" s="115" t="s">
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="L1" s="133" t="s">
         <v>408</v>
       </c>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="134"/>
       <c r="H2" s="87" t="s">
         <v>54</v>
       </c>
@@ -3017,13 +3360,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77">
+      <c r="A3" s="106">
         <v>28</v>
       </c>
       <c r="B3" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="111" t="s">
         <v>378</v>
       </c>
       <c r="E3" s="88" t="s">
@@ -3050,13 +3393,13 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="77">
+      <c r="A4" s="106">
         <v>29</v>
       </c>
       <c r="B4" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="111" t="s">
         <v>346</v>
       </c>
       <c r="E4" s="88" t="s">
@@ -3085,13 +3428,13 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="77">
+      <c r="A5" s="106">
         <v>30</v>
       </c>
       <c r="B5" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="111" t="s">
         <v>379</v>
       </c>
       <c r="E5" s="88" t="s">
@@ -3118,13 +3461,13 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="77">
+      <c r="A6" s="106">
         <v>31</v>
       </c>
       <c r="B6" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C6" s="78" t="s">
+      <c r="C6" s="111" t="s">
         <v>380</v>
       </c>
       <c r="E6" s="88" t="s">
@@ -3151,13 +3494,13 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="77">
+      <c r="A7" s="106">
         <v>32</v>
       </c>
       <c r="B7" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="111" t="s">
         <v>381</v>
       </c>
       <c r="E7" s="88" t="s">
@@ -3184,13 +3527,13 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="77">
+      <c r="A8" s="106">
         <v>33</v>
       </c>
       <c r="B8" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="111" t="s">
         <v>382</v>
       </c>
       <c r="E8" s="88" t="s">
@@ -3217,13 +3560,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="77">
+      <c r="A9" s="106">
         <v>34</v>
       </c>
       <c r="B9" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="111" t="s">
         <v>383</v>
       </c>
       <c r="E9" s="88" t="s">
@@ -3252,13 +3595,13 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="77">
+      <c r="A10" s="106">
         <v>35</v>
       </c>
       <c r="B10" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="111" t="s">
         <v>373</v>
       </c>
       <c r="E10" s="88" t="s">
@@ -3285,13 +3628,13 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="77">
+      <c r="A11" s="106">
         <v>36</v>
       </c>
       <c r="B11" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="111" t="s">
         <v>384</v>
       </c>
       <c r="E11" s="88" t="s">
@@ -3318,13 +3661,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="79">
+      <c r="A12" s="107">
         <v>37</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="112" t="s">
         <v>349</v>
       </c>
       <c r="E12" s="88" t="s">
@@ -3353,13 +3696,13 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="79">
+      <c r="A13" s="107">
         <v>38</v>
       </c>
       <c r="B13" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="112" t="s">
         <v>386</v>
       </c>
       <c r="E13" s="88" t="s">
@@ -3386,13 +3729,13 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="79">
+      <c r="A14" s="107">
         <v>39</v>
       </c>
       <c r="B14" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="112" t="s">
         <v>381</v>
       </c>
       <c r="E14" s="88" t="s">
@@ -3421,13 +3764,13 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="79">
+      <c r="A15" s="107">
         <v>40</v>
       </c>
       <c r="B15" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="112" t="s">
         <v>380</v>
       </c>
       <c r="E15" s="88" t="s">
@@ -3454,13 +3797,13 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="79">
+      <c r="A16" s="107">
         <v>41</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C16" s="80" t="s">
+      <c r="C16" s="112" t="s">
         <v>346</v>
       </c>
       <c r="E16" s="88" t="s">
@@ -3487,13 +3830,13 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="79">
+      <c r="A17" s="107">
         <v>42</v>
       </c>
       <c r="B17" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="112" t="s">
         <v>373</v>
       </c>
       <c r="L17" s="93" t="s">
@@ -3505,13 +3848,13 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="79">
+      <c r="A18" s="107">
         <v>44</v>
       </c>
       <c r="B18" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C18" s="80" t="s">
+      <c r="C18" s="112" t="s">
         <v>383</v>
       </c>
       <c r="L18" s="93" t="s">
@@ -3523,13 +3866,13 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="79">
+      <c r="A19" s="107">
         <v>45</v>
       </c>
       <c r="B19" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="112" t="s">
         <v>378</v>
       </c>
       <c r="L19" s="93" t="s">
@@ -3541,13 +3884,13 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="79">
+      <c r="A20" s="107">
         <v>46</v>
       </c>
       <c r="B20" s="79" t="s">
         <v>385</v>
       </c>
-      <c r="C20" s="80" t="s">
+      <c r="C20" s="112" t="s">
         <v>387</v>
       </c>
       <c r="L20" s="93" t="s">
@@ -3559,13 +3902,13 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="81">
+      <c r="A21" s="108">
         <v>5</v>
       </c>
       <c r="B21" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="82" t="s">
+      <c r="C21" s="113" t="s">
         <v>388</v>
       </c>
       <c r="L21" s="93" t="s">
@@ -3577,366 +3920,788 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="81">
+      <c r="A22" s="108">
         <v>6</v>
       </c>
       <c r="B22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="82" t="s">
+      <c r="C22" s="113" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="81">
+      <c r="A23" s="108">
         <v>7</v>
       </c>
       <c r="B23" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="82" t="s">
+      <c r="C23" s="113" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="81">
+      <c r="A24" s="108">
         <v>8</v>
       </c>
       <c r="B24" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="113" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="81">
+      <c r="A25" s="108">
         <v>12</v>
       </c>
       <c r="B25" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="82" t="s">
+      <c r="C25" s="113" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="81">
+      <c r="A26" s="108">
         <v>13</v>
       </c>
       <c r="B26" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="113" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="81">
+      <c r="A27" s="108">
         <v>15</v>
       </c>
       <c r="B27" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="113" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="81">
+      <c r="A28" s="108">
         <v>16</v>
       </c>
       <c r="B28" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="82" t="s">
+      <c r="C28" s="113" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="81">
+      <c r="A29" s="108">
         <v>19</v>
       </c>
       <c r="B29" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="82" t="s">
+      <c r="C29" s="113" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="81">
+      <c r="A30" s="108">
         <v>23</v>
       </c>
       <c r="B30" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="82" t="s">
+      <c r="C30" s="113" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="81">
+      <c r="A31" s="108">
         <v>24</v>
       </c>
       <c r="B31" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="82" t="s">
+      <c r="C31" s="113" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="81">
+      <c r="A32" s="108">
         <v>26</v>
       </c>
       <c r="B32" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="113" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="81">
+      <c r="A33" s="108">
         <v>51</v>
       </c>
       <c r="B33" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="82" t="s">
+      <c r="C33" s="113" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="81">
+      <c r="A34" s="108">
         <v>52</v>
       </c>
       <c r="B34" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="82" t="s">
+      <c r="C34" s="113" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="81">
+      <c r="A35" s="108">
         <v>53</v>
       </c>
       <c r="B35" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="82" t="s">
+      <c r="C35" s="113" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="81">
+      <c r="A36" s="108">
         <v>54</v>
       </c>
       <c r="B36" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="113" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="81">
+      <c r="A37" s="108">
         <v>55</v>
       </c>
       <c r="B37" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="82" t="s">
+      <c r="C37" s="113" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="81">
+      <c r="A38" s="108">
         <v>56</v>
       </c>
       <c r="B38" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="82" t="s">
+      <c r="C38" s="113" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="81">
+      <c r="A39" s="108">
         <v>57</v>
       </c>
       <c r="B39" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="113" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="81">
+      <c r="A40" s="108">
         <v>58</v>
       </c>
       <c r="B40" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="82" t="s">
+      <c r="C40" s="113" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="83">
+      <c r="A41" s="109">
         <v>61</v>
       </c>
       <c r="B41" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C41" s="84" t="s">
+      <c r="C41" s="114" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="83">
+      <c r="A42" s="109">
         <v>62</v>
       </c>
       <c r="B42" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="114" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="83">
+      <c r="A43" s="109">
         <v>63</v>
       </c>
       <c r="B43" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="114" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="83">
+      <c r="A44" s="109">
         <v>64</v>
       </c>
       <c r="B44" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C44" s="84" t="s">
+      <c r="C44" s="114" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="83">
+      <c r="A45" s="109">
         <v>65</v>
       </c>
       <c r="B45" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C45" s="84" t="s">
+      <c r="C45" s="114" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="83">
+      <c r="A46" s="109">
         <v>66</v>
       </c>
       <c r="B46" s="83" t="s">
         <v>399</v>
       </c>
-      <c r="C46" s="84" t="s">
+      <c r="C46" s="114" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="85">
+      <c r="A47" s="110">
         <v>71</v>
       </c>
       <c r="B47" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="115" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="85">
+      <c r="A48" s="110">
         <v>72</v>
       </c>
       <c r="B48" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="115" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="85">
+      <c r="A49" s="110">
         <v>73</v>
       </c>
       <c r="B49" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="115" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="85">
+      <c r="A50" s="110">
         <v>74</v>
       </c>
       <c r="B50" s="85" t="s">
         <v>402</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="115" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="85">
+      <c r="A51" s="116">
         <v>75</v>
       </c>
-      <c r="B51" s="85" t="s">
+      <c r="B51" s="117" t="s">
         <v>402</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="118" t="s">
         <v>373</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" display="info@hielofoca.com.co - " xr:uid="{1A28F4EC-7FCD-4168-AD6B-F2772A1519FF}"/>
-    <hyperlink ref="I10" r:id="rId2" xr:uid="{39DBB3A4-7441-4D69-A657-81639B2B82FF}"/>
-    <hyperlink ref="I7" r:id="rId3" xr:uid="{AD4421D3-D586-4A2C-BEBC-9A8A1965A2E5}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{C6A0210A-F5CA-43D4-A8A9-3A38253CEAFA}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{BD7C4AC0-C36E-43FC-9DC2-EC0AA53BDFA2}"/>
-    <hyperlink ref="I12" r:id="rId6" xr:uid="{BCB03E3A-458E-4A42-AFBD-AF63954E63D3}"/>
-    <hyperlink ref="I13" r:id="rId7" xr:uid="{1D5D6849-7066-4B3E-A40A-452C3DEBD7E4}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{081DCDC0-1A79-4CC6-8C28-6D3F08E5D5A7}"/>
-    <hyperlink ref="I5" r:id="rId9" xr:uid="{0F569CF1-992B-4BD0-A1F2-AAFEB5A3CA2D}"/>
-    <hyperlink ref="I16" r:id="rId10" xr:uid="{E9E09848-5F24-4C55-964C-905C5AF27C43}"/>
-    <hyperlink ref="I15" r:id="rId11" xr:uid="{6EC5C5BF-762F-419C-BC16-AE034C9720E2}"/>
-    <hyperlink ref="I4" r:id="rId12" xr:uid="{E06DF1E0-AD7A-462A-8709-E05589CAD3BF}"/>
-    <hyperlink ref="I14" r:id="rId13" xr:uid="{E2F6074E-3581-44DF-967D-BD5A07265253}"/>
-    <hyperlink ref="I9" r:id="rId14" xr:uid="{11F6340D-1028-4945-85C4-176ABFC35AF1}"/>
+    <hyperlink ref="I8" r:id="rId1" display="info@hielofoca.com.co - " xr:uid="{A73B5441-E1FA-43B9-9E56-CE1CF340770F}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{A39024CB-268C-4D57-99B6-B3C070E25BB1}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{FAF42447-3498-43F7-9E1F-226B6A9A7C2C}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{39C5488B-E4ED-499B-BE47-8B2E530704A2}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{55D92E06-8D8B-4304-8594-804F95C50967}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{CE9CF25E-9270-422A-B00B-BB42124A8FC4}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{76318B02-B153-49F5-ACA6-2FE374FA8D93}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{22AE1651-0A47-40C9-94C4-53B0232534D7}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{4DAFD6AD-9290-4CA3-8A21-27D6B811D35F}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{BD764163-E3A3-42EF-94D4-F9041FCBBF2A}"/>
+    <hyperlink ref="I15" r:id="rId11" xr:uid="{F97F34F3-0E1E-4721-A7CE-2B5F8179F3D4}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{E9725563-0F51-45ED-BFA3-66CC83160D83}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{CA6B36E2-1C4B-40CC-815F-A85ADC0DC011}"/>
+    <hyperlink ref="I9" r:id="rId14" xr:uid="{7C90170F-0DA5-4A80-A5B1-7EC1D6EFB865}"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.39370078740157483" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId15"/>
+  <tableParts count="1">
+    <tablePart r:id="rId16"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA743D-F5DE-4B74-8830-370BC2F59812}">
+  <sheetPr codeName="Hoja10"/>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3">
+        <v>45842</v>
+      </c>
+      <c r="C1" s="210" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="211"/>
+      <c r="E1" s="198">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F1" s="194"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="193"/>
+      <c r="E4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="209"/>
+      <c r="C5" s="172" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" s="173"/>
+      <c r="E5" s="2">
+        <v>11000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="209"/>
+      <c r="C6" s="174" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" s="174"/>
+      <c r="E6" s="2">
+        <v>6300</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="172" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="173"/>
+      <c r="E7" s="2">
+        <v>7000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="209"/>
+      <c r="C8" s="172" t="s">
+        <v>306</v>
+      </c>
+      <c r="D8" s="173"/>
+      <c r="E8" s="6">
+        <v>6300</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="175" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="176"/>
+      <c r="C9" s="194" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="194"/>
+      <c r="E9" s="15">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="138" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="140"/>
+      <c r="C10" s="166" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="167"/>
+      <c r="E10" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="138" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="140"/>
+      <c r="C11" s="166" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="167"/>
+      <c r="E11" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="176"/>
+      <c r="C12" s="175" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="176"/>
+      <c r="E12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="209"/>
+      <c r="C15" s="175" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="176"/>
+      <c r="E15" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="209"/>
+      <c r="C16" s="175" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="176"/>
+      <c r="E16" s="2">
+        <v>2600</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="209"/>
+      <c r="C17" s="172" t="s">
+        <v>140</v>
+      </c>
+      <c r="D17" s="173"/>
+      <c r="E17" s="2">
+        <v>6300</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="175" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="176"/>
+      <c r="C18" s="175" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="176"/>
+      <c r="E18" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="175" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="176"/>
+      <c r="C19" s="175" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="176"/>
+      <c r="E19" s="6">
+        <v>2300</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="175" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="176"/>
+      <c r="C20" s="174" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="174"/>
+      <c r="E20" s="15">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="60" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="175" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" s="176"/>
+      <c r="C21" s="194" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="194"/>
+      <c r="E21" s="212" t="s">
+        <v>192</v>
+      </c>
+      <c r="F21" s="213"/>
+    </row>
+    <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="189" t="s">
+        <v>203</v>
+      </c>
+      <c r="B22" s="190"/>
+      <c r="C22" s="194" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="194"/>
+      <c r="E22" s="15">
+        <v>6000</v>
+      </c>
+      <c r="F22" s="60" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B23" s="140"/>
+      <c r="C23" s="166" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="167"/>
+      <c r="E23" s="61">
+        <v>6300</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="B24" s="140"/>
+      <c r="C24" s="166" t="s">
+        <v>299</v>
+      </c>
+      <c r="D24" s="167"/>
+      <c r="E24" s="61">
+        <v>6300</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF0B5BDB-C885-44CB-88F2-AF16B5F15087}">
+  <sheetPr codeName="Hoja11"/>
   <dimension ref="A2:F57"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -3961,14 +4726,14 @@
       <c r="B2" s="11">
         <v>45848</v>
       </c>
-      <c r="C2" s="207" t="s">
+      <c r="C2" s="225" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="207"/>
-      <c r="E2" s="187">
+      <c r="D2" s="225"/>
+      <c r="E2" s="205">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="187"/>
+      <c r="F2" s="205"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -3991,62 +4756,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
+      <c r="B4" s="193"/>
+      <c r="C4" s="193"/>
+      <c r="D4" s="193"/>
+      <c r="E4" s="193"/>
+      <c r="F4" s="193"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="175"/>
+      <c r="C5" s="193"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="175"/>
+      <c r="F5" s="193"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="194" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="176"/>
+      <c r="C6" s="194"/>
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="167" t="s">
+      <c r="E6" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="167"/>
+      <c r="F6" s="185"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="150"/>
+      <c r="C7" s="168"/>
       <c r="D7" s="25">
         <v>6500</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="167"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4063,14 +4828,14 @@
       <c r="B11" s="20">
         <v>45806</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="151"/>
-      <c r="E11" s="161" t="s">
+      <c r="D11" s="169"/>
+      <c r="E11" s="179" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="161"/>
+      <c r="F11" s="179"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
@@ -4093,178 +4858,178 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
+      <c r="B13" s="171"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
+      <c r="E13" s="171"/>
+      <c r="F13" s="171"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="197"/>
+      <c r="C14" s="215"/>
       <c r="D14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="153" t="s">
+      <c r="E14" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="153"/>
+      <c r="F14" s="171"/>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="146" t="s">
+      <c r="B15" s="164" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="147"/>
+      <c r="C15" s="165"/>
       <c r="D15" s="25">
         <v>2200</v>
       </c>
-      <c r="E15" s="148" t="s">
+      <c r="E15" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="149"/>
+      <c r="F15" s="167"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="146" t="s">
+      <c r="B16" s="164" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="165"/>
       <c r="D16" s="25">
         <v>7700</v>
       </c>
-      <c r="E16" s="148" t="s">
+      <c r="E16" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="149"/>
+      <c r="F16" s="167"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="146" t="s">
+      <c r="B17" s="164" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="165"/>
       <c r="D17" s="25">
         <v>6200</v>
       </c>
-      <c r="E17" s="148" t="s">
+      <c r="E17" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="149"/>
+      <c r="F17" s="167"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="202" t="s">
+      <c r="B18" s="220" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="202"/>
+      <c r="C18" s="220"/>
       <c r="D18" s="25">
         <v>3700</v>
       </c>
-      <c r="E18" s="148" t="s">
+      <c r="E18" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="149"/>
+      <c r="F18" s="167"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="202" t="s">
+      <c r="B19" s="220" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="202"/>
+      <c r="C19" s="220"/>
       <c r="D19" s="25">
         <v>7900</v>
       </c>
-      <c r="E19" s="148" t="s">
+      <c r="E19" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="149"/>
+      <c r="F19" s="167"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="119"/>
+      <c r="C20" s="137"/>
       <c r="D20" s="25">
         <v>6300</v>
       </c>
-      <c r="E20" s="148" t="s">
+      <c r="E20" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="149"/>
+      <c r="F20" s="167"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="203" t="s">
+      <c r="B21" s="221" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="204"/>
+      <c r="C21" s="222"/>
       <c r="D21" s="13">
         <v>13000</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="131"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="164" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="147"/>
+      <c r="C22" s="165"/>
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="148" t="s">
+      <c r="E22" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="149"/>
+      <c r="F22" s="167"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="205"/>
-      <c r="C23" s="206"/>
+      <c r="B23" s="223"/>
+      <c r="C23" s="224"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="206"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="224"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="200" t="s">
+      <c r="C28" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="201"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="199"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="216"/>
+      <c r="F28" s="217"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
@@ -4281,46 +5046,46 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="153" t="s">
+      <c r="A30" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
+      <c r="B30" s="171"/>
+      <c r="C30" s="171"/>
+      <c r="D30" s="171"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="171"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="196" t="s">
+      <c r="B31" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="197"/>
+      <c r="C31" s="215"/>
       <c r="D31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="153" t="s">
+      <c r="E31" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="153"/>
+      <c r="F31" s="171"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="168" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="150"/>
+      <c r="C32" s="168"/>
       <c r="D32" s="25">
         <v>9000</v>
       </c>
-      <c r="E32" s="148" t="s">
+      <c r="E32" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="149"/>
+      <c r="F32" s="167"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
@@ -4329,14 +5094,14 @@
       <c r="B36" s="20">
         <v>45867</v>
       </c>
-      <c r="C36" s="200" t="s">
+      <c r="C36" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="201"/>
-      <c r="E36" s="198">
+      <c r="D36" s="219"/>
+      <c r="E36" s="216">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F36" s="199"/>
+      <c r="F36" s="217"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -4359,78 +5124,78 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="153" t="s">
+      <c r="A38" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="153"/>
-      <c r="C38" s="153"/>
-      <c r="D38" s="153"/>
-      <c r="E38" s="153"/>
-      <c r="F38" s="153"/>
+      <c r="B38" s="171"/>
+      <c r="C38" s="171"/>
+      <c r="D38" s="171"/>
+      <c r="E38" s="171"/>
+      <c r="F38" s="171"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="196" t="s">
+      <c r="B39" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="197"/>
+      <c r="C39" s="215"/>
       <c r="D39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="153" t="s">
+      <c r="E39" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="153"/>
+      <c r="F39" s="171"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="150" t="s">
+      <c r="B40" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="150"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="25">
         <v>6500</v>
       </c>
-      <c r="E40" s="148" t="s">
+      <c r="E40" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="149"/>
+      <c r="F40" s="167"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="150" t="s">
+      <c r="B41" s="168" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="150"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="25">
         <v>9000</v>
       </c>
-      <c r="E41" s="148" t="s">
+      <c r="E41" s="166" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="149"/>
+      <c r="F41" s="167"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="136" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="119"/>
+      <c r="C42" s="137"/>
       <c r="D42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="148" t="s">
+      <c r="E42" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="149"/>
+      <c r="F42" s="167"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
@@ -4439,14 +5204,14 @@
       <c r="B45" s="20">
         <v>45883</v>
       </c>
-      <c r="C45" s="200" t="s">
+      <c r="C45" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="201"/>
-      <c r="E45" s="198">
+      <c r="D45" s="219"/>
+      <c r="E45" s="216">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F45" s="199"/>
+      <c r="F45" s="217"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
@@ -4469,30 +5234,30 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="153" t="s">
+      <c r="A47" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="153"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="153"/>
-      <c r="E47" s="153"/>
-      <c r="F47" s="153"/>
+      <c r="B47" s="171"/>
+      <c r="C47" s="171"/>
+      <c r="D47" s="171"/>
+      <c r="E47" s="171"/>
+      <c r="F47" s="171"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="150" t="s">
+      <c r="B48" s="168" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="150"/>
+      <c r="C48" s="168"/>
       <c r="D48" s="25">
         <v>6500</v>
       </c>
-      <c r="E48" s="148" t="s">
+      <c r="E48" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="149"/>
+      <c r="F48" s="167"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -4501,14 +5266,14 @@
       <c r="B51" s="20">
         <v>45864</v>
       </c>
-      <c r="C51" s="200" t="s">
+      <c r="C51" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="201"/>
-      <c r="E51" s="198">
+      <c r="D51" s="219"/>
+      <c r="E51" s="216">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F51" s="199"/>
+      <c r="F51" s="217"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
@@ -4525,78 +5290,78 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="153" t="s">
+      <c r="A53" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="153"/>
-      <c r="C53" s="153"/>
-      <c r="D53" s="153"/>
-      <c r="E53" s="153"/>
-      <c r="F53" s="153"/>
+      <c r="B53" s="171"/>
+      <c r="C53" s="171"/>
+      <c r="D53" s="171"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="196" t="s">
+      <c r="B54" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="197"/>
+      <c r="C54" s="215"/>
       <c r="D54" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="153" t="s">
+      <c r="E54" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="153"/>
+      <c r="F54" s="171"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="173" t="s">
+      <c r="B55" s="191" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="173"/>
+      <c r="C55" s="191"/>
       <c r="D55" s="25">
         <v>6000</v>
       </c>
-      <c r="E55" s="148" t="s">
+      <c r="E55" s="166" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="149"/>
+      <c r="F55" s="167"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="173" t="s">
+      <c r="B56" s="191" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="173"/>
+      <c r="C56" s="191"/>
       <c r="D56" s="25">
         <v>2000</v>
       </c>
-      <c r="E56" s="148" t="s">
+      <c r="E56" s="166" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="149"/>
+      <c r="F56" s="167"/>
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="150" t="s">
+      <c r="B57" s="168" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="150"/>
+      <c r="C57" s="168"/>
       <c r="D57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="148" t="s">
+      <c r="E57" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="149"/>
+      <c r="F57" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -4673,194 +5438,1198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5F25C-3CA1-4780-B63C-D9DEDA2932CE}">
-  <dimension ref="B1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD16EF1-1413-490B-B8B7-AEA40B513DE6}">
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" customWidth="1"/>
-    <col min="7" max="8" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="26.85546875" customWidth="1"/>
-    <col min="13" max="13" width="27.85546875" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
+        <v>405</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="E1" s="132" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="132"/>
+      <c r="H1" s="132" t="s">
+        <v>407</v>
+      </c>
+      <c r="I1" s="132"/>
+      <c r="J1" s="132"/>
+      <c r="L1" s="133" t="s">
+        <v>408</v>
+      </c>
+      <c r="M1" s="133"/>
+      <c r="N1" s="133"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="134" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="134"/>
+      <c r="H2" s="87" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="87" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="92" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="77">
+        <v>28</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>378</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="75">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="26"/>
+      <c r="L3" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="M3" s="94">
+        <v>5</v>
+      </c>
+      <c r="N3" s="95">
+        <v>7725044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="77">
+        <v>29</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C4" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="75">
+        <v>3900</v>
+      </c>
+      <c r="H4" s="89" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="26">
+        <v>3167400038</v>
+      </c>
+      <c r="L4" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="M4" s="94">
+        <v>6</v>
+      </c>
+      <c r="N4" s="95">
+        <v>17328221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="77">
+        <v>30</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="75">
+        <v>9000</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="26"/>
+      <c r="L5" s="93" t="s">
+        <v>120</v>
+      </c>
+      <c r="M5" s="94">
+        <v>7</v>
+      </c>
+      <c r="N5" s="95">
+        <v>7247582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="77">
+        <v>31</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>380</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="75">
+        <v>3500</v>
+      </c>
+      <c r="H6" s="89" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" s="26"/>
+      <c r="L6" s="93" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="94">
+        <v>8</v>
+      </c>
+      <c r="N6" s="95">
+        <v>7685879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="77">
+        <v>32</v>
+      </c>
+      <c r="B7" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="75">
+        <v>5500</v>
+      </c>
+      <c r="H7" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="L7" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" s="94">
+        <v>12</v>
+      </c>
+      <c r="N7" s="95">
+        <v>7721366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="77">
+        <v>33</v>
+      </c>
+      <c r="B8" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="75">
+        <v>14000</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="L8" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="M8" s="94">
+        <v>13</v>
+      </c>
+      <c r="N8" s="95">
+        <v>12121403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="77">
+        <v>34</v>
+      </c>
+      <c r="B9" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C9" s="78" t="s">
+        <v>383</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="75">
+        <v>13000</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="26">
+        <v>3155457907</v>
+      </c>
+      <c r="L9" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="M9" s="94">
+        <v>15</v>
+      </c>
+      <c r="N9" s="95">
+        <v>7731136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="77">
+        <v>35</v>
+      </c>
+      <c r="B10" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="78" t="s">
+        <v>373</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="75">
+        <v>17000</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="26"/>
+      <c r="L10" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" s="94">
+        <v>16</v>
+      </c>
+      <c r="N10" s="95">
+        <v>83224248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="77">
+        <v>36</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>377</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="75">
+        <v>15000</v>
+      </c>
+      <c r="H11" s="89" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="L11" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="M11" s="94">
+        <v>23</v>
+      </c>
+      <c r="N11" s="95">
+        <v>83229799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="79">
+        <v>37</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="75">
+        <v>16000</v>
+      </c>
+      <c r="H12" s="89" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J12" s="26">
+        <v>3174363364</v>
+      </c>
+      <c r="L12" s="93" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="94">
+        <v>19</v>
+      </c>
+      <c r="N12" s="95">
+        <v>5165026</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="79">
+        <v>38</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>386</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="75">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="89" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="L13" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="M13" s="94">
+        <v>24</v>
+      </c>
+      <c r="N13" s="95">
+        <v>36153689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
+        <v>39</v>
+      </c>
+      <c r="B14" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>381</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="75">
+        <v>3100</v>
+      </c>
+      <c r="H14" s="89" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" s="26">
+        <v>3124710180</v>
+      </c>
+      <c r="L14" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" s="94">
+        <v>36</v>
+      </c>
+      <c r="N14" s="95">
+        <v>1075320222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="79">
+        <v>40</v>
+      </c>
+      <c r="B15" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C15" s="80" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="75">
+        <v>6500</v>
+      </c>
+      <c r="H15" s="89" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="90" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="26"/>
+      <c r="L15" s="93" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="94">
+        <v>26</v>
+      </c>
+      <c r="N15" s="95">
+        <v>12114401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="79">
+        <v>41</v>
+      </c>
+      <c r="B16" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C16" s="80" t="s">
+        <v>346</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="75">
+        <v>12000</v>
+      </c>
+      <c r="H16" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="26">
+        <v>3153236712</v>
+      </c>
+      <c r="L16" s="93" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="94"/>
+      <c r="N16" s="95">
+        <v>17632318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="79">
+        <v>42</v>
+      </c>
+      <c r="B17" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="80" t="s">
+        <v>373</v>
+      </c>
+      <c r="L17" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="M17" s="94"/>
+      <c r="N17" s="95">
+        <v>12170925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="79">
+        <v>44</v>
+      </c>
+      <c r="B18" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C18" s="80" t="s">
+        <v>383</v>
+      </c>
+      <c r="L18" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="M18" s="94"/>
+      <c r="N18" s="95">
+        <v>12277398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="79">
+        <v>45</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C19" s="80" t="s">
+        <v>378</v>
+      </c>
+      <c r="L19" s="93" t="s">
+        <v>133</v>
+      </c>
+      <c r="M19" s="94"/>
+      <c r="N19" s="95">
+        <v>1075222202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="79">
+        <v>46</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>387</v>
+      </c>
+      <c r="L20" s="93" t="s">
+        <v>134</v>
+      </c>
+      <c r="M20" s="94"/>
+      <c r="N20" s="95">
+        <v>1007681658</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="81">
+        <v>5</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="L21" s="93" t="s">
+        <v>411</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="95">
+        <v>1075299501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="81">
+        <v>6</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
+        <v>7</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="81">
+        <v>8</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="82" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="81">
+        <v>12</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="81">
+        <v>13</v>
+      </c>
+      <c r="B26" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="81">
+        <v>15</v>
+      </c>
+      <c r="B27" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="81">
+        <v>16</v>
+      </c>
+      <c r="B28" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="81">
+        <v>19</v>
+      </c>
+      <c r="B29" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="81">
+        <v>23</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="81">
+        <v>24</v>
+      </c>
+      <c r="B31" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="81">
+        <v>26</v>
+      </c>
+      <c r="B32" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="82" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="81">
+        <v>51</v>
+      </c>
+      <c r="B33" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="81">
+        <v>52</v>
+      </c>
+      <c r="B34" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="82" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="81">
+        <v>53</v>
+      </c>
+      <c r="B35" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="82" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="81">
+        <v>54</v>
+      </c>
+      <c r="B36" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="81">
+        <v>55</v>
+      </c>
+      <c r="B37" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="82" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="81">
+        <v>56</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="82" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="81">
+        <v>57</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="81">
+        <v>58</v>
+      </c>
+      <c r="B40" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="83">
+        <v>61</v>
+      </c>
+      <c r="B41" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C41" s="84" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="83">
+        <v>62</v>
+      </c>
+      <c r="B42" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C42" s="84" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="83">
+        <v>63</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="84" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="83">
+        <v>64</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C44" s="84" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="83">
+        <v>65</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C45" s="84" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="83">
+        <v>66</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="C46" s="84" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="85">
+        <v>71</v>
+      </c>
+      <c r="B47" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C47" s="86" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="85">
+        <v>72</v>
+      </c>
+      <c r="B48" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C48" s="86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="85">
+        <v>73</v>
+      </c>
+      <c r="B49" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C49" s="86" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="85">
+        <v>74</v>
+      </c>
+      <c r="B50" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C50" s="86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="85">
+        <v>75</v>
+      </c>
+      <c r="B51" s="85" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="86" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I8" r:id="rId1" display="info@hielofoca.com.co - " xr:uid="{1A28F4EC-7FCD-4168-AD6B-F2772A1519FF}"/>
+    <hyperlink ref="I10" r:id="rId2" xr:uid="{39DBB3A4-7441-4D69-A657-81639B2B82FF}"/>
+    <hyperlink ref="I7" r:id="rId3" xr:uid="{AD4421D3-D586-4A2C-BEBC-9A8A1965A2E5}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{C6A0210A-F5CA-43D4-A8A9-3A38253CEAFA}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{BD7C4AC0-C36E-43FC-9DC2-EC0AA53BDFA2}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{BCB03E3A-458E-4A42-AFBD-AF63954E63D3}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{1D5D6849-7066-4B3E-A40A-452C3DEBD7E4}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{081DCDC0-1A79-4CC6-8C28-6D3F08E5D5A7}"/>
+    <hyperlink ref="I5" r:id="rId9" xr:uid="{0F569CF1-992B-4BD0-A1F2-AAFEB5A3CA2D}"/>
+    <hyperlink ref="I16" r:id="rId10" xr:uid="{E9E09848-5F24-4C55-964C-905C5AF27C43}"/>
+    <hyperlink ref="I15" r:id="rId11" xr:uid="{6EC5C5BF-762F-419C-BC16-AE034C9720E2}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{E06DF1E0-AD7A-462A-8709-E05589CAD3BF}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{E2F6074E-3581-44DF-967D-BD5A07265253}"/>
+    <hyperlink ref="I9" r:id="rId14" xr:uid="{11F6340D-1028-4945-85C4-176ABFC35AF1}"/>
+  </hyperlinks>
+  <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.39370078740157483" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageSetup orientation="portrait" verticalDpi="360" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5F25C-3CA1-4780-B63C-D9DEDA2932CE}">
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="B1:J11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="97" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" style="97" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="97" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" style="97" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" style="97" customWidth="1"/>
+    <col min="7" max="8" width="19.28515625" style="97" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="97" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="97" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="97" customWidth="1"/>
+    <col min="12" max="12" width="26.85546875" style="97" customWidth="1"/>
+    <col min="13" max="13" width="27.85546875" style="97" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="97" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="97" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="97" customWidth="1"/>
+    <col min="17" max="17" width="16.28515625" style="97" customWidth="1"/>
+    <col min="18" max="16384" width="11.42578125" style="97"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="G1" t="s">
+      <c r="G1" s="97" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="124" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="107"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="107"/>
-      <c r="G4" s="107"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="125"/>
+      <c r="G4" s="125"/>
+      <c r="H4" s="125"/>
+      <c r="I4" s="125"/>
+      <c r="J4" s="125"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="107"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="107"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="125"/>
+      <c r="F5" s="125"/>
+      <c r="G5" s="125"/>
+      <c r="H5" s="125"/>
+      <c r="I5" s="125"/>
+      <c r="J5" s="125"/>
     </row>
     <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="103" t="s">
+      <c r="B6" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="109" t="s">
+      <c r="C6" s="96">
+        <f ca="1">TODAY()</f>
+        <v>46080</v>
+      </c>
+      <c r="D6" s="127" t="s">
         <v>416</v>
       </c>
-      <c r="E6" s="110"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="102" t="s">
+      <c r="E6" s="128"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100" t="s">
         <v>418</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="112"/>
-      <c r="J6" s="113"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
+      <c r="J6" s="131"/>
     </row>
     <row r="7" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="102" t="s">
+      <c r="B7" s="100" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="109" t="s">
+      <c r="C7" s="101"/>
+      <c r="D7" s="127" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="102" t="s">
+      <c r="E7" s="128"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100" t="s">
         <v>419</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="102" t="s">
+      <c r="H7" s="101"/>
+      <c r="I7" s="100" t="s">
         <v>420</v>
       </c>
-      <c r="J7" s="40"/>
+      <c r="J7" s="101"/>
     </row>
     <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="108" t="s">
+      <c r="B8" s="126" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="102" t="s">
+      <c r="B9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="126" t="s">
         <v>376</v>
       </c>
-      <c r="D9" s="108"/>
-      <c r="E9" s="102" t="s">
+      <c r="D9" s="126"/>
+      <c r="E9" s="100" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="102" t="s">
+      <c r="F9" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="102" t="s">
+      <c r="G9" s="100" t="s">
         <v>406</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="100" t="s">
         <v>410</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="108"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="102" t="s">
         <v>347</v>
       </c>
-      <c r="C10" s="104" t="s">
+      <c r="C10" s="122" t="s">
         <v>348</v>
       </c>
-      <c r="D10" s="104"/>
-      <c r="E10" s="100">
+      <c r="D10" s="122"/>
+      <c r="E10" s="104">
         <v>4</v>
       </c>
-      <c r="F10" s="101">
+      <c r="F10" s="105">
         <v>1200300</v>
       </c>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="103" t="s">
         <v>409</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="101">
         <v>45454445544</v>
       </c>
-      <c r="I10" s="105" t="s">
+      <c r="I10" s="123" t="s">
         <v>92</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="98"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="11">
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:J11"/>
@@ -4874,14 +6643,23 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="H6:J6"/>
   </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H6:J6" xr:uid="{270C52D0-4348-4292-8C93-D45C773C1B75}">
+      <formula1>INDIRECT("Tabla_Conductores[CONDUCTOR]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H7" xr:uid="{75E31A53-40D7-4DAF-A950-907BAB8BB510}">
+      <formula1>INDIRECT("Tabla_Conductores[VEHICULO]")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB95E42D-C5BA-488B-996E-D061588793A8}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="B3:H56"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
@@ -4898,15 +6676,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="117"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -5571,8 +7349,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8974F2E2-E7C7-461A-998C-B798B49AFCA2}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5600,11 +7379,11 @@
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="141">
+      <c r="E2" s="159">
         <v>0.25</v>
       </c>
-      <c r="F2" s="142"/>
-      <c r="G2" s="143"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="161"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
@@ -5627,372 +7406,372 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="139"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="157"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="138" t="s">
+      <c r="C5" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="139"/>
-      <c r="E5" s="138" t="s">
+      <c r="D5" s="157"/>
+      <c r="E5" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="140"/>
-      <c r="G5" s="139"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="157"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="118" t="s">
+      <c r="C6" s="136" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="119"/>
-      <c r="E6" s="125" t="s">
+      <c r="D6" s="137"/>
+      <c r="E6" s="143" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="126"/>
-      <c r="G6" s="127"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="145"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="144" t="s">
+      <c r="C7" s="162" t="s">
         <v>360</v>
       </c>
-      <c r="D7" s="145"/>
-      <c r="E7" s="120" t="s">
+      <c r="D7" s="163"/>
+      <c r="E7" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="121"/>
-      <c r="G7" s="122"/>
+      <c r="F7" s="139"/>
+      <c r="G7" s="140"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="144" t="s">
+      <c r="C8" s="162" t="s">
         <v>361</v>
       </c>
-      <c r="D8" s="145"/>
-      <c r="E8" s="120" t="s">
+      <c r="D8" s="163"/>
+      <c r="E8" s="138" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="140"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="136" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="119"/>
-      <c r="E9" s="120" t="s">
+      <c r="D9" s="137"/>
+      <c r="E9" s="138" t="s">
         <v>368</v>
       </c>
-      <c r="F9" s="121"/>
-      <c r="G9" s="122"/>
+      <c r="F9" s="139"/>
+      <c r="G9" s="140"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="118" t="s">
+      <c r="C10" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="119"/>
-      <c r="E10" s="120" t="s">
+      <c r="D10" s="137"/>
+      <c r="E10" s="138" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="121"/>
-      <c r="G10" s="122"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="140"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="118" t="s">
+      <c r="C11" s="136" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="119"/>
-      <c r="E11" s="120" t="s">
+      <c r="D11" s="137"/>
+      <c r="E11" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="F11" s="121"/>
-      <c r="G11" s="122"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="140"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="118" t="s">
+      <c r="C12" s="136" t="s">
         <v>363</v>
       </c>
-      <c r="D12" s="119"/>
-      <c r="E12" s="120" t="s">
+      <c r="D12" s="137"/>
+      <c r="E12" s="138" t="s">
         <v>370</v>
       </c>
-      <c r="F12" s="121"/>
-      <c r="G12" s="122"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="140"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="118" t="s">
+      <c r="C13" s="136" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="119"/>
-      <c r="E13" s="125" t="s">
+      <c r="D13" s="137"/>
+      <c r="E13" s="143" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="126"/>
-      <c r="G13" s="127"/>
+      <c r="F13" s="144"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="118" t="s">
+      <c r="C14" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="119"/>
-      <c r="E14" s="120" t="s">
+      <c r="D14" s="137"/>
+      <c r="E14" s="138" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="121"/>
-      <c r="G14" s="122"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="140"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="118" t="s">
+      <c r="C15" s="136" t="s">
         <v>360</v>
       </c>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120" t="s">
+      <c r="D15" s="137"/>
+      <c r="E15" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="121"/>
-      <c r="G15" s="122"/>
+      <c r="F15" s="139"/>
+      <c r="G15" s="140"/>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="118" t="s">
+      <c r="C16" s="136" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120" t="s">
+      <c r="D16" s="137"/>
+      <c r="E16" s="138" t="s">
         <v>366</v>
       </c>
-      <c r="F16" s="121"/>
-      <c r="G16" s="122"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="136" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120" t="s">
+      <c r="D17" s="137"/>
+      <c r="E17" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="121"/>
-      <c r="G17" s="122"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="140"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="118" t="s">
+      <c r="C18" s="136" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120" t="s">
+      <c r="D18" s="137"/>
+      <c r="E18" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="121"/>
-      <c r="G18" s="122"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="C19" s="123" t="s">
+      <c r="C19" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="120" t="s">
+      <c r="D19" s="142"/>
+      <c r="E19" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="F19" s="121"/>
-      <c r="G19" s="122"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="135" t="s">
+      <c r="B20" s="153" t="s">
         <v>364</v>
       </c>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="154"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="155"/>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="128" t="s">
+      <c r="B21" s="146" t="s">
         <v>372</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="130" t="s">
+      <c r="C23" s="148" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132" t="s">
+      <c r="D23" s="149"/>
+      <c r="E23" s="150" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="134"/>
+      <c r="F23" s="151"/>
+      <c r="G23" s="152"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="118" t="s">
+      <c r="C24" s="136" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="119"/>
-      <c r="E24" s="132" t="s">
+      <c r="D24" s="137"/>
+      <c r="E24" s="150" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="133"/>
-      <c r="G24" s="134"/>
+      <c r="F24" s="151"/>
+      <c r="G24" s="152"/>
     </row>
     <row r="28" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="118" t="s">
+      <c r="C28" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="119"/>
-      <c r="E28" s="120" t="s">
+      <c r="D28" s="137"/>
+      <c r="E28" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="121"/>
-      <c r="G28" s="122"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="140"/>
     </row>
     <row r="29" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="118" t="s">
+      <c r="C29" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="119"/>
-      <c r="E29" s="120" t="s">
+      <c r="D29" s="137"/>
+      <c r="E29" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="121"/>
-      <c r="G29" s="122"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="140"/>
     </row>
     <row r="30" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="118" t="s">
+      <c r="C30" s="136" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="119"/>
-      <c r="E30" s="120" t="s">
+      <c r="D30" s="137"/>
+      <c r="E30" s="138" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="121"/>
-      <c r="G30" s="122"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="140"/>
     </row>
     <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="118" t="s">
+      <c r="C31" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="119"/>
-      <c r="E31" s="120" t="s">
+      <c r="D31" s="137"/>
+      <c r="E31" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="121"/>
-      <c r="G31" s="122"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="140"/>
     </row>
     <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="118" t="s">
+      <c r="C32" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="119"/>
-      <c r="E32" s="120" t="s">
+      <c r="D32" s="137"/>
+      <c r="E32" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="121"/>
-      <c r="G32" s="122"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="140"/>
     </row>
     <row r="33" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="118" t="s">
+      <c r="C33" s="136" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="120" t="s">
+      <c r="D33" s="137"/>
+      <c r="E33" s="138" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="121"/>
-      <c r="G33" s="122"/>
+      <c r="F33" s="139"/>
+      <c r="G33" s="140"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="118" t="s">
+      <c r="C34" s="136" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="119"/>
-      <c r="E34" s="125" t="s">
+      <c r="D34" s="137"/>
+      <c r="E34" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="126"/>
-      <c r="G34" s="127"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="145"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
@@ -6002,9 +7781,9 @@
       <c r="D40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="141"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="143"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="161"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
@@ -6021,44 +7800,44 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="138" t="s">
+      <c r="B42" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="140"/>
-      <c r="F42" s="140"/>
-      <c r="G42" s="139"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="157"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="138" t="s">
+      <c r="C43" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="139"/>
-      <c r="E43" s="138" t="s">
+      <c r="D43" s="157"/>
+      <c r="E43" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="140"/>
-      <c r="G43" s="139"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="157"/>
     </row>
     <row r="44" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
-      <c r="C44" s="118"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="120"/>
-      <c r="F44" s="121"/>
-      <c r="G44" s="122"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="137"/>
+      <c r="E44" s="138"/>
+      <c r="F44" s="139"/>
+      <c r="G44" s="140"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="130"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="134"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="149"/>
+      <c r="E45" s="150"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="152"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
@@ -6068,9 +7847,9 @@
       <c r="D49" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="141"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="143"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="161"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
@@ -6087,44 +7866,44 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="138" t="s">
+      <c r="B51" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="139"/>
+      <c r="C51" s="158"/>
+      <c r="D51" s="158"/>
+      <c r="E51" s="158"/>
+      <c r="F51" s="158"/>
+      <c r="G51" s="157"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="138" t="s">
+      <c r="C52" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="139"/>
-      <c r="E52" s="138" t="s">
+      <c r="D52" s="157"/>
+      <c r="E52" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="140"/>
-      <c r="G52" s="139"/>
+      <c r="F52" s="158"/>
+      <c r="G52" s="157"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
-      <c r="C53" s="130"/>
-      <c r="D53" s="131"/>
-      <c r="E53" s="132"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="134"/>
+      <c r="C53" s="148"/>
+      <c r="D53" s="149"/>
+      <c r="E53" s="150"/>
+      <c r="F53" s="151"/>
+      <c r="G53" s="152"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="134"/>
+      <c r="C54" s="148"/>
+      <c r="D54" s="149"/>
+      <c r="E54" s="150"/>
+      <c r="F54" s="151"/>
+      <c r="G54" s="152"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -6202,8 +7981,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0495C32E-80BF-4EE6-A394-29FDFC384E05}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="B3:G111"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -6233,14 +8013,14 @@
       <c r="C3" s="20">
         <v>45864</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="161">
+      <c r="E3" s="169"/>
+      <c r="F3" s="179">
         <v>0.125</v>
       </c>
-      <c r="G3" s="161"/>
+      <c r="G3" s="179"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6263,222 +8043,222 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="153"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="168"/>
       <c r="E7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="148" t="s">
+      <c r="F7" s="166" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="149"/>
+      <c r="G7" s="167"/>
     </row>
     <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="150"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="166" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="149"/>
+      <c r="G8" s="167"/>
     </row>
     <row r="9" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="150"/>
+      <c r="D9" s="168"/>
       <c r="E9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="148" t="s">
+      <c r="F9" s="166" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="149"/>
+      <c r="G9" s="167"/>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="150"/>
+      <c r="D10" s="168"/>
       <c r="E10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="148" t="s">
+      <c r="F10" s="166" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="149"/>
+      <c r="G10" s="167"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="157" t="s">
+      <c r="C11" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="158"/>
+      <c r="D11" s="176"/>
       <c r="E11" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="191" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="173"/>
+      <c r="G11" s="191"/>
     </row>
     <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="171" t="s">
+      <c r="C12" s="189" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="172"/>
+      <c r="D12" s="190"/>
       <c r="E12" s="48">
         <v>6000</v>
       </c>
-      <c r="F12" s="173" t="s">
+      <c r="F12" s="191" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="173"/>
+      <c r="G12" s="191"/>
     </row>
     <row r="13" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="171" t="s">
+      <c r="C13" s="189" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="172"/>
+      <c r="D13" s="190"/>
       <c r="E13" s="48">
         <v>6300</v>
       </c>
-      <c r="F13" s="173" t="s">
+      <c r="F13" s="191" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="173"/>
+      <c r="G13" s="191"/>
     </row>
     <row r="14" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="154" t="s">
+      <c r="C14" s="172" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="155"/>
+      <c r="D14" s="173"/>
       <c r="E14" s="6">
         <v>11000</v>
       </c>
-      <c r="F14" s="159" t="s">
+      <c r="F14" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="160"/>
+      <c r="G14" s="178"/>
     </row>
     <row r="15" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="156" t="s">
+      <c r="C15" s="174" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="6">
         <v>6300</v>
       </c>
-      <c r="F15" s="159" t="s">
+      <c r="F15" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="160"/>
+      <c r="G15" s="178"/>
     </row>
     <row r="16" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="154" t="s">
+      <c r="C16" s="172" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="155"/>
+      <c r="D16" s="173"/>
       <c r="E16" s="6">
         <v>7000</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="160"/>
+      <c r="G16" s="178"/>
     </row>
     <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="154" t="s">
+      <c r="C17" s="172" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="155"/>
+      <c r="D17" s="173"/>
       <c r="E17" s="6">
         <v>6300</v>
       </c>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="160"/>
+      <c r="G17" s="178"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="157" t="s">
+      <c r="C18" s="175" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="158"/>
+      <c r="D18" s="176"/>
       <c r="E18" s="6">
         <v>2600</v>
       </c>
-      <c r="F18" s="159" t="s">
+      <c r="F18" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="160"/>
+      <c r="G18" s="178"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -6487,14 +8267,14 @@
       <c r="C21" s="20">
         <v>45882</v>
       </c>
-      <c r="D21" s="151" t="s">
+      <c r="D21" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152">
+      <c r="E21" s="169"/>
+      <c r="F21" s="170">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G21" s="152"/>
+      <c r="G21" s="170"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
@@ -6515,86 +8295,86 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="153" t="s">
+      <c r="B23" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="153"/>
-      <c r="D23" s="153"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="153" t="s">
+      <c r="C24" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="153"/>
+      <c r="D24" s="171"/>
       <c r="E24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="153" t="s">
+      <c r="F24" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="153"/>
+      <c r="G24" s="171"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="150" t="s">
+      <c r="C25" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="150"/>
+      <c r="D25" s="168"/>
       <c r="E25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="148" t="s">
+      <c r="F25" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="149"/>
+      <c r="G25" s="167"/>
     </row>
     <row r="26" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="150"/>
+      <c r="D26" s="168"/>
       <c r="E26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="148" t="s">
+      <c r="F26" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="149"/>
+      <c r="G26" s="167"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="150"/>
-      <c r="D27" s="150"/>
+      <c r="C27" s="168"/>
+      <c r="D27" s="168"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="167"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="165"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="149"/>
+      <c r="F28" s="166"/>
+      <c r="G28" s="167"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="165"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="149"/>
+      <c r="F29" s="166"/>
+      <c r="G29" s="167"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
@@ -6603,14 +8383,14 @@
       <c r="C32" s="20">
         <v>45884</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152">
+      <c r="E32" s="169"/>
+      <c r="F32" s="170">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G32" s="152"/>
+      <c r="G32" s="170"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
@@ -6633,94 +8413,94 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
+      <c r="E34" s="171"/>
+      <c r="F34" s="171"/>
+      <c r="G34" s="171"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="153" t="s">
+      <c r="C35" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="153"/>
+      <c r="D35" s="171"/>
       <c r="E35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="153" t="s">
+      <c r="F35" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="153"/>
+      <c r="G35" s="171"/>
     </row>
     <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="C36" s="150" t="s">
+      <c r="C36" s="168" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="150"/>
+      <c r="D36" s="168"/>
       <c r="E36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="148" t="s">
+      <c r="F36" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="149"/>
+      <c r="G36" s="167"/>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="C37" s="150" t="s">
+      <c r="C37" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="150"/>
+      <c r="D37" s="168"/>
       <c r="E37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="148" t="s">
+      <c r="F37" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="149"/>
+      <c r="G37" s="167"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="150" t="s">
+      <c r="C38" s="168" t="s">
         <v>353</v>
       </c>
-      <c r="D38" s="150"/>
+      <c r="D38" s="168"/>
       <c r="E38" s="25">
         <v>3500</v>
       </c>
-      <c r="F38" s="148" t="s">
+      <c r="F38" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="149"/>
+      <c r="G38" s="167"/>
     </row>
     <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="147"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="148"/>
-      <c r="G39" s="149"/>
+      <c r="F39" s="166"/>
+      <c r="G39" s="167"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="147"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="148"/>
-      <c r="G40" s="149"/>
+      <c r="F40" s="166"/>
+      <c r="G40" s="167"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
@@ -6729,14 +8509,14 @@
       <c r="C48" s="20">
         <v>45904</v>
       </c>
-      <c r="D48" s="151" t="s">
+      <c r="D48" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="151"/>
-      <c r="F48" s="161">
+      <c r="E48" s="169"/>
+      <c r="F48" s="179">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="161"/>
+      <c r="G48" s="179"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
@@ -6759,75 +8539,75 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="153" t="s">
+      <c r="B50" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="153"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
+      <c r="C50" s="171"/>
+      <c r="D50" s="171"/>
+      <c r="E50" s="171"/>
+      <c r="F50" s="171"/>
+      <c r="G50" s="171"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="153" t="s">
+      <c r="C51" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="153"/>
+      <c r="D51" s="171"/>
       <c r="E51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="153" t="s">
+      <c r="F51" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="153"/>
+      <c r="G51" s="171"/>
     </row>
     <row r="52" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="150" t="s">
+      <c r="C52" s="168" t="s">
         <v>357</v>
       </c>
-      <c r="D52" s="150"/>
+      <c r="D52" s="168"/>
       <c r="E52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="148" t="s">
+      <c r="F52" s="166" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="149"/>
+      <c r="G52" s="167"/>
     </row>
     <row r="53" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="150" t="s">
+      <c r="C53" s="168" t="s">
         <v>356</v>
       </c>
-      <c r="D53" s="150"/>
+      <c r="D53" s="168"/>
       <c r="E53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="148" t="s">
+      <c r="F53" s="166" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="149"/>
+      <c r="G53" s="167"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="170" t="s">
+      <c r="B56" s="188" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="162" t="s">
+      <c r="C56" s="180" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="163"/>
-      <c r="E56" s="164"/>
+      <c r="D56" s="181"/>
+      <c r="E56" s="182"/>
     </row>
     <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="170"/>
+      <c r="B57" s="188"/>
       <c r="C57" s="38" t="s">
         <v>183</v>
       </c>
@@ -6839,7 +8619,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="170"/>
+      <c r="B58" s="188"/>
       <c r="C58" s="38" t="s">
         <v>183</v>
       </c>
@@ -6851,7 +8631,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="170"/>
+      <c r="B59" s="188"/>
       <c r="C59" s="38" t="s">
         <v>183</v>
       </c>
@@ -6863,7 +8643,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="170"/>
+      <c r="B60" s="188"/>
       <c r="C60" s="38" t="s">
         <v>183</v>
       </c>
@@ -6875,7 +8655,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="170"/>
+      <c r="B61" s="188"/>
       <c r="C61" s="38" t="s">
         <v>183</v>
       </c>
@@ -6887,14 +8667,14 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="170"/>
+      <c r="B62" s="188"/>
       <c r="C62" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D62" s="165">
+      <c r="D62" s="183">
         <v>4</v>
       </c>
-      <c r="E62" s="166"/>
+      <c r="E62" s="184"/>
     </row>
     <row r="63" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="55" t="s">
@@ -6903,18 +8683,18 @@
       <c r="C63" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="165">
+      <c r="D63" s="183">
         <v>5</v>
       </c>
-      <c r="E63" s="166"/>
+      <c r="E63" s="184"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="167" t="s">
+      <c r="B68" s="185" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="167"/>
-      <c r="D68" s="167"/>
-      <c r="E68" s="167"/>
+      <c r="C68" s="185"/>
+      <c r="D68" s="185"/>
+      <c r="E68" s="185"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
@@ -7225,18 +9005,18 @@
       <c r="G92" s="26"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="168" t="s">
+      <c r="B95" s="186" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="169" t="s">
+      <c r="C95" s="187" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="169"/>
-      <c r="E95" s="169"/>
-      <c r="F95" s="169"/>
+      <c r="D95" s="187"/>
+      <c r="E95" s="187"/>
+      <c r="F95" s="187"/>
     </row>
     <row r="96" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="168"/>
+      <c r="B96" s="186"/>
       <c r="C96" s="38" t="s">
         <v>183</v>
       </c>
@@ -7251,7 +9031,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="168"/>
+      <c r="B97" s="186"/>
       <c r="C97" s="38" t="s">
         <v>183</v>
       </c>
@@ -7269,7 +9049,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="168"/>
+      <c r="B98" s="186"/>
       <c r="C98" s="38" t="s">
         <v>183</v>
       </c>
@@ -7287,7 +9067,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="168"/>
+      <c r="B99" s="186"/>
       <c r="C99" s="38" t="s">
         <v>183</v>
       </c>
@@ -7305,7 +9085,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="168"/>
+      <c r="B100" s="186"/>
       <c r="C100" s="38" t="s">
         <v>183</v>
       </c>
@@ -7323,7 +9103,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="168"/>
+      <c r="B101" s="186"/>
       <c r="C101" s="38" t="s">
         <v>184</v>
       </c>
@@ -7342,97 +9122,97 @@
       <c r="B106" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="150" t="s">
+      <c r="C106" s="168" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="150"/>
+      <c r="D106" s="168"/>
       <c r="E106" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="148" t="s">
+      <c r="F106" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="149"/>
+      <c r="G106" s="167"/>
     </row>
     <row r="107" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="150" t="s">
+      <c r="C107" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="150"/>
+      <c r="D107" s="168"/>
       <c r="E107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="148" t="s">
+      <c r="F107" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G107" s="149"/>
+      <c r="G107" s="167"/>
     </row>
     <row r="108" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="150" t="s">
+      <c r="C108" s="168" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="150"/>
+      <c r="D108" s="168"/>
       <c r="E108" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="148" t="s">
+      <c r="F108" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="149"/>
+      <c r="G108" s="167"/>
     </row>
     <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="150" t="s">
+      <c r="C109" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="150"/>
+      <c r="D109" s="168"/>
       <c r="E109" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F109" s="148" t="s">
+      <c r="F109" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="149"/>
+      <c r="G109" s="167"/>
     </row>
     <row r="110" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="150" t="s">
+      <c r="C110" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="150"/>
+      <c r="D110" s="168"/>
       <c r="E110" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F110" s="148" t="s">
+      <c r="F110" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="149"/>
+      <c r="G110" s="167"/>
     </row>
     <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="150" t="s">
+      <c r="C111" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="150"/>
+      <c r="D111" s="168"/>
       <c r="E111" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="148" t="s">
+      <c r="F111" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="149"/>
+      <c r="G111" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -7529,8 +9309,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C04F27-F18B-4F07-9A6D-94BAAF45FAEF}">
+  <sheetPr codeName="Hoja7"/>
   <dimension ref="B3:G68"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
@@ -7552,12 +9333,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="179"/>
+      <c r="G3" s="179"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7574,102 +9355,102 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="153" t="s">
+      <c r="B5" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="153"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
+      <c r="E5" s="171"/>
+      <c r="F5" s="171"/>
+      <c r="G5" s="171"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="153"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="157" t="s">
+      <c r="C7" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="158"/>
+      <c r="D7" s="176"/>
       <c r="E7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="192"/>
     </row>
     <row r="8" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="157" t="s">
+      <c r="C8" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="158"/>
+      <c r="D8" s="176"/>
       <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="174" t="s">
+      <c r="F8" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="174"/>
+      <c r="G8" s="192"/>
     </row>
     <row r="9" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="157" t="s">
+      <c r="C9" s="175" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="158"/>
+      <c r="D9" s="176"/>
       <c r="E9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="174" t="s">
+      <c r="F9" s="192" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="174"/>
+      <c r="G9" s="192"/>
     </row>
     <row r="10" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="157" t="s">
+      <c r="C10" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="158"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="173"/>
+      <c r="G10" s="191"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="167" t="s">
+      <c r="B15" s="185" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
-      <c r="E15" s="167"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="185"/>
+      <c r="E15" s="185"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -7884,12 +9665,12 @@
         <v>1</v>
       </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="151" t="s">
+      <c r="D44" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="151"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="179"/>
+      <c r="G44" s="179"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
@@ -7906,218 +9687,218 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="153" t="s">
+      <c r="B46" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="153"/>
-      <c r="D46" s="153"/>
-      <c r="E46" s="153"/>
-      <c r="F46" s="153"/>
-      <c r="G46" s="153"/>
+      <c r="C46" s="171"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="153" t="s">
+      <c r="C47" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="153"/>
+      <c r="D47" s="171"/>
       <c r="E47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="153" t="s">
+      <c r="F47" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="153"/>
+      <c r="G47" s="171"/>
     </row>
     <row r="48" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="157" t="s">
+      <c r="C48" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="158"/>
+      <c r="D48" s="176"/>
       <c r="E48" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="174" t="s">
+      <c r="F48" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="174"/>
+      <c r="G48" s="192"/>
     </row>
     <row r="49" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="157" t="s">
+      <c r="C49" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="158"/>
+      <c r="D49" s="176"/>
       <c r="E49" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="174" t="s">
+      <c r="F49" s="192" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="174"/>
+      <c r="G49" s="192"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="157" t="s">
+      <c r="C50" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="158"/>
+      <c r="D50" s="176"/>
       <c r="E50" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
+      <c r="F50" s="191"/>
+      <c r="G50" s="191"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="157" t="s">
+      <c r="C51" s="175" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="158"/>
+      <c r="D51" s="176"/>
       <c r="E51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="173"/>
-      <c r="G51" s="173"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
     </row>
     <row r="61" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="157" t="s">
+      <c r="C61" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="158"/>
+      <c r="D61" s="176"/>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="174" t="s">
+      <c r="F61" s="192" t="s">
         <v>278</v>
       </c>
-      <c r="G61" s="174"/>
+      <c r="G61" s="192"/>
     </row>
     <row r="62" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="157" t="s">
+      <c r="C62" s="175" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="158"/>
+      <c r="D62" s="176"/>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="174" t="s">
+      <c r="F62" s="192" t="s">
         <v>277</v>
       </c>
-      <c r="G62" s="174"/>
+      <c r="G62" s="192"/>
     </row>
     <row r="63" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="157" t="s">
+      <c r="C63" s="175" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="158"/>
+      <c r="D63" s="176"/>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="174" t="s">
+      <c r="F63" s="192" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="174"/>
+      <c r="G63" s="192"/>
     </row>
     <row r="64" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C64" s="157" t="s">
+      <c r="C64" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="158"/>
+      <c r="D64" s="176"/>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="173" t="s">
+      <c r="F64" s="191" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="173"/>
+      <c r="G64" s="191"/>
     </row>
     <row r="65" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="157" t="s">
+      <c r="C65" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="158"/>
+      <c r="D65" s="176"/>
       <c r="E65" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="173" t="s">
+      <c r="F65" s="191" t="s">
         <v>282</v>
       </c>
-      <c r="G65" s="173"/>
+      <c r="G65" s="191"/>
     </row>
     <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="157" t="s">
+      <c r="C66" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="158"/>
+      <c r="D66" s="176"/>
       <c r="E66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="173" t="s">
+      <c r="F66" s="191" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="173"/>
+      <c r="G66" s="191"/>
     </row>
     <row r="67" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="157" t="s">
+      <c r="C67" s="175" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="158"/>
+      <c r="D67" s="176"/>
       <c r="E67" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="173" t="s">
+      <c r="F67" s="191" t="s">
         <v>285</v>
       </c>
-      <c r="G67" s="173"/>
+      <c r="G67" s="191"/>
     </row>
     <row r="68" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="157" t="s">
+      <c r="C68" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="158"/>
+      <c r="D68" s="176"/>
       <c r="E68" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="173" t="s">
+      <c r="F68" s="191" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="173"/>
+      <c r="G68" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -8170,8 +9951,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691A9B9A-8E83-44B8-A4C4-54EB6A58E0F0}">
+  <sheetPr codeName="Hoja8"/>
   <dimension ref="B3:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -8194,14 +9976,14 @@
       <c r="C3" s="20">
         <v>45797</v>
       </c>
-      <c r="D3" s="151" t="s">
+      <c r="D3" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="151"/>
-      <c r="F3" s="161">
+      <c r="E3" s="169"/>
+      <c r="F3" s="179">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="161"/>
+      <c r="G3" s="179"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
@@ -8224,74 +10006,74 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="195" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="178"/>
-      <c r="E5" s="178"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="179"/>
+      <c r="C5" s="196"/>
+      <c r="D5" s="196"/>
+      <c r="E5" s="196"/>
+      <c r="F5" s="196"/>
+      <c r="G5" s="197"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="153" t="s">
+      <c r="C6" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="153"/>
+      <c r="D6" s="171"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="153" t="s">
+      <c r="F6" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="171"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="156" t="s">
+      <c r="C7" s="174" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="156"/>
+      <c r="D7" s="174"/>
       <c r="E7" s="25">
         <v>8500</v>
       </c>
-      <c r="F7" s="174" t="s">
+      <c r="F7" s="192" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="174"/>
+      <c r="G7" s="192"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="168" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="150"/>
+      <c r="D8" s="168"/>
       <c r="E8" s="25">
         <v>6500</v>
       </c>
-      <c r="F8" s="148" t="s">
+      <c r="F8" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="149"/>
+      <c r="G8" s="167"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="181"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
+      <c r="E11" s="199"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
@@ -8308,46 +10090,46 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="175"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="175"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="175" t="s">
+      <c r="C14" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="175"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="175" t="s">
+      <c r="F14" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="175"/>
+      <c r="G14" s="193"/>
     </row>
     <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="176" t="s">
+      <c r="C15" s="194" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="176"/>
+      <c r="D15" s="194"/>
       <c r="E15" s="6">
         <v>17000</v>
       </c>
-      <c r="F15" s="176" t="s">
+      <c r="F15" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="176"/>
+      <c r="G15" s="194"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
@@ -8359,11 +10141,11 @@
       <c r="D19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="186">
+      <c r="E19" s="204">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
@@ -8386,60 +10168,60 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="184" t="s">
+      <c r="B21" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
+      <c r="C21" s="202"/>
+      <c r="D21" s="202"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="184" t="s">
+      <c r="C22" s="202" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="184"/>
+      <c r="D22" s="202"/>
       <c r="E22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="175" t="s">
+      <c r="F22" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="175"/>
+      <c r="G22" s="193"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="185"/>
+      <c r="D23" s="203"/>
       <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="182" t="s">
+      <c r="F23" s="200" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="183"/>
+      <c r="G23" s="201"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="167" t="s">
+      <c r="C24" s="185" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="167"/>
+      <c r="D24" s="185"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="182" t="s">
+      <c r="F24" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="183"/>
+      <c r="G24" s="201"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8473,8 +10255,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB20ED8A-8F70-407F-8BBD-2258A7CA276A}">
+  <sheetPr codeName="Hoja9"/>
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView topLeftCell="A21" workbookViewId="0">
@@ -8498,14 +10281,14 @@
       <c r="B1" s="3">
         <v>45924</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="181"/>
-      <c r="E1" s="187">
+      <c r="D1" s="199"/>
+      <c r="E1" s="205">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="187"/>
+      <c r="F1" s="205"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -8528,155 +10311,155 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
+      <c r="A3" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="175" t="s">
+      <c r="B4" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="193"/>
       <c r="D4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="175" t="s">
+      <c r="E4" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="175"/>
+      <c r="F4" s="193"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="175" t="s">
         <v>374</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="176"/>
       <c r="D5" s="48">
         <v>8300</v>
       </c>
-      <c r="E5" s="173" t="s">
+      <c r="E5" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="173"/>
+      <c r="F5" s="191"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="157" t="s">
+      <c r="B6" s="175" t="s">
         <v>375</v>
       </c>
-      <c r="C6" s="158"/>
+      <c r="C6" s="176"/>
       <c r="D6" s="48">
         <v>6300</v>
       </c>
-      <c r="E6" s="173" t="s">
+      <c r="E6" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="173"/>
+      <c r="F6" s="191"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="176"/>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="130" t="s">
+      <c r="E7" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="131"/>
+      <c r="F7" s="149"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="175" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="176"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="157" t="s">
+      <c r="E8" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="158"/>
+      <c r="F8" s="176"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="150" t="s">
+      <c r="B9" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="150"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="148" t="s">
+      <c r="E9" s="166" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="149"/>
+      <c r="F9" s="167"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="150" t="s">
+      <c r="B10" s="168" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="150"/>
+      <c r="C10" s="168"/>
       <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="149"/>
+      <c r="F10" s="167"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="150" t="s">
+      <c r="B11" s="168" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="150"/>
+      <c r="C11" s="168"/>
       <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="148" t="s">
+      <c r="E11" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="149"/>
+      <c r="F11" s="167"/>
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="188" t="s">
+      <c r="A12" s="206" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="189"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
+      <c r="B12" s="207"/>
+      <c r="C12" s="207"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="207"/>
+      <c r="F12" s="207"/>
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8690,292 +10473,292 @@
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="176" t="s">
+      <c r="B16" s="194" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="176"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="6">
         <v>11000</v>
       </c>
-      <c r="E16" s="173" t="s">
+      <c r="E16" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="173"/>
+      <c r="F16" s="191"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="176" t="s">
+      <c r="B17" s="194" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="176"/>
+      <c r="C17" s="194"/>
       <c r="D17" s="6">
         <v>6000</v>
       </c>
-      <c r="E17" s="176" t="s">
+      <c r="E17" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="176"/>
+      <c r="F17" s="194"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="176" t="s">
+      <c r="B18" s="194" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="176"/>
+      <c r="C18" s="194"/>
       <c r="D18" s="6">
         <v>3000</v>
       </c>
-      <c r="E18" s="176" t="s">
+      <c r="E18" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="176"/>
+      <c r="F18" s="194"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="194" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="176"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="6">
         <v>2500</v>
       </c>
-      <c r="E19" s="176" t="s">
+      <c r="E19" s="194" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="176"/>
+      <c r="F19" s="194"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="176" t="s">
+      <c r="B20" s="194" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="176"/>
+      <c r="C20" s="194"/>
       <c r="D20" s="6">
         <v>11000</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="E20" s="191" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="173"/>
+      <c r="F20" s="191"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="157" t="s">
+      <c r="B21" s="175" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="158"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="6">
         <v>3000</v>
       </c>
-      <c r="E21" s="130" t="s">
+      <c r="E21" s="148" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="131"/>
+      <c r="F21" s="149"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="176" t="s">
+      <c r="B22" s="194" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="176"/>
+      <c r="C22" s="194"/>
       <c r="D22" s="6">
         <v>2300</v>
       </c>
-      <c r="E22" s="176" t="s">
+      <c r="E22" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="176"/>
+      <c r="F22" s="194"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="175" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="158"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="6">
         <v>2300</v>
       </c>
-      <c r="E23" s="130" t="s">
+      <c r="E23" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="131"/>
+      <c r="F23" s="149"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="157" t="s">
+      <c r="B24" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="158"/>
+      <c r="C24" s="176"/>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="157" t="s">
+      <c r="E24" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="158"/>
+      <c r="F24" s="176"/>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B25" s="175" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="158"/>
+      <c r="C25" s="176"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="157" t="s">
+      <c r="E25" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="158"/>
+      <c r="F25" s="176"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="157" t="s">
+      <c r="B26" s="175" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="158"/>
+      <c r="C26" s="176"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="157" t="s">
+      <c r="E26" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="158"/>
+      <c r="F26" s="176"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="157" t="s">
+      <c r="B27" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="158"/>
+      <c r="C27" s="176"/>
       <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="157" t="s">
+      <c r="E27" s="175" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="176"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="158"/>
+      <c r="C28" s="176"/>
       <c r="D28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="157" t="s">
+      <c r="E28" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="158"/>
+      <c r="F28" s="176"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="157" t="s">
+      <c r="B29" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="158"/>
+      <c r="C29" s="176"/>
       <c r="D29" s="48">
         <v>3000</v>
       </c>
-      <c r="E29" s="173" t="s">
+      <c r="E29" s="191" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="173"/>
+      <c r="F29" s="191"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="175" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="158"/>
+      <c r="C30" s="176"/>
       <c r="D30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="173" t="s">
+      <c r="E30" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="173"/>
+      <c r="F30" s="191"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="157" t="s">
+      <c r="B31" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="158"/>
+      <c r="C31" s="176"/>
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="157" t="s">
+      <c r="E31" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="158"/>
+      <c r="F31" s="176"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="175" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="158"/>
+      <c r="C32" s="176"/>
       <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="157" t="s">
+      <c r="E32" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="158"/>
+      <c r="F32" s="176"/>
     </row>
     <row r="33" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="175" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="158"/>
+      <c r="C33" s="176"/>
       <c r="D33" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="159" t="s">
+      <c r="E33" s="177" t="s">
         <v>283</v>
       </c>
-      <c r="F33" s="160"/>
+      <c r="F33" s="178"/>
       <c r="I33" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -8985,14 +10768,14 @@
       <c r="B36" s="3">
         <v>45867</v>
       </c>
-      <c r="C36" s="181" t="s">
+      <c r="C36" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="181"/>
-      <c r="E36" s="187">
+      <c r="D36" s="199"/>
+      <c r="E36" s="205">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F36" s="187"/>
+      <c r="F36" s="205"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -9015,158 +10798,158 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="175" t="s">
+      <c r="A38" s="193" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="175"/>
-      <c r="C38" s="175"/>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
+      <c r="B38" s="193"/>
+      <c r="C38" s="193"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="193"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="193" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="175"/>
+      <c r="C39" s="193"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="175" t="s">
+      <c r="E39" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="175"/>
+      <c r="F39" s="193"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="157" t="s">
+      <c r="B40" s="175" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="158"/>
+      <c r="C40" s="176"/>
       <c r="D40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="157" t="s">
+      <c r="E40" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="158"/>
+      <c r="F40" s="176"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="157" t="s">
+      <c r="B41" s="175" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="158"/>
+      <c r="C41" s="176"/>
       <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="157" t="s">
+      <c r="E41" s="175" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="158"/>
+      <c r="F41" s="176"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="175" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="158"/>
+      <c r="C42" s="176"/>
       <c r="D42" s="6">
         <v>3400</v>
       </c>
-      <c r="E42" s="130" t="s">
+      <c r="E42" s="148" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="131"/>
+      <c r="F42" s="149"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B43" s="150" t="s">
+      <c r="B43" s="168" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="150"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="148" t="s">
+      <c r="E43" s="166" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="149"/>
+      <c r="F43" s="167"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="150" t="s">
+      <c r="B44" s="168" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="150"/>
+      <c r="C44" s="168"/>
       <c r="D44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="148" t="s">
+      <c r="E44" s="166" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="149"/>
+      <c r="F44" s="167"/>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="150"/>
+      <c r="C45" s="168"/>
       <c r="D45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="148" t="s">
+      <c r="E45" s="166" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="149"/>
+      <c r="F45" s="167"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="150" t="s">
+      <c r="B46" s="168" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="150"/>
+      <c r="C46" s="168"/>
       <c r="D46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="148" t="s">
+      <c r="E46" s="166" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="149"/>
+      <c r="F46" s="167"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="168" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="150"/>
+      <c r="C47" s="168"/>
       <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="148" t="s">
+      <c r="E47" s="166" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="149"/>
+      <c r="F47" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="77">
@@ -9251,421 +11034,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA743D-F5DE-4B74-8830-370BC2F59812}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3">
-        <v>45842</v>
-      </c>
-      <c r="C1" s="192" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="193"/>
-      <c r="E1" s="180">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F1" s="176"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="175" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="175" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="175"/>
-      <c r="E4" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="154" t="s">
-        <v>304</v>
-      </c>
-      <c r="D5" s="155"/>
-      <c r="E5" s="2">
-        <v>11000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="156" t="s">
-        <v>305</v>
-      </c>
-      <c r="D6" s="156"/>
-      <c r="E6" s="2">
-        <v>6300</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="191"/>
-      <c r="C7" s="154" t="s">
-        <v>280</v>
-      </c>
-      <c r="D7" s="155"/>
-      <c r="E7" s="2">
-        <v>7000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="191"/>
-      <c r="C8" s="154" t="s">
-        <v>306</v>
-      </c>
-      <c r="D8" s="155"/>
-      <c r="E8" s="6">
-        <v>6300</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="158"/>
-      <c r="C9" s="176" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" s="176"/>
-      <c r="E9" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F9" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="120" t="s">
-        <v>228</v>
-      </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="148" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="149"/>
-      <c r="E10" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="120" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="148" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="149"/>
-      <c r="E11" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="157" t="s">
-        <v>253</v>
-      </c>
-      <c r="D12" s="158"/>
-      <c r="E12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="191"/>
-      <c r="C15" s="157" t="s">
-        <v>294</v>
-      </c>
-      <c r="D15" s="158"/>
-      <c r="E15" s="2">
-        <v>2600</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="191"/>
-      <c r="C16" s="157" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="2">
-        <v>2600</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="190" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="191"/>
-      <c r="C17" s="154" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="155"/>
-      <c r="E17" s="2">
-        <v>6300</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="158"/>
-      <c r="C18" s="157" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="158"/>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="158"/>
-      <c r="C19" s="157" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="158"/>
-      <c r="E19" s="6">
-        <v>2300</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="157" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="158"/>
-      <c r="C20" s="156" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="156"/>
-      <c r="E20" s="15">
-        <v>2300</v>
-      </c>
-      <c r="F20" s="60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
-        <v>143</v>
-      </c>
-      <c r="B21" s="158"/>
-      <c r="C21" s="176" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="176"/>
-      <c r="E21" s="194" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="195"/>
-    </row>
-    <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
-        <v>203</v>
-      </c>
-      <c r="B22" s="172"/>
-      <c r="C22" s="176" t="s">
-        <v>259</v>
-      </c>
-      <c r="D22" s="176"/>
-      <c r="E22" s="15">
-        <v>6000</v>
-      </c>
-      <c r="F22" s="60" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B23" s="122"/>
-      <c r="C23" s="148" t="s">
-        <v>300</v>
-      </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="61">
-        <v>6300</v>
-      </c>
-      <c r="F23" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="120" t="s">
-        <v>297</v>
-      </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="148" t="s">
-        <v>299</v>
-      </c>
-      <c r="D24" s="149"/>
-      <c r="E24" s="61">
-        <v>6300</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A17:B17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="72" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
+++ b/Programacion Supermercados/CUADROS PROGRAMACIONES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pipea\OneDrive\Documentos\HIELO-FOCA\Programacion Supermercados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF0A326-741E-4C3B-8F7A-C885EDF7E01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C58550D-F4C2-4E81-950C-9A22C7CD3542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" activeTab="2" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="713" xr2:uid="{7F998C17-66EB-42E9-A447-7E0056C5F018}"/>
   </bookViews>
   <sheets>
     <sheet name="BASE_DATOS" sheetId="25" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="449">
   <si>
     <t>REMISION</t>
   </si>
@@ -1220,9 +1220,6 @@
     <t>SUPERMERCADO CINCO MENOS LA MARAVILLA SAS (SUR CANAIMA)</t>
   </si>
   <si>
-    <t>50  BOLSAS TUB 3 KG</t>
-  </si>
-  <si>
     <t>JHON CUELLAR</t>
   </si>
   <si>
@@ -1401,9 +1398,6 @@
   </si>
   <si>
     <t>CODIGO - INDEPENDIENTE</t>
-  </si>
-  <si>
-    <t>FAC ELEC</t>
   </si>
   <si>
     <t>N° OC</t>
@@ -1439,6 +1433,96 @@
   </si>
   <si>
     <t>CODIGO:</t>
+  </si>
+  <si>
+    <t>ALMACENES EXITO S.A (EXITO CENTRO)</t>
+  </si>
+  <si>
+    <t>ALMACENES EXITO S.A (EXITO SAN PEDRO)</t>
+  </si>
+  <si>
+    <t>ALMACENES EXITO S.A (EXITO UNICENTRO)</t>
+  </si>
+  <si>
+    <t>ALMACENES EXITO S.A (EXITO UNICO)</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. AMARANTO</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. CANAIMA</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. IPANEMA</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. MONTEMADERO</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. SANTA LOMA</t>
+  </si>
+  <si>
+    <t>OLIMPICA S.A. SAO</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CAÑA BRAVA</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CANAIMA</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CC UNICO</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CENTRO</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CHAPINERO</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. CR 5</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. GRANJAS</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S. - POP. JARDIN</t>
+  </si>
+  <si>
+    <t>ARCINIEGAS ASOCIADOS SP S.A.S.- POP RIOJA</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO CINCO MENOS LA MARAVILLA 1 (CAMBULOS)</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO CINCO MENOS LA MARAVILLA SAS (LAVORAGINE)</t>
+  </si>
+  <si>
+    <t>SUPERMERCADO CINCO MENOS LA MARAVILLA SAS (SUR TIMANCO)</t>
+  </si>
+  <si>
+    <t>SUPERMERCADOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODO PAGO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSFERENCIA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TUB 7 KG </t>
+  </si>
+  <si>
+    <t>TUB 3 KG</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>AGUA 6 L</t>
+  </si>
+  <si>
+    <t>GARRAFA 5 L</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1535,7 @@
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1692,6 +1776,22 @@
       <i/>
       <sz val="12"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1973,7 +2073,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2285,45 +2385,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2654,6 +2715,110 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2662,7 +2827,31 @@
     <cellStyle name="Moneda [0] 2" xfId="3" xr:uid="{A700F51D-CFE4-48B1-93DF-61A182D08489}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2674,19 +2863,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2703,29 +2886,8 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2754,19 +2916,157 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD9D2E9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="&quot;$&quot;\ #,##0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2780,6 +3080,200 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD9D2E9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2872,15 +3366,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>159749</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2910,8 +3404,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="733425" y="609600"/>
-          <a:ext cx="2667000" cy="781050"/>
+          <a:off x="838200" y="266701"/>
+          <a:ext cx="2447925" cy="769348"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2923,15 +3417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123826</xdr:rowOff>
+      <xdr:colOff>349088</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51513</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>466566</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2960,8 +3454,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="21197378">
-          <a:off x="10029826" y="504826"/>
-          <a:ext cx="971550" cy="971550"/>
+          <a:off x="10216988" y="242013"/>
+          <a:ext cx="755653" cy="814920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2974,14 +3468,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{62E2F28C-23D2-4BFB-8D4E-58A98B1A1DCE}" name="Tabla_Conductores" displayName="Tabla_Conductores" ref="A2:C51" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{62E2F28C-23D2-4BFB-8D4E-58A98B1A1DCE}" name="Tabla_Conductores" displayName="Tabla_Conductores" ref="A2:C51" totalsRowShown="0" headerRowDxfId="21" dataDxfId="14" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
   <autoFilter ref="A2:C51" xr:uid="{62E2F28C-23D2-4BFB-8D4E-58A98B1A1DCE}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3E2638BF-46BE-48ED-B981-8992650553F0}" name="CODIGO" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{4871B49C-FC15-4D26-9ABF-22149E253CA9}" name="VEHICULO" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{2F274683-51A4-417C-AC03-A22118229720}" name="CONDUCTOR" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{3E2638BF-46BE-48ED-B981-8992650553F0}" name="CODIGO" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{4871B49C-FC15-4D26-9ABF-22149E253CA9}" name="VEHICULO" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{2F274683-51A4-417C-AC03-A22118229720}" name="CONDUCTOR" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{269DF350-D5A4-46E1-8FEE-869F57C5231D}" name="Tabla_Supermercados" displayName="Tabla_Supermercados" ref="P2:V25" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9">
+  <autoFilter ref="P2:V25" xr:uid="{269DF350-D5A4-46E1-8FEE-869F57C5231D}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{3C613DF8-0385-4111-8BF2-3D9E1004ED03}" name="EMPRESA" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{EB50365C-5A59-4146-8EB8-AE2747CAB015}" name="TUB 3 KG" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E57A5FB6-4B31-48CA-98E1-5EC947CE34F0}" name="TUB 7 KG " dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{9AEBBB80-F455-49FB-BA5B-6796A9774170}" name="GARRAFA 5 L" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{70A3F48A-A2EF-4B29-A106-7C1FED1BCEA1}" name="AGUA 6 L" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C527082C-9AF2-4C72-968B-00DD88FA2466}" name="DOCUMENTO" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{51BC46B6-F274-4DF0-B489-2027C88980DC}" name="MODO PAGO " dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -3283,10 +3793,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F58780E1-5A44-4AA9-A3B8-3B497F2B5CA0}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:V51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3303,71 +3813,108 @@
     <col min="12" max="12" width="41.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="61.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
+    <row r="1" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="E1" s="119" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="119"/>
+      <c r="H1" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="L1" s="119" t="s">
+        <v>407</v>
+      </c>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="P1" s="119" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q1" s="119"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+    </row>
+    <row r="2" spans="1:22" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="108" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="121"/>
+      <c r="H2" s="241" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="241" t="s">
+        <v>55</v>
+      </c>
+      <c r="J2" s="242" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="243" t="s">
+        <v>115</v>
+      </c>
+      <c r="M2" s="243" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="243" t="s">
+        <v>116</v>
+      </c>
+      <c r="P2" s="244" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q2" s="245" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="245" t="s">
+        <v>444</v>
+      </c>
+      <c r="S2" s="247" t="s">
+        <v>448</v>
+      </c>
+      <c r="T2" s="247" t="s">
+        <v>447</v>
+      </c>
+      <c r="U2" s="245" t="s">
         <v>405</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="E1" s="132" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="132"/>
-      <c r="H1" s="132" t="s">
-        <v>407</v>
-      </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="L1" s="133" t="s">
-        <v>408</v>
-      </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="119" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="121" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="134" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="134"/>
-      <c r="H2" s="87" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="92" t="s">
-        <v>115</v>
-      </c>
-      <c r="M2" s="92" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="92" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106">
+      <c r="V2" s="246" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="216">
         <v>28</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="218" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" s="111" t="s">
-        <v>378</v>
       </c>
       <c r="E3" s="88" t="s">
         <v>42</v>
@@ -3391,15 +3938,32 @@
       <c r="N3" s="95">
         <v>7725044</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="106">
+      <c r="P3" s="237" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q3" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R3" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S3" s="234"/>
+      <c r="T3" s="236"/>
+      <c r="U3" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V3" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="216">
         <v>29</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C4" s="111" t="s">
+      <c r="B4" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C4" s="218" t="s">
         <v>346</v>
       </c>
       <c r="E4" s="88" t="s">
@@ -3426,16 +3990,33 @@
       <c r="N4" s="95">
         <v>17328221</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106">
+      <c r="P4" s="237" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q4" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R4" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S4" s="234"/>
+      <c r="T4" s="236"/>
+      <c r="U4" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V4" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="216">
         <v>30</v>
       </c>
-      <c r="B5" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C5" s="111" t="s">
-        <v>379</v>
+      <c r="B5" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C5" s="218" t="s">
+        <v>378</v>
       </c>
       <c r="E5" s="88" t="s">
         <v>95</v>
@@ -3459,16 +4040,33 @@
       <c r="N5" s="95">
         <v>7247582</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+      <c r="P5" s="237" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q5" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R5" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S5" s="234"/>
+      <c r="T5" s="236"/>
+      <c r="U5" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V5" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="216">
         <v>31</v>
       </c>
-      <c r="B6" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C6" s="111" t="s">
-        <v>380</v>
+      <c r="B6" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C6" s="218" t="s">
+        <v>379</v>
       </c>
       <c r="E6" s="88" t="s">
         <v>43</v>
@@ -3492,16 +4090,33 @@
       <c r="N6" s="95">
         <v>7685879</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="P6" s="237" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q6" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R6" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S6" s="234"/>
+      <c r="T6" s="236"/>
+      <c r="U6" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V6" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="216">
         <v>32</v>
       </c>
-      <c r="B7" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C7" s="111" t="s">
-        <v>381</v>
+      <c r="B7" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C7" s="218" t="s">
+        <v>380</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>44</v>
@@ -3525,16 +4140,33 @@
       <c r="N7" s="95">
         <v>7721366</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="106">
+      <c r="P7" s="237" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q7" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R7" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S7" s="234"/>
+      <c r="T7" s="236"/>
+      <c r="U7" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V7" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="216">
         <v>33</v>
       </c>
-      <c r="B8" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C8" s="111" t="s">
-        <v>382</v>
+      <c r="B8" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C8" s="218" t="s">
+        <v>381</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>45</v>
@@ -3558,16 +4190,33 @@
       <c r="N8" s="95">
         <v>12121403</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="106">
+      <c r="P8" s="237" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q8" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R8" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S8" s="234"/>
+      <c r="T8" s="236"/>
+      <c r="U8" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V8" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="216">
         <v>34</v>
       </c>
-      <c r="B9" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C9" s="111" t="s">
-        <v>383</v>
+      <c r="B9" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C9" s="218" t="s">
+        <v>382</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>46</v>
@@ -3593,16 +4242,33 @@
       <c r="N9" s="95">
         <v>7731136</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
+      <c r="P9" s="237" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q9" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R9" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S9" s="234"/>
+      <c r="T9" s="236"/>
+      <c r="U9" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V9" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="216">
         <v>35</v>
       </c>
-      <c r="B10" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C10" s="111" t="s">
-        <v>373</v>
+      <c r="B10" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C10" s="218" t="s">
+        <v>372</v>
       </c>
       <c r="E10" s="88" t="s">
         <v>47</v>
@@ -3626,16 +4292,33 @@
       <c r="N10" s="95">
         <v>83224248</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="P10" s="237" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q10" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R10" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S10" s="234"/>
+      <c r="T10" s="236"/>
+      <c r="U10" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V10" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="216">
         <v>36</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="C11" s="111" t="s">
-        <v>384</v>
+      <c r="B11" s="217" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="218" t="s">
+        <v>383</v>
       </c>
       <c r="E11" s="88" t="s">
         <v>48</v>
@@ -3659,16 +4342,33 @@
       <c r="N11" s="95">
         <v>83229799</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="P11" s="237" t="s">
+        <v>427</v>
+      </c>
+      <c r="Q11" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R11" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S11" s="234"/>
+      <c r="T11" s="236"/>
+      <c r="U11" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V11" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="219">
         <v>37</v>
       </c>
-      <c r="B12" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C12" s="112" t="s">
-        <v>349</v>
+      <c r="B12" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C12" s="221" t="s">
+        <v>348</v>
       </c>
       <c r="E12" s="88" t="s">
         <v>49</v>
@@ -3694,16 +4394,33 @@
       <c r="N12" s="95">
         <v>5165026</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="P12" s="237" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q12" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R12" s="234">
+        <v>6500</v>
+      </c>
+      <c r="S12" s="234"/>
+      <c r="T12" s="236"/>
+      <c r="U12" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V12" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="219">
         <v>38</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="221" t="s">
         <v>385</v>
-      </c>
-      <c r="C13" s="112" t="s">
-        <v>386</v>
       </c>
       <c r="E13" s="88" t="s">
         <v>50</v>
@@ -3727,16 +4444,31 @@
       <c r="N13" s="95">
         <v>36153689</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="P13" s="237" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q13" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R13" s="234"/>
+      <c r="S13" s="234"/>
+      <c r="T13" s="234"/>
+      <c r="U13" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V13" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="219">
         <v>39</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C14" s="112" t="s">
-        <v>381</v>
+      <c r="B14" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="221" t="s">
+        <v>380</v>
       </c>
       <c r="E14" s="88" t="s">
         <v>51</v>
@@ -3762,16 +4494,31 @@
       <c r="N14" s="95">
         <v>1075320222</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="P14" s="237" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q14" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R14" s="234"/>
+      <c r="S14" s="234"/>
+      <c r="T14" s="234"/>
+      <c r="U14" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V14" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="219">
         <v>40</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C15" s="112" t="s">
-        <v>380</v>
+      <c r="B15" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C15" s="221" t="s">
+        <v>379</v>
       </c>
       <c r="E15" s="88" t="s">
         <v>53</v>
@@ -3795,15 +4542,30 @@
       <c r="N15" s="95">
         <v>12114401</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="P15" s="237" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q15" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R15" s="234"/>
+      <c r="S15" s="234"/>
+      <c r="T15" s="234"/>
+      <c r="U15" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V15" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="219">
         <v>41</v>
       </c>
-      <c r="B16" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="221" t="s">
         <v>346</v>
       </c>
       <c r="E16" s="88" t="s">
@@ -3828,16 +4590,31 @@
       <c r="N16" s="95">
         <v>17632318</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="P16" s="237" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q16" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R16" s="234"/>
+      <c r="S16" s="234"/>
+      <c r="T16" s="234"/>
+      <c r="U16" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V16" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="219">
         <v>42</v>
       </c>
-      <c r="B17" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C17" s="112" t="s">
-        <v>373</v>
+      <c r="B17" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C17" s="221" t="s">
+        <v>372</v>
       </c>
       <c r="L17" s="93" t="s">
         <v>131</v>
@@ -3846,16 +4623,31 @@
       <c r="N17" s="95">
         <v>12170925</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+      <c r="P17" s="237" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q17" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R17" s="234"/>
+      <c r="S17" s="234"/>
+      <c r="T17" s="234"/>
+      <c r="U17" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V17" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="219">
         <v>44</v>
       </c>
-      <c r="B18" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C18" s="112" t="s">
-        <v>383</v>
+      <c r="B18" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C18" s="221" t="s">
+        <v>382</v>
       </c>
       <c r="L18" s="93" t="s">
         <v>132</v>
@@ -3864,16 +4656,31 @@
       <c r="N18" s="95">
         <v>12277398</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+      <c r="P18" s="237" t="s">
+        <v>434</v>
+      </c>
+      <c r="Q18" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R18" s="234"/>
+      <c r="S18" s="234"/>
+      <c r="T18" s="234"/>
+      <c r="U18" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V18" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="219">
         <v>45</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C19" s="112" t="s">
-        <v>378</v>
+      <c r="B19" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C19" s="221" t="s">
+        <v>377</v>
       </c>
       <c r="L19" s="93" t="s">
         <v>133</v>
@@ -3882,16 +4689,31 @@
       <c r="N19" s="95">
         <v>1075222202</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="P19" s="237" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q19" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R19" s="234"/>
+      <c r="S19" s="234"/>
+      <c r="T19" s="234"/>
+      <c r="U19" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V19" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="219">
         <v>46</v>
       </c>
-      <c r="B20" s="79" t="s">
-        <v>385</v>
-      </c>
-      <c r="C20" s="112" t="s">
-        <v>387</v>
+      <c r="B20" s="220" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="221" t="s">
+        <v>386</v>
       </c>
       <c r="L20" s="93" t="s">
         <v>134</v>
@@ -3900,357 +4722,464 @@
       <c r="N20" s="95">
         <v>1007681658</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="P20" s="237" t="s">
+        <v>436</v>
+      </c>
+      <c r="Q20" s="234">
+        <v>2900</v>
+      </c>
+      <c r="R20" s="234"/>
+      <c r="S20" s="234"/>
+      <c r="T20" s="234"/>
+      <c r="U20" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V20" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="222">
         <v>5</v>
       </c>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="113" t="s">
-        <v>388</v>
+      <c r="C21" s="224" t="s">
+        <v>387</v>
       </c>
       <c r="L21" s="93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M21" s="26"/>
       <c r="N21" s="95">
         <v>1075299501</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="P21" s="238" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q21" s="235">
+        <v>2900</v>
+      </c>
+      <c r="R21" s="235"/>
+      <c r="S21" s="235"/>
+      <c r="T21" s="235"/>
+      <c r="U21" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V21" s="239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="222">
         <v>6</v>
       </c>
-      <c r="B22" s="81" t="s">
+      <c r="B22" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="113" t="s">
+      <c r="C22" s="224" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="P22" s="237" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q22" s="234">
+        <v>3100</v>
+      </c>
+      <c r="R22" s="234"/>
+      <c r="S22" s="234">
+        <v>3000</v>
+      </c>
+      <c r="T22" s="234">
+        <v>3900</v>
+      </c>
+      <c r="U22" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V22" s="239" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="222">
         <v>7</v>
       </c>
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="224" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="P23" s="237" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q23" s="234">
+        <v>3100</v>
+      </c>
+      <c r="R23" s="234"/>
+      <c r="S23" s="234">
+        <v>3000</v>
+      </c>
+      <c r="T23" s="234">
+        <v>3900</v>
+      </c>
+      <c r="U23" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V23" s="239" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="222">
         <v>8</v>
       </c>
-      <c r="B24" s="81" t="s">
+      <c r="B24" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="113" t="s">
+      <c r="C24" s="224" t="s">
+        <v>388</v>
+      </c>
+      <c r="P24" s="237" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q24" s="234">
+        <v>3100</v>
+      </c>
+      <c r="R24" s="234"/>
+      <c r="S24" s="234">
+        <v>3000</v>
+      </c>
+      <c r="T24" s="234">
+        <v>3900</v>
+      </c>
+      <c r="U24" s="214" t="s">
+        <v>269</v>
+      </c>
+      <c r="V24" s="239" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="222">
+        <v>12</v>
+      </c>
+      <c r="B25" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="224" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="108">
-        <v>12</v>
-      </c>
-      <c r="B25" s="81" t="s">
+      <c r="P25" s="238" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q25" s="235">
+        <v>3100</v>
+      </c>
+      <c r="R25" s="235"/>
+      <c r="S25" s="235">
+        <v>3000</v>
+      </c>
+      <c r="T25" s="235">
+        <v>3900</v>
+      </c>
+      <c r="U25" s="215" t="s">
+        <v>269</v>
+      </c>
+      <c r="V25" s="240" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="222">
+        <v>13</v>
+      </c>
+      <c r="B26" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="113" t="s">
+      <c r="C26" s="224" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="108">
-        <v>13</v>
-      </c>
-      <c r="B26" s="81" t="s">
+    <row r="27" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="222">
         <v>15</v>
       </c>
-      <c r="C26" s="113" t="s">
+      <c r="B27" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="224" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="222">
+        <v>16</v>
+      </c>
+      <c r="B28" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="224" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="108">
+    <row r="29" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="222">
+        <v>19</v>
+      </c>
+      <c r="B29" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="81" t="s">
+      <c r="C29" s="224" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="222">
+        <v>23</v>
+      </c>
+      <c r="B30" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="113" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="108">
-        <v>16</v>
-      </c>
-      <c r="B28" s="81" t="s">
+      <c r="C30" s="224" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="222">
+        <v>24</v>
+      </c>
+      <c r="B31" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="113" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="108">
-        <v>19</v>
-      </c>
-      <c r="B29" s="81" t="s">
+      <c r="C31" s="224" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="222">
+        <v>26</v>
+      </c>
+      <c r="B32" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="113" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="108">
-        <v>23</v>
-      </c>
-      <c r="B30" s="81" t="s">
+      <c r="C32" s="224" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="222">
+        <v>51</v>
+      </c>
+      <c r="B33" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="113" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="108">
-        <v>24</v>
-      </c>
-      <c r="B31" s="81" t="s">
+      <c r="C33" s="224" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="222">
+        <v>52</v>
+      </c>
+      <c r="B34" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="113" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="108">
-        <v>26</v>
-      </c>
-      <c r="B32" s="81" t="s">
+      <c r="C34" s="224" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="222">
+        <v>53</v>
+      </c>
+      <c r="B35" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="113" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="108">
-        <v>51</v>
-      </c>
-      <c r="B33" s="81" t="s">
+      <c r="C35" s="224" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="222">
+        <v>54</v>
+      </c>
+      <c r="B36" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="113" t="s">
+      <c r="C36" s="224" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="222">
+        <v>55</v>
+      </c>
+      <c r="B37" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="224" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="222">
+        <v>56</v>
+      </c>
+      <c r="B38" s="223" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="224" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="108">
-        <v>52</v>
-      </c>
-      <c r="B34" s="81" t="s">
+    <row r="39" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="222">
+        <v>57</v>
+      </c>
+      <c r="B39" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="113" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="108">
-        <v>53</v>
-      </c>
-      <c r="B35" s="81" t="s">
+      <c r="C39" s="224" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="222">
+        <v>58</v>
+      </c>
+      <c r="B40" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="113" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="108">
-        <v>54</v>
-      </c>
-      <c r="B36" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="113" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="108">
-        <v>55</v>
-      </c>
-      <c r="B37" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="108">
-        <v>56</v>
-      </c>
-      <c r="B38" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C38" s="113" t="s">
+      <c r="C40" s="224" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="225">
+        <v>61</v>
+      </c>
+      <c r="B41" s="226" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="108">
-        <v>57</v>
-      </c>
-      <c r="B39" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="113" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="108">
-        <v>58</v>
-      </c>
-      <c r="B40" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="C40" s="113" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="109">
-        <v>61</v>
-      </c>
-      <c r="B41" s="83" t="s">
+      <c r="C41" s="227" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="225">
+        <v>62</v>
+      </c>
+      <c r="B42" s="226" t="s">
+        <v>398</v>
+      </c>
+      <c r="C42" s="227" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="225">
+        <v>63</v>
+      </c>
+      <c r="B43" s="226" t="s">
+        <v>398</v>
+      </c>
+      <c r="C43" s="227" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="225">
+        <v>64</v>
+      </c>
+      <c r="B44" s="226" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="227" t="s">
         <v>399</v>
       </c>
-      <c r="C41" s="114" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="109">
-        <v>62</v>
-      </c>
-      <c r="B42" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C42" s="114" t="s">
+    </row>
+    <row r="45" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="225">
+        <v>65</v>
+      </c>
+      <c r="B45" s="226" t="s">
+        <v>398</v>
+      </c>
+      <c r="C45" s="227" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="225">
+        <v>66</v>
+      </c>
+      <c r="B46" s="226" t="s">
+        <v>398</v>
+      </c>
+      <c r="C46" s="227" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="228">
+        <v>71</v>
+      </c>
+      <c r="B47" s="229" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="230" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="228">
+        <v>72</v>
+      </c>
+      <c r="B48" s="229" t="s">
+        <v>401</v>
+      </c>
+      <c r="C48" s="230" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="228">
+        <v>73</v>
+      </c>
+      <c r="B49" s="229" t="s">
+        <v>401</v>
+      </c>
+      <c r="C49" s="230" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="228">
+        <v>74</v>
+      </c>
+      <c r="B50" s="229" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" s="230" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="109">
-        <v>63</v>
-      </c>
-      <c r="B43" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C43" s="114" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="109">
-        <v>64</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C44" s="114" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="109">
-        <v>65</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C45" s="114" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="109">
-        <v>66</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>399</v>
-      </c>
-      <c r="C46" s="114" t="s">
+    <row r="51" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="231">
+        <v>75</v>
+      </c>
+      <c r="B51" s="232" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="110">
-        <v>71</v>
-      </c>
-      <c r="B47" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C47" s="115" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="110">
-        <v>72</v>
-      </c>
-      <c r="B48" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C48" s="115" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="110">
-        <v>73</v>
-      </c>
-      <c r="B49" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C49" s="115" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="110">
-        <v>74</v>
-      </c>
-      <c r="B50" s="85" t="s">
-        <v>402</v>
-      </c>
-      <c r="C50" s="115" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="116">
-        <v>75</v>
-      </c>
-      <c r="B51" s="117" t="s">
-        <v>402</v>
-      </c>
-      <c r="C51" s="118" t="s">
-        <v>373</v>
+      <c r="C51" s="233" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="P1:V1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="H1:J1"/>
@@ -4275,8 +5204,9 @@
   </hyperlinks>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.39370078740157483" bottom="0.74803149606299213" header="0.39370078740157483" footer="0.31496062992125984"/>
   <pageSetup orientation="portrait" verticalDpi="360" r:id="rId15"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4306,14 +5236,14 @@
       <c r="B1" s="3">
         <v>45842</v>
       </c>
-      <c r="C1" s="210" t="s">
+      <c r="C1" s="197" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="211"/>
-      <c r="E1" s="198">
+      <c r="D1" s="198"/>
+      <c r="E1" s="185">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="194"/>
+      <c r="F1" s="181"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -4336,24 +5266,24 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="180" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="180" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193" t="s">
+      <c r="B4" s="180"/>
+      <c r="C4" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="193"/>
+      <c r="D4" s="180"/>
       <c r="E4" s="18" t="s">
         <v>14</v>
       </c>
@@ -4362,14 +5292,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="208" t="s">
+      <c r="A5" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="209"/>
-      <c r="C5" s="172" t="s">
+      <c r="B5" s="196"/>
+      <c r="C5" s="159" t="s">
         <v>304</v>
       </c>
-      <c r="D5" s="173"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="2">
         <v>11000</v>
       </c>
@@ -4378,14 +5308,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="208" t="s">
+      <c r="A6" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="209"/>
-      <c r="C6" s="174" t="s">
+      <c r="B6" s="196"/>
+      <c r="C6" s="161" t="s">
         <v>305</v>
       </c>
-      <c r="D6" s="174"/>
+      <c r="D6" s="161"/>
       <c r="E6" s="2">
         <v>6300</v>
       </c>
@@ -4394,14 +5324,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="208" t="s">
+      <c r="A7" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="172" t="s">
+      <c r="B7" s="196"/>
+      <c r="C7" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="D7" s="173"/>
+      <c r="D7" s="160"/>
       <c r="E7" s="2">
         <v>7000</v>
       </c>
@@ -4410,14 +5340,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="209"/>
-      <c r="C8" s="172" t="s">
+      <c r="B8" s="196"/>
+      <c r="C8" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="D8" s="173"/>
+      <c r="D8" s="160"/>
       <c r="E8" s="6">
         <v>6300</v>
       </c>
@@ -4426,14 +5356,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="176"/>
-      <c r="C9" s="194" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="181" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="194"/>
+      <c r="D9" s="181"/>
       <c r="E9" s="15">
         <v>6000</v>
       </c>
@@ -4442,14 +5372,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="138" t="s">
+      <c r="A10" s="125" t="s">
         <v>228</v>
       </c>
-      <c r="B10" s="140"/>
-      <c r="C10" s="166" t="s">
+      <c r="B10" s="127"/>
+      <c r="C10" s="153" t="s">
         <v>205</v>
       </c>
-      <c r="D10" s="167"/>
+      <c r="D10" s="154"/>
       <c r="E10" s="61" t="s">
         <v>0</v>
       </c>
@@ -4458,14 +5388,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="138" t="s">
+      <c r="A11" s="125" t="s">
         <v>226</v>
       </c>
-      <c r="B11" s="140"/>
-      <c r="C11" s="166" t="s">
+      <c r="B11" s="127"/>
+      <c r="C11" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="167"/>
+      <c r="D11" s="154"/>
       <c r="E11" s="61" t="s">
         <v>0</v>
       </c>
@@ -4474,14 +5404,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="175" t="s">
+      <c r="A12" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="176"/>
-      <c r="C12" s="175" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="D12" s="176"/>
+      <c r="D12" s="163"/>
       <c r="E12" s="6" t="s">
         <v>19</v>
       </c>
@@ -4492,14 +5422,14 @@
     <row r="13" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="209"/>
-      <c r="C15" s="175" t="s">
+      <c r="B15" s="196"/>
+      <c r="C15" s="162" t="s">
         <v>294</v>
       </c>
-      <c r="D15" s="176"/>
+      <c r="D15" s="163"/>
       <c r="E15" s="2">
         <v>2600</v>
       </c>
@@ -4508,14 +5438,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="208" t="s">
+      <c r="A16" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="209"/>
-      <c r="C16" s="175" t="s">
+      <c r="B16" s="196"/>
+      <c r="C16" s="162" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="176"/>
+      <c r="D16" s="163"/>
       <c r="E16" s="2">
         <v>2600</v>
       </c>
@@ -4524,14 +5454,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="209"/>
-      <c r="C17" s="172" t="s">
+      <c r="B17" s="196"/>
+      <c r="C17" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="2">
         <v>6300</v>
       </c>
@@ -4540,14 +5470,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="175" t="s">
+      <c r="A18" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="176"/>
-      <c r="C18" s="175" t="s">
+      <c r="B18" s="163"/>
+      <c r="C18" s="162" t="s">
         <v>111</v>
       </c>
-      <c r="D18" s="176"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="6" t="s">
         <v>19</v>
       </c>
@@ -4556,14 +5486,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="B19" s="176"/>
-      <c r="C19" s="175" t="s">
+      <c r="B19" s="163"/>
+      <c r="C19" s="162" t="s">
         <v>112</v>
       </c>
-      <c r="D19" s="176"/>
+      <c r="D19" s="163"/>
       <c r="E19" s="6">
         <v>2300</v>
       </c>
@@ -4572,14 +5502,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="162" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="176"/>
-      <c r="C20" s="174" t="s">
+      <c r="B20" s="163"/>
+      <c r="C20" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="174"/>
+      <c r="D20" s="161"/>
       <c r="E20" s="15">
         <v>2300</v>
       </c>
@@ -4588,28 +5518,28 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="162" t="s">
         <v>143</v>
       </c>
-      <c r="B21" s="176"/>
-      <c r="C21" s="194" t="s">
+      <c r="B21" s="163"/>
+      <c r="C21" s="181" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="194"/>
-      <c r="E21" s="212" t="s">
+      <c r="D21" s="181"/>
+      <c r="E21" s="199" t="s">
         <v>192</v>
       </c>
-      <c r="F21" s="213"/>
+      <c r="F21" s="200"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="189" t="s">
+      <c r="A22" s="176" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="190"/>
-      <c r="C22" s="194" t="s">
+      <c r="B22" s="177"/>
+      <c r="C22" s="181" t="s">
         <v>259</v>
       </c>
-      <c r="D22" s="194"/>
+      <c r="D22" s="181"/>
       <c r="E22" s="15">
         <v>6000</v>
       </c>
@@ -4618,14 +5548,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="138" t="s">
+      <c r="A23" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="140"/>
-      <c r="C23" s="166" t="s">
+      <c r="B23" s="127"/>
+      <c r="C23" s="153" t="s">
         <v>300</v>
       </c>
-      <c r="D23" s="167"/>
+      <c r="D23" s="154"/>
       <c r="E23" s="61">
         <v>6300</v>
       </c>
@@ -4634,14 +5564,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+      <c r="A24" s="125" t="s">
         <v>297</v>
       </c>
-      <c r="B24" s="140"/>
-      <c r="C24" s="166" t="s">
+      <c r="B24" s="127"/>
+      <c r="C24" s="153" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="167"/>
+      <c r="D24" s="154"/>
       <c r="E24" s="61">
         <v>6300</v>
       </c>
@@ -4726,14 +5656,14 @@
       <c r="B2" s="11">
         <v>45848</v>
       </c>
-      <c r="C2" s="225" t="s">
+      <c r="C2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="225"/>
-      <c r="E2" s="205">
+      <c r="D2" s="212"/>
+      <c r="E2" s="192">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F2" s="205"/>
+      <c r="F2" s="192"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -4756,62 +5686,62 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="193"/>
-      <c r="C4" s="193"/>
-      <c r="D4" s="193"/>
-      <c r="E4" s="193"/>
-      <c r="F4" s="193"/>
+      <c r="B4" s="180"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="193"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="193" t="s">
+      <c r="E5" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="193"/>
+      <c r="F5" s="180"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B6" s="194" t="s">
+      <c r="B6" s="181" t="s">
         <v>317</v>
       </c>
-      <c r="C6" s="194"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E6" s="185" t="s">
+      <c r="E6" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="185"/>
+      <c r="F6" s="172"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="168"/>
+      <c r="C7" s="155"/>
       <c r="D7" s="25">
         <v>6500</v>
       </c>
-      <c r="E7" s="166" t="s">
+      <c r="E7" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="167"/>
+      <c r="F7" s="154"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
@@ -4828,14 +5758,14 @@
       <c r="B11" s="20">
         <v>45806</v>
       </c>
-      <c r="C11" s="169" t="s">
+      <c r="C11" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="169"/>
-      <c r="E11" s="179" t="s">
+      <c r="D11" s="156"/>
+      <c r="E11" s="166" t="s">
         <v>292</v>
       </c>
-      <c r="F11" s="179"/>
+      <c r="F11" s="166"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
@@ -4858,178 +5788,178 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="171"/>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
-      <c r="E13" s="171"/>
-      <c r="F13" s="171"/>
+      <c r="B13" s="158"/>
+      <c r="C13" s="158"/>
+      <c r="D13" s="158"/>
+      <c r="E13" s="158"/>
+      <c r="F13" s="158"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="214" t="s">
+      <c r="B14" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="215"/>
+      <c r="C14" s="202"/>
       <c r="D14" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="171"/>
+      <c r="F14" s="158"/>
     </row>
     <row r="15" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="164" t="s">
+      <c r="B15" s="151" t="s">
         <v>288</v>
       </c>
-      <c r="C15" s="165"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="25">
         <v>2200</v>
       </c>
-      <c r="E15" s="166" t="s">
+      <c r="E15" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="167"/>
+      <c r="F15" s="154"/>
     </row>
     <row r="16" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="164" t="s">
+      <c r="B16" s="151" t="s">
         <v>290</v>
       </c>
-      <c r="C16" s="165"/>
+      <c r="C16" s="152"/>
       <c r="D16" s="25">
         <v>7700</v>
       </c>
-      <c r="E16" s="166" t="s">
+      <c r="E16" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="167"/>
+      <c r="F16" s="154"/>
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B17" s="164" t="s">
+      <c r="B17" s="151" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="165"/>
+      <c r="C17" s="152"/>
       <c r="D17" s="25">
         <v>6200</v>
       </c>
-      <c r="E17" s="166" t="s">
+      <c r="E17" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="167"/>
+      <c r="F17" s="154"/>
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B18" s="220" t="s">
+      <c r="B18" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="C18" s="220"/>
+      <c r="C18" s="207"/>
       <c r="D18" s="25">
         <v>3700</v>
       </c>
-      <c r="E18" s="166" t="s">
+      <c r="E18" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="167"/>
+      <c r="F18" s="154"/>
     </row>
     <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="B19" s="220" t="s">
+      <c r="B19" s="207" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="220"/>
+      <c r="C19" s="207"/>
       <c r="D19" s="25">
         <v>7900</v>
       </c>
-      <c r="E19" s="166" t="s">
+      <c r="E19" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="167"/>
+      <c r="F19" s="154"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="123" t="s">
         <v>301</v>
       </c>
-      <c r="C20" s="137"/>
+      <c r="C20" s="124"/>
       <c r="D20" s="25">
         <v>6300</v>
       </c>
-      <c r="E20" s="166" t="s">
+      <c r="E20" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="167"/>
+      <c r="F20" s="154"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B21" s="221" t="s">
+      <c r="B21" s="208" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="222"/>
+      <c r="C21" s="209"/>
       <c r="D21" s="13">
         <v>13000</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B22" s="164" t="s">
+      <c r="B22" s="151" t="s">
         <v>291</v>
       </c>
-      <c r="C22" s="165"/>
+      <c r="C22" s="152"/>
       <c r="D22" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E22" s="166" t="s">
+      <c r="E22" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="167"/>
+      <c r="F22" s="154"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
-      <c r="B23" s="223"/>
-      <c r="C23" s="224"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="211"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="223"/>
-      <c r="F23" s="224"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="211"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="20"/>
-      <c r="C28" s="218" t="s">
+      <c r="C28" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="219"/>
-      <c r="E28" s="216"/>
-      <c r="F28" s="217"/>
+      <c r="D28" s="206"/>
+      <c r="E28" s="203"/>
+      <c r="F28" s="204"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="42" t="s">
@@ -5046,46 +5976,46 @@
       <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="171" t="s">
+      <c r="A30" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B30" s="171"/>
-      <c r="C30" s="171"/>
-      <c r="D30" s="171"/>
-      <c r="E30" s="171"/>
-      <c r="F30" s="171"/>
+      <c r="B30" s="158"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="158"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="214" t="s">
+      <c r="B31" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="215"/>
+      <c r="C31" s="202"/>
       <c r="D31" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="171" t="s">
+      <c r="E31" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="171"/>
+      <c r="F31" s="158"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B32" s="168" t="s">
+      <c r="B32" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="C32" s="168"/>
+      <c r="C32" s="155"/>
       <c r="D32" s="25">
         <v>9000</v>
       </c>
-      <c r="E32" s="166" t="s">
+      <c r="E32" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="F32" s="167"/>
+      <c r="F32" s="154"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
@@ -5094,14 +6024,14 @@
       <c r="B36" s="20">
         <v>45867</v>
       </c>
-      <c r="C36" s="218" t="s">
+      <c r="C36" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="219"/>
-      <c r="E36" s="216">
+      <c r="D36" s="206"/>
+      <c r="E36" s="203">
         <v>0.58333333333333337</v>
       </c>
-      <c r="F36" s="217"/>
+      <c r="F36" s="204"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="42" t="s">
@@ -5124,78 +6054,78 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="171" t="s">
+      <c r="A38" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="171"/>
-      <c r="C38" s="171"/>
-      <c r="D38" s="171"/>
-      <c r="E38" s="171"/>
-      <c r="F38" s="171"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="214" t="s">
+      <c r="B39" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="215"/>
+      <c r="C39" s="202"/>
       <c r="D39" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="171" t="s">
+      <c r="E39" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="171"/>
+      <c r="F39" s="158"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="C40" s="168"/>
+      <c r="C40" s="155"/>
       <c r="D40" s="25">
         <v>6500</v>
       </c>
-      <c r="E40" s="166" t="s">
+      <c r="E40" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="167"/>
+      <c r="F40" s="154"/>
     </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B41" s="168" t="s">
+      <c r="B41" s="155" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="168"/>
+      <c r="C41" s="155"/>
       <c r="D41" s="25">
         <v>9000</v>
       </c>
-      <c r="E41" s="166" t="s">
+      <c r="E41" s="153" t="s">
         <v>269</v>
       </c>
-      <c r="F41" s="167"/>
+      <c r="F41" s="154"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="B42" s="136" t="s">
+      <c r="B42" s="123" t="s">
         <v>318</v>
       </c>
-      <c r="C42" s="137"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E42" s="166" t="s">
+      <c r="E42" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="167"/>
+      <c r="F42" s="154"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="42" t="s">
@@ -5204,21 +6134,21 @@
       <c r="B45" s="20">
         <v>45883</v>
       </c>
-      <c r="C45" s="218" t="s">
+      <c r="C45" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="219"/>
-      <c r="E45" s="216">
+      <c r="D45" s="206"/>
+      <c r="E45" s="203">
         <v>0.29166666666666669</v>
       </c>
-      <c r="F45" s="217"/>
+      <c r="F45" s="204"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="42" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C46" s="29" t="s">
         <v>4</v>
@@ -5234,30 +6164,30 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="171" t="s">
+      <c r="A47" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="171"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="171"/>
-      <c r="F47" s="171"/>
+      <c r="B47" s="158"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="158"/>
+      <c r="F47" s="158"/>
     </row>
     <row r="48" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B48" s="168" t="s">
+      <c r="B48" s="155" t="s">
         <v>303</v>
       </c>
-      <c r="C48" s="168"/>
+      <c r="C48" s="155"/>
       <c r="D48" s="25">
         <v>6500</v>
       </c>
-      <c r="E48" s="166" t="s">
+      <c r="E48" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="167"/>
+      <c r="F48" s="154"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
@@ -5266,14 +6196,14 @@
       <c r="B51" s="20">
         <v>45864</v>
       </c>
-      <c r="C51" s="218" t="s">
+      <c r="C51" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="219"/>
-      <c r="E51" s="216">
+      <c r="D51" s="206"/>
+      <c r="E51" s="203">
         <v>0.35416666666666669</v>
       </c>
-      <c r="F51" s="217"/>
+      <c r="F51" s="204"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
@@ -5290,78 +6220,78 @@
       <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="171" t="s">
+      <c r="A53" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="171"/>
-      <c r="C53" s="171"/>
-      <c r="D53" s="171"/>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
+      <c r="B53" s="158"/>
+      <c r="C53" s="158"/>
+      <c r="D53" s="158"/>
+      <c r="E53" s="158"/>
+      <c r="F53" s="158"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B54" s="214" t="s">
+      <c r="B54" s="201" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="215"/>
+      <c r="C54" s="202"/>
       <c r="D54" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="171" t="s">
+      <c r="E54" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="F54" s="171"/>
+      <c r="F54" s="158"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B55" s="191" t="s">
+      <c r="B55" s="178" t="s">
         <v>330</v>
       </c>
-      <c r="C55" s="191"/>
+      <c r="C55" s="178"/>
       <c r="D55" s="25">
         <v>6000</v>
       </c>
-      <c r="E55" s="166" t="s">
+      <c r="E55" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="F55" s="167"/>
+      <c r="F55" s="154"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="B56" s="191" t="s">
+      <c r="B56" s="178" t="s">
         <v>331</v>
       </c>
-      <c r="C56" s="191"/>
+      <c r="C56" s="178"/>
       <c r="D56" s="25">
         <v>2000</v>
       </c>
-      <c r="E56" s="166" t="s">
+      <c r="E56" s="153" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="167"/>
+      <c r="F56" s="154"/>
     </row>
     <row r="57" spans="1:6" ht="51" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B57" s="168" t="s">
+      <c r="B57" s="155" t="s">
         <v>280</v>
       </c>
-      <c r="C57" s="168"/>
+      <c r="C57" s="155"/>
       <c r="D57" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E57" s="166" t="s">
+      <c r="E57" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="F57" s="167"/>
+      <c r="F57" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="66">
@@ -5442,8 +6372,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5463,25 +6393,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="132" t="s">
-        <v>405</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="E1" s="132" t="s">
+      <c r="A1" s="119" t="s">
+        <v>404</v>
+      </c>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="E1" s="119" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="132"/>
-      <c r="H1" s="132" t="s">
+      <c r="F1" s="119"/>
+      <c r="H1" s="119" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="L1" s="120" t="s">
         <v>407</v>
       </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="L1" s="133" t="s">
-        <v>408</v>
-      </c>
-      <c r="M1" s="133"/>
-      <c r="N1" s="133"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -5493,10 +6423,10 @@
       <c r="C2" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="134" t="s">
+      <c r="E2" s="121" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="134"/>
+      <c r="F2" s="121"/>
       <c r="H2" s="87" t="s">
         <v>54</v>
       </c>
@@ -5521,10 +6451,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="77" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="78" t="s">
         <v>377</v>
-      </c>
-      <c r="C3" s="78" t="s">
-        <v>378</v>
       </c>
       <c r="E3" s="88" t="s">
         <v>42</v>
@@ -5554,7 +6484,7 @@
         <v>29</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C4" s="78" t="s">
         <v>346</v>
@@ -5589,10 +6519,10 @@
         <v>30</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E5" s="88" t="s">
         <v>95</v>
@@ -5622,10 +6552,10 @@
         <v>31</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E6" s="88" t="s">
         <v>43</v>
@@ -5655,10 +6585,10 @@
         <v>32</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>44</v>
@@ -5688,10 +6618,10 @@
         <v>33</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="88" t="s">
         <v>45</v>
@@ -5721,10 +6651,10 @@
         <v>34</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>46</v>
@@ -5756,10 +6686,10 @@
         <v>35</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E10" s="88" t="s">
         <v>47</v>
@@ -5789,10 +6719,10 @@
         <v>36</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="88" t="s">
         <v>48</v>
@@ -5822,10 +6752,10 @@
         <v>37</v>
       </c>
       <c r="B12" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E12" s="88" t="s">
         <v>49</v>
@@ -5857,10 +6787,10 @@
         <v>38</v>
       </c>
       <c r="B13" s="79" t="s">
+        <v>384</v>
+      </c>
+      <c r="C13" s="80" t="s">
         <v>385</v>
-      </c>
-      <c r="C13" s="80" t="s">
-        <v>386</v>
       </c>
       <c r="E13" s="88" t="s">
         <v>50</v>
@@ -5890,10 +6820,10 @@
         <v>39</v>
       </c>
       <c r="B14" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E14" s="88" t="s">
         <v>51</v>
@@ -5925,10 +6855,10 @@
         <v>40</v>
       </c>
       <c r="B15" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E15" s="88" t="s">
         <v>53</v>
@@ -5958,7 +6888,7 @@
         <v>41</v>
       </c>
       <c r="B16" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C16" s="80" t="s">
         <v>346</v>
@@ -5991,10 +6921,10 @@
         <v>42</v>
       </c>
       <c r="B17" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="L17" s="93" t="s">
         <v>131</v>
@@ -6009,10 +6939,10 @@
         <v>44</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L18" s="93" t="s">
         <v>132</v>
@@ -6027,10 +6957,10 @@
         <v>45</v>
       </c>
       <c r="B19" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L19" s="93" t="s">
         <v>133</v>
@@ -6045,10 +6975,10 @@
         <v>46</v>
       </c>
       <c r="B20" s="79" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L20" s="93" t="s">
         <v>134</v>
@@ -6066,10 +6996,10 @@
         <v>15</v>
       </c>
       <c r="C21" s="82" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L21" s="93" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M21" s="26"/>
       <c r="N21" s="95">
@@ -6106,7 +7036,7 @@
         <v>15</v>
       </c>
       <c r="C24" s="82" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6117,7 +7047,7 @@
         <v>15</v>
       </c>
       <c r="C25" s="82" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6128,7 +7058,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="82" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6150,7 +7080,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="82" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6161,7 +7091,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="82" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6172,7 +7102,7 @@
         <v>15</v>
       </c>
       <c r="C30" s="82" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6183,7 +7113,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="82" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -6194,7 +7124,7 @@
         <v>15</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6205,7 +7135,7 @@
         <v>15</v>
       </c>
       <c r="C33" s="82" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6227,7 +7157,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6260,7 +7190,7 @@
         <v>15</v>
       </c>
       <c r="C38" s="82" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6282,7 +7212,7 @@
         <v>15</v>
       </c>
       <c r="C40" s="82" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6290,10 +7220,10 @@
         <v>61</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6301,10 +7231,10 @@
         <v>62</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6312,10 +7242,10 @@
         <v>63</v>
       </c>
       <c r="B43" s="83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C43" s="84" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6323,10 +7253,10 @@
         <v>64</v>
       </c>
       <c r="B44" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="C44" s="84" t="s">
         <v>399</v>
-      </c>
-      <c r="C44" s="84" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6334,10 +7264,10 @@
         <v>65</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6345,10 +7275,10 @@
         <v>66</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6356,10 +7286,10 @@
         <v>71</v>
       </c>
       <c r="B47" s="85" t="s">
+        <v>401</v>
+      </c>
+      <c r="C47" s="86" t="s">
         <v>402</v>
-      </c>
-      <c r="C47" s="86" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6367,10 +7297,10 @@
         <v>72</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6378,7 +7308,7 @@
         <v>73</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C49" s="86" t="s">
         <v>346</v>
@@ -6389,10 +7319,10 @@
         <v>74</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C50" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -6400,10 +7330,10 @@
         <v>75</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C51" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6438,10 +7368,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6C5F25C-3CA1-4780-B63C-D9DEDA2932CE}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="B1:J11"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:J8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6466,115 +7396,115 @@
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G1" s="97" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="124" t="s">
-        <v>413</v>
-      </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
+      <c r="B2" s="111" t="s">
+        <v>411</v>
+      </c>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125"/>
-      <c r="I4" s="125"/>
-      <c r="J4" s="125"/>
+      <c r="B4" s="112"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="112"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="112"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
     </row>
     <row r="5" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
-      <c r="G5" s="125"/>
-      <c r="H5" s="125"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="125"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="112"/>
+      <c r="I5" s="112"/>
+      <c r="J5" s="112"/>
     </row>
     <row r="6" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="98" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C6" s="96">
         <f ca="1">TODAY()</f>
         <v>46080</v>
       </c>
-      <c r="D6" s="127" t="s">
-        <v>416</v>
-      </c>
-      <c r="E6" s="128"/>
+      <c r="D6" s="114" t="s">
+        <v>414</v>
+      </c>
+      <c r="E6" s="115"/>
       <c r="F6" s="99"/>
       <c r="G6" s="100" t="s">
-        <v>418</v>
-      </c>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
+        <v>416</v>
+      </c>
+      <c r="H6" s="116"/>
+      <c r="I6" s="117"/>
+      <c r="J6" s="118"/>
     </row>
     <row r="7" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="100" t="s">
+        <v>413</v>
+      </c>
+      <c r="C7" s="213"/>
+      <c r="D7" s="114" t="s">
         <v>415</v>
       </c>
-      <c r="C7" s="101"/>
-      <c r="D7" s="127" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="128"/>
+      <c r="E7" s="115"/>
       <c r="F7" s="99"/>
       <c r="G7" s="100" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="H7" s="101"/>
       <c r="I7" s="100" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J7" s="101"/>
     </row>
     <row r="8" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="126" t="s">
+      <c r="B8" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="2:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="126" t="s">
-        <v>376</v>
-      </c>
-      <c r="D9" s="126"/>
+      <c r="C9" s="113" t="s">
+        <v>375</v>
+      </c>
+      <c r="D9" s="113"/>
       <c r="E9" s="100" t="s">
         <v>152</v>
       </c>
@@ -6582,55 +7512,93 @@
         <v>8</v>
       </c>
       <c r="G9" s="100" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H9" s="100" t="s">
-        <v>410</v>
-      </c>
-      <c r="I9" s="126" t="s">
+        <v>408</v>
+      </c>
+      <c r="I9" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="126"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="102" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="122" t="s">
-        <v>348</v>
-      </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="104">
-        <v>4</v>
-      </c>
-      <c r="F10" s="105">
-        <v>1200300</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>409</v>
-      </c>
-      <c r="H10" s="101">
-        <v>45454445544</v>
-      </c>
-      <c r="I10" s="123" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="123"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="103"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="104"/>
       <c r="F11" s="105"/>
       <c r="G11" s="103"/>
       <c r="H11" s="101"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+    </row>
+    <row r="12" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="102"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="101"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+    </row>
+    <row r="13" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="102"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+    </row>
+    <row r="14" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="102"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+    </row>
+    <row r="15" spans="2:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="102"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="110"/>
+      <c r="J15" s="110"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="11">
+  <mergeCells count="19">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="I14:J14"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="B2:J5"/>
@@ -6643,12 +7611,34 @@
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="H6:J6"/>
   </mergeCells>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="C7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H6:J6" xr:uid="{270C52D0-4348-4292-8C93-D45C773C1B75}">
       <formula1>INDIRECT("Tabla_Conductores[CONDUCTOR]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="H7" xr:uid="{75E31A53-40D7-4DAF-A950-907BAB8BB510}">
       <formula1>INDIRECT("Tabla_Conductores[VEHICULO]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B15" xr:uid="{29AB9CC8-2ECA-4BE0-AF3A-2B1AFD8FCB10}">
+      <formula1>INDIRECT("Tabla_Supermercados[EMPRESA]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G15" xr:uid="{06F88064-D14F-4C34-BCCA-2840BFE42791}">
+      <formula1>"FAC ELEC,REMISION,ORDEN COMPRA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:J15" xr:uid="{95A17230-B610-4ED8-8381-4241BE450896}">
+      <formula1>"CREDITO,TRANSFERENCIA,CONTADO"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:D10" xr:uid="{9C6F997D-97CE-4132-8530-CAF4C9845CE5}">
+      <formula1>"TUB 3 KG,TUB 7 KG, GARRAFA 5 L, AGUA 6 L"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6676,15 +7666,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="122" t="s">
         <v>146</v>
       </c>
-      <c r="C3" s="135"/>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122"/>
+      <c r="E3" s="122"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="36" t="s">
@@ -7379,11 +8369,11 @@
       <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="159">
+      <c r="E2" s="146">
         <v>0.25</v>
       </c>
-      <c r="F2" s="160"/>
-      <c r="G2" s="161"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148"/>
     </row>
     <row r="3" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
@@ -7406,372 +8396,372 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="157"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="144"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="156" t="s">
+      <c r="C5" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="157"/>
-      <c r="E5" s="156" t="s">
+      <c r="D5" s="144"/>
+      <c r="E5" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="158"/>
-      <c r="G5" s="157"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="144"/>
     </row>
     <row r="6" spans="2:7" s="1" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="136" t="s">
-        <v>359</v>
-      </c>
-      <c r="D6" s="137"/>
-      <c r="E6" s="143" t="s">
+      <c r="C6" s="123" t="s">
+        <v>358</v>
+      </c>
+      <c r="D6" s="124"/>
+      <c r="E6" s="130" t="s">
         <v>334</v>
       </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="145"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="132"/>
     </row>
     <row r="7" spans="2:7" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="162" t="s">
-        <v>360</v>
-      </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="138" t="s">
+      <c r="C7" s="149" t="s">
+        <v>359</v>
+      </c>
+      <c r="D7" s="150"/>
+      <c r="E7" s="125" t="s">
         <v>241</v>
       </c>
-      <c r="F7" s="139"/>
-      <c r="G7" s="140"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="127"/>
     </row>
     <row r="8" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="162" t="s">
-        <v>361</v>
-      </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="138" t="s">
+      <c r="C8" s="149" t="s">
+        <v>360</v>
+      </c>
+      <c r="D8" s="150"/>
+      <c r="E8" s="125" t="s">
         <v>242</v>
       </c>
-      <c r="F8" s="139"/>
-      <c r="G8" s="140"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="127"/>
     </row>
     <row r="9" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C9" s="136" t="s">
-        <v>362</v>
-      </c>
-      <c r="D9" s="137"/>
-      <c r="E9" s="138" t="s">
-        <v>368</v>
-      </c>
-      <c r="F9" s="139"/>
-      <c r="G9" s="140"/>
+      <c r="C9" s="123" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="124"/>
+      <c r="E9" s="125" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9" s="126"/>
+      <c r="G9" s="127"/>
     </row>
     <row r="10" spans="2:7" s="1" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="123" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="137"/>
-      <c r="E10" s="138" t="s">
+      <c r="D10" s="124"/>
+      <c r="E10" s="125" t="s">
         <v>251</v>
       </c>
-      <c r="F10" s="139"/>
-      <c r="G10" s="140"/>
+      <c r="F10" s="126"/>
+      <c r="G10" s="127"/>
     </row>
     <row r="11" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C11" s="136" t="s">
-        <v>355</v>
-      </c>
-      <c r="D11" s="137"/>
-      <c r="E11" s="138" t="s">
-        <v>369</v>
-      </c>
-      <c r="F11" s="139"/>
-      <c r="G11" s="140"/>
+      <c r="C11" s="123" t="s">
+        <v>354</v>
+      </c>
+      <c r="D11" s="124"/>
+      <c r="E11" s="125" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="126"/>
+      <c r="G11" s="127"/>
     </row>
     <row r="12" spans="2:7" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C12" s="136" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="137"/>
-      <c r="E12" s="138" t="s">
-        <v>370</v>
-      </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="140"/>
+      <c r="C12" s="123" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="124"/>
+      <c r="E12" s="125" t="s">
+        <v>369</v>
+      </c>
+      <c r="F12" s="126"/>
+      <c r="G12" s="127"/>
     </row>
     <row r="13" spans="2:7" s="1" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C13" s="136" t="s">
+      <c r="C13" s="123" t="s">
         <v>333</v>
       </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="143" t="s">
+      <c r="D13" s="124"/>
+      <c r="E13" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="F13" s="144"/>
-      <c r="G13" s="145"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="132"/>
     </row>
     <row r="14" spans="2:7" s="1" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="136" t="s">
+      <c r="C14" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138" t="s">
+      <c r="D14" s="124"/>
+      <c r="E14" s="125" t="s">
         <v>319</v>
       </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="140"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="127"/>
     </row>
     <row r="15" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="136" t="s">
-        <v>360</v>
-      </c>
-      <c r="D15" s="137"/>
-      <c r="E15" s="138" t="s">
+      <c r="C15" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="D15" s="124"/>
+      <c r="E15" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="140"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="127"/>
     </row>
     <row r="16" spans="2:7" s="1" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="123" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="124"/>
+      <c r="E16" s="125" t="s">
         <v>365</v>
       </c>
-      <c r="D16" s="137"/>
-      <c r="E16" s="138" t="s">
-        <v>366</v>
-      </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C17" s="136" t="s">
+      <c r="C17" s="123" t="s">
         <v>336</v>
       </c>
-      <c r="D17" s="137"/>
-      <c r="E17" s="138" t="s">
+      <c r="D17" s="124"/>
+      <c r="E17" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="140"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C18" s="136" t="s">
+      <c r="C18" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="D18" s="137"/>
-      <c r="E18" s="138" t="s">
+      <c r="D18" s="124"/>
+      <c r="E18" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="127"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="C19" s="141" t="s">
+        <v>366</v>
+      </c>
+      <c r="C19" s="128" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="142"/>
-      <c r="E19" s="138" t="s">
-        <v>371</v>
-      </c>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
+      <c r="D19" s="129"/>
+      <c r="E19" s="125" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="126"/>
+      <c r="G19" s="127"/>
     </row>
     <row r="20" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="57"/>
-      <c r="B20" s="153" t="s">
-        <v>364</v>
-      </c>
-      <c r="C20" s="154"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
+      <c r="B20" s="140" t="s">
+        <v>363</v>
+      </c>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
     </row>
     <row r="21" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="146" t="s">
-        <v>372</v>
-      </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="147"/>
+      <c r="B21" s="133" t="s">
+        <v>371</v>
+      </c>
+      <c r="C21" s="134"/>
+      <c r="D21" s="134"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="134"/>
+      <c r="G21" s="134"/>
     </row>
     <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="135" t="s">
         <v>201</v>
       </c>
-      <c r="D23" s="149"/>
-      <c r="E23" s="150" t="s">
+      <c r="D23" s="136"/>
+      <c r="E23" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="151"/>
-      <c r="G23" s="152"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="139"/>
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="C24" s="136" t="s">
+      <c r="C24" s="123" t="s">
         <v>314</v>
       </c>
-      <c r="D24" s="137"/>
-      <c r="E24" s="150" t="s">
+      <c r="D24" s="124"/>
+      <c r="E24" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="F24" s="151"/>
-      <c r="G24" s="152"/>
+      <c r="F24" s="138"/>
+      <c r="G24" s="139"/>
     </row>
     <row r="28" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="136" t="s">
+      <c r="C28" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D28" s="137"/>
-      <c r="E28" s="138" t="s">
+      <c r="D28" s="124"/>
+      <c r="E28" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="F28" s="139"/>
-      <c r="G28" s="140"/>
+      <c r="F28" s="126"/>
+      <c r="G28" s="127"/>
     </row>
     <row r="29" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="136" t="s">
+      <c r="C29" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D29" s="137"/>
-      <c r="E29" s="138" t="s">
+      <c r="D29" s="124"/>
+      <c r="E29" s="125" t="s">
         <v>233</v>
       </c>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140"/>
+      <c r="F29" s="126"/>
+      <c r="G29" s="127"/>
     </row>
     <row r="30" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="136" t="s">
+      <c r="C30" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="137"/>
-      <c r="E30" s="138" t="s">
+      <c r="D30" s="124"/>
+      <c r="E30" s="125" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="139"/>
-      <c r="G30" s="140"/>
+      <c r="F30" s="126"/>
+      <c r="G30" s="127"/>
     </row>
     <row r="31" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="136" t="s">
+      <c r="C31" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D31" s="137"/>
-      <c r="E31" s="138" t="s">
+      <c r="D31" s="124"/>
+      <c r="E31" s="125" t="s">
         <v>235</v>
       </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="140"/>
+      <c r="F31" s="126"/>
+      <c r="G31" s="127"/>
     </row>
     <row r="32" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="136" t="s">
+      <c r="C32" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D32" s="137"/>
-      <c r="E32" s="138" t="s">
+      <c r="D32" s="124"/>
+      <c r="E32" s="125" t="s">
         <v>245</v>
       </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="140"/>
+      <c r="F32" s="126"/>
+      <c r="G32" s="127"/>
     </row>
     <row r="33" spans="2:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="D33" s="137"/>
-      <c r="E33" s="138" t="s">
+      <c r="D33" s="124"/>
+      <c r="E33" s="125" t="s">
         <v>236</v>
       </c>
-      <c r="F33" s="139"/>
-      <c r="G33" s="140"/>
+      <c r="F33" s="126"/>
+      <c r="G33" s="127"/>
     </row>
     <row r="34" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="136" t="s">
+      <c r="C34" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="D34" s="137"/>
-      <c r="E34" s="143" t="s">
+      <c r="D34" s="124"/>
+      <c r="E34" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="144"/>
-      <c r="G34" s="145"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="132"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="33" t="s">
@@ -7781,9 +8771,9 @@
       <c r="D40" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="159"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="161"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="147"/>
+      <c r="G40" s="148"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="33" t="s">
@@ -7800,44 +8790,44 @@
       <c r="G41" s="13"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="156" t="s">
+      <c r="B42" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="157"/>
+      <c r="C42" s="145"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+      <c r="G42" s="144"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="156" t="s">
+      <c r="C43" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="157"/>
-      <c r="E43" s="156" t="s">
+      <c r="D43" s="144"/>
+      <c r="E43" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="158"/>
-      <c r="G43" s="157"/>
+      <c r="F43" s="145"/>
+      <c r="G43" s="144"/>
     </row>
     <row r="44" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="10"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="139"/>
-      <c r="G44" s="140"/>
+      <c r="C44" s="123"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="127"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="19"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="150"/>
-      <c r="F45" s="151"/>
-      <c r="G45" s="152"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="137"/>
+      <c r="F45" s="138"/>
+      <c r="G45" s="139"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="33" t="s">
@@ -7847,9 +8837,9 @@
       <c r="D49" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E49" s="159"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="161"/>
+      <c r="E49" s="146"/>
+      <c r="F49" s="147"/>
+      <c r="G49" s="148"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="33" t="s">
@@ -7866,44 +8856,44 @@
       <c r="G50" s="13"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="156" t="s">
+      <c r="B51" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="158"/>
-      <c r="D51" s="158"/>
-      <c r="E51" s="158"/>
-      <c r="F51" s="158"/>
-      <c r="G51" s="157"/>
+      <c r="C51" s="145"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+      <c r="G51" s="144"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="156" t="s">
+      <c r="C52" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="157"/>
-      <c r="E52" s="156" t="s">
+      <c r="D52" s="144"/>
+      <c r="E52" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="158"/>
-      <c r="G52" s="157"/>
+      <c r="F52" s="145"/>
+      <c r="G52" s="144"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="19"/>
-      <c r="C53" s="148"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="150"/>
-      <c r="F53" s="151"/>
-      <c r="G53" s="152"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="137"/>
+      <c r="F53" s="138"/>
+      <c r="G53" s="139"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="19"/>
-      <c r="C54" s="148"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="150"/>
-      <c r="F54" s="151"/>
-      <c r="G54" s="152"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="137"/>
+      <c r="F54" s="138"/>
+      <c r="G54" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="68">
@@ -8013,14 +9003,14 @@
       <c r="C3" s="20">
         <v>45864</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="179">
+      <c r="E3" s="156"/>
+      <c r="F3" s="166">
         <v>0.125</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="2:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8043,222 +9033,222 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="171"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="171"/>
+      <c r="G6" s="158"/>
     </row>
     <row r="7" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="168" t="s">
+      <c r="C7" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="D7" s="168"/>
+      <c r="D7" s="155"/>
       <c r="E7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="166" t="s">
+      <c r="F7" s="153" t="s">
         <v>225</v>
       </c>
-      <c r="G7" s="167"/>
+      <c r="G7" s="154"/>
     </row>
     <row r="8" spans="2:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="D8" s="168"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="166" t="s">
+      <c r="F8" s="153" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="167"/>
+      <c r="G8" s="154"/>
     </row>
     <row r="9" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C9" s="168" t="s">
+      <c r="C9" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="168"/>
+      <c r="D9" s="155"/>
       <c r="E9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="166" t="s">
+      <c r="F9" s="153" t="s">
         <v>224</v>
       </c>
-      <c r="G9" s="167"/>
+      <c r="G9" s="154"/>
     </row>
     <row r="10" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C10" s="168" t="s">
+      <c r="C10" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="168"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="166" t="s">
+      <c r="F10" s="153" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="167"/>
+      <c r="G10" s="154"/>
     </row>
     <row r="11" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="176"/>
+      <c r="D11" s="163"/>
       <c r="E11" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="191" t="s">
+      <c r="F11" s="178" t="s">
         <v>287</v>
       </c>
-      <c r="G11" s="191"/>
+      <c r="G11" s="178"/>
     </row>
     <row r="12" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="176" t="s">
         <v>324</v>
       </c>
-      <c r="D12" s="190"/>
+      <c r="D12" s="177"/>
       <c r="E12" s="48">
         <v>6000</v>
       </c>
-      <c r="F12" s="191" t="s">
+      <c r="F12" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="191"/>
+      <c r="G12" s="178"/>
     </row>
     <row r="13" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C13" s="189" t="s">
+      <c r="C13" s="176" t="s">
         <v>322</v>
       </c>
-      <c r="D13" s="190"/>
+      <c r="D13" s="177"/>
       <c r="E13" s="48">
         <v>6300</v>
       </c>
-      <c r="F13" s="191" t="s">
+      <c r="F13" s="178" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="191"/>
+      <c r="G13" s="178"/>
     </row>
     <row r="14" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="159" t="s">
         <v>326</v>
       </c>
-      <c r="D14" s="173"/>
+      <c r="D14" s="160"/>
       <c r="E14" s="6">
         <v>11000</v>
       </c>
-      <c r="F14" s="177" t="s">
+      <c r="F14" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="178"/>
+      <c r="G14" s="165"/>
     </row>
     <row r="15" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="161" t="s">
         <v>327</v>
       </c>
-      <c r="D15" s="174"/>
+      <c r="D15" s="161"/>
       <c r="E15" s="6">
         <v>6300</v>
       </c>
-      <c r="F15" s="177" t="s">
+      <c r="F15" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="178"/>
+      <c r="G15" s="165"/>
     </row>
     <row r="16" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="172" t="s">
+      <c r="C16" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="D16" s="173"/>
+      <c r="D16" s="160"/>
       <c r="E16" s="6">
         <v>7000</v>
       </c>
-      <c r="F16" s="177" t="s">
+      <c r="F16" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="178"/>
+      <c r="G16" s="165"/>
     </row>
     <row r="17" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="159" t="s">
         <v>306</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="160"/>
       <c r="E17" s="6">
         <v>6300</v>
       </c>
-      <c r="F17" s="177" t="s">
+      <c r="F17" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="178"/>
+      <c r="G17" s="165"/>
     </row>
     <row r="18" spans="2:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C18" s="175" t="s">
+      <c r="C18" s="162" t="s">
         <v>328</v>
       </c>
-      <c r="D18" s="176"/>
+      <c r="D18" s="163"/>
       <c r="E18" s="6">
         <v>2600</v>
       </c>
-      <c r="F18" s="177" t="s">
+      <c r="F18" s="164" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="178"/>
+      <c r="G18" s="165"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -8267,14 +9257,14 @@
       <c r="C21" s="20">
         <v>45882</v>
       </c>
-      <c r="D21" s="169" t="s">
+      <c r="D21" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="169"/>
-      <c r="F21" s="170">
+      <c r="E21" s="156"/>
+      <c r="F21" s="157">
         <v>0.29166666666666669</v>
       </c>
-      <c r="G21" s="170"/>
+      <c r="G21" s="157"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
@@ -8295,86 +9285,86 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="171" t="s">
+      <c r="B23" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="171"/>
-      <c r="D23" s="171"/>
-      <c r="E23" s="171"/>
-      <c r="F23" s="171"/>
-      <c r="G23" s="171"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="171" t="s">
+      <c r="C24" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="171"/>
+      <c r="D24" s="158"/>
       <c r="E24" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="171" t="s">
+      <c r="F24" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="171"/>
+      <c r="G24" s="158"/>
     </row>
     <row r="25" spans="2:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C25" s="168" t="s">
+      <c r="C25" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D25" s="168"/>
+      <c r="D25" s="155"/>
       <c r="E25" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F25" s="166" t="s">
+      <c r="F25" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="G25" s="167"/>
+      <c r="G25" s="154"/>
     </row>
     <row r="26" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="C26" s="168" t="s">
+      <c r="C26" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="168"/>
+      <c r="D26" s="155"/>
       <c r="E26" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="166" t="s">
+      <c r="F26" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="G26" s="167"/>
+      <c r="G26" s="154"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="155"/>
       <c r="E27" s="25"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="167"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="154"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="165"/>
+      <c r="C28" s="151"/>
+      <c r="D28" s="152"/>
       <c r="E28" s="25"/>
-      <c r="F28" s="166"/>
-      <c r="G28" s="167"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="154"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
-      <c r="C29" s="164"/>
-      <c r="D29" s="165"/>
+      <c r="C29" s="151"/>
+      <c r="D29" s="152"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="167"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="154"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="42" t="s">
@@ -8383,14 +9373,14 @@
       <c r="C32" s="20">
         <v>45884</v>
       </c>
-      <c r="D32" s="169" t="s">
+      <c r="D32" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="169"/>
-      <c r="F32" s="170">
+      <c r="E32" s="156"/>
+      <c r="F32" s="157">
         <v>0.27083333333333331</v>
       </c>
-      <c r="G32" s="170"/>
+      <c r="G32" s="157"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="42" t="s">
@@ -8403,7 +9393,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="41" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>145</v>
@@ -8413,94 +9403,94 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
-      <c r="E34" s="171"/>
-      <c r="F34" s="171"/>
-      <c r="G34" s="171"/>
+      <c r="C34" s="158"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
+      <c r="F34" s="158"/>
+      <c r="G34" s="158"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="171" t="s">
+      <c r="C35" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="171"/>
+      <c r="D35" s="158"/>
       <c r="E35" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="171" t="s">
+      <c r="F35" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G35" s="171"/>
+      <c r="G35" s="158"/>
     </row>
     <row r="36" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B36" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="C36" s="168" t="s">
+        <v>349</v>
+      </c>
+      <c r="C36" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="D36" s="168"/>
+      <c r="D36" s="155"/>
       <c r="E36" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F36" s="166" t="s">
+      <c r="F36" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="167"/>
+      <c r="G36" s="154"/>
     </row>
     <row r="37" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B37" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="C37" s="168" t="s">
+        <v>350</v>
+      </c>
+      <c r="C37" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D37" s="168"/>
+      <c r="D37" s="155"/>
       <c r="E37" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="166" t="s">
+      <c r="F37" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="167"/>
+      <c r="G37" s="154"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" s="155" t="s">
         <v>352</v>
       </c>
-      <c r="C38" s="168" t="s">
-        <v>353</v>
-      </c>
-      <c r="D38" s="168"/>
+      <c r="D38" s="155"/>
       <c r="E38" s="25">
         <v>3500</v>
       </c>
-      <c r="F38" s="166" t="s">
+      <c r="F38" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="G38" s="167"/>
+      <c r="G38" s="154"/>
     </row>
     <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
-      <c r="C39" s="164"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="151"/>
+      <c r="D39" s="152"/>
       <c r="E39" s="25"/>
-      <c r="F39" s="166"/>
-      <c r="G39" s="167"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="154"/>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
-      <c r="C40" s="164"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="151"/>
+      <c r="D40" s="152"/>
       <c r="E40" s="25"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="167"/>
+      <c r="F40" s="153"/>
+      <c r="G40" s="154"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="42" t="s">
@@ -8509,21 +9499,21 @@
       <c r="C48" s="20">
         <v>45904</v>
       </c>
-      <c r="D48" s="169" t="s">
+      <c r="D48" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="169"/>
-      <c r="F48" s="179">
+      <c r="E48" s="156"/>
+      <c r="F48" s="166">
         <v>0.58333333333333337</v>
       </c>
-      <c r="G48" s="179"/>
+      <c r="G48" s="166"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>4</v>
@@ -8539,75 +9529,75 @@
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="171" t="s">
+      <c r="B50" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C50" s="171"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="171"/>
-      <c r="F50" s="171"/>
-      <c r="G50" s="171"/>
+      <c r="C50" s="158"/>
+      <c r="D50" s="158"/>
+      <c r="E50" s="158"/>
+      <c r="F50" s="158"/>
+      <c r="G50" s="158"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C51" s="171" t="s">
+      <c r="C51" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D51" s="171"/>
+      <c r="D51" s="158"/>
       <c r="E51" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="171" t="s">
+      <c r="F51" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G51" s="171"/>
+      <c r="G51" s="158"/>
     </row>
     <row r="52" spans="2:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="168" t="s">
-        <v>357</v>
-      </c>
-      <c r="D52" s="168"/>
+      <c r="C52" s="155" t="s">
+        <v>356</v>
+      </c>
+      <c r="D52" s="155"/>
       <c r="E52" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="166" t="s">
+      <c r="F52" s="153" t="s">
         <v>193</v>
       </c>
-      <c r="G52" s="167"/>
+      <c r="G52" s="154"/>
     </row>
     <row r="53" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C53" s="168" t="s">
-        <v>356</v>
-      </c>
-      <c r="D53" s="168"/>
+      <c r="C53" s="155" t="s">
+        <v>355</v>
+      </c>
+      <c r="D53" s="155"/>
       <c r="E53" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F53" s="166" t="s">
+      <c r="F53" s="153" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="167"/>
+      <c r="G53" s="154"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="188" t="s">
+      <c r="B56" s="175" t="s">
         <v>193</v>
       </c>
-      <c r="C56" s="180" t="s">
+      <c r="C56" s="167" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="181"/>
-      <c r="E56" s="182"/>
+      <c r="D56" s="168"/>
+      <c r="E56" s="169"/>
     </row>
     <row r="57" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B57" s="188"/>
+      <c r="B57" s="175"/>
       <c r="C57" s="38" t="s">
         <v>183</v>
       </c>
@@ -8619,7 +9609,7 @@
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="188"/>
+      <c r="B58" s="175"/>
       <c r="C58" s="38" t="s">
         <v>183</v>
       </c>
@@ -8631,7 +9621,7 @@
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="188"/>
+      <c r="B59" s="175"/>
       <c r="C59" s="38" t="s">
         <v>183</v>
       </c>
@@ -8643,7 +9633,7 @@
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="188"/>
+      <c r="B60" s="175"/>
       <c r="C60" s="38" t="s">
         <v>183</v>
       </c>
@@ -8655,7 +9645,7 @@
       </c>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="188"/>
+      <c r="B61" s="175"/>
       <c r="C61" s="38" t="s">
         <v>183</v>
       </c>
@@ -8667,14 +9657,14 @@
       </c>
     </row>
     <row r="62" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B62" s="188"/>
+      <c r="B62" s="175"/>
       <c r="C62" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="D62" s="183">
+      <c r="D62" s="170">
         <v>4</v>
       </c>
-      <c r="E62" s="184"/>
+      <c r="E62" s="171"/>
     </row>
     <row r="63" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B63" s="55" t="s">
@@ -8683,18 +9673,18 @@
       <c r="C63" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="183">
+      <c r="D63" s="170">
         <v>5</v>
       </c>
-      <c r="E63" s="184"/>
+      <c r="E63" s="171"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="185" t="s">
+      <c r="B68" s="172" t="s">
         <v>182</v>
       </c>
-      <c r="C68" s="185"/>
-      <c r="D68" s="185"/>
-      <c r="E68" s="185"/>
+      <c r="C68" s="172"/>
+      <c r="D68" s="172"/>
+      <c r="E68" s="172"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="13" t="s">
@@ -9005,18 +9995,18 @@
       <c r="G92" s="26"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="186" t="s">
+      <c r="B95" s="173" t="s">
         <v>193</v>
       </c>
-      <c r="C95" s="187" t="s">
+      <c r="C95" s="174" t="s">
         <v>182</v>
       </c>
-      <c r="D95" s="187"/>
-      <c r="E95" s="187"/>
-      <c r="F95" s="187"/>
+      <c r="D95" s="174"/>
+      <c r="E95" s="174"/>
+      <c r="F95" s="174"/>
     </row>
     <row r="96" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B96" s="186"/>
+      <c r="B96" s="173"/>
       <c r="C96" s="38" t="s">
         <v>183</v>
       </c>
@@ -9031,7 +10021,7 @@
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="186"/>
+      <c r="B97" s="173"/>
       <c r="C97" s="38" t="s">
         <v>183</v>
       </c>
@@ -9049,7 +10039,7 @@
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="186"/>
+      <c r="B98" s="173"/>
       <c r="C98" s="38" t="s">
         <v>183</v>
       </c>
@@ -9067,7 +10057,7 @@
       </c>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="186"/>
+      <c r="B99" s="173"/>
       <c r="C99" s="38" t="s">
         <v>183</v>
       </c>
@@ -9085,7 +10075,7 @@
       </c>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="186"/>
+      <c r="B100" s="173"/>
       <c r="C100" s="38" t="s">
         <v>183</v>
       </c>
@@ -9103,7 +10093,7 @@
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="186"/>
+      <c r="B101" s="173"/>
       <c r="C101" s="38" t="s">
         <v>184</v>
       </c>
@@ -9122,97 +10112,97 @@
       <c r="B106" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C106" s="168" t="s">
+      <c r="C106" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="D106" s="168"/>
+      <c r="D106" s="155"/>
       <c r="E106" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="166" t="s">
+      <c r="F106" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G106" s="167"/>
+      <c r="G106" s="154"/>
     </row>
     <row r="107" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="C107" s="168" t="s">
+      <c r="C107" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="168"/>
+      <c r="D107" s="155"/>
       <c r="E107" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F107" s="166" t="s">
+      <c r="F107" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G107" s="167"/>
+      <c r="G107" s="154"/>
     </row>
     <row r="108" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="C108" s="168" t="s">
+      <c r="C108" s="155" t="s">
         <v>229</v>
       </c>
-      <c r="D108" s="168"/>
+      <c r="D108" s="155"/>
       <c r="E108" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F108" s="166" t="s">
+      <c r="F108" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G108" s="167"/>
+      <c r="G108" s="154"/>
     </row>
     <row r="109" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="168" t="s">
+      <c r="C109" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="D109" s="168"/>
+      <c r="D109" s="155"/>
       <c r="E109" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F109" s="166" t="s">
+      <c r="F109" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G109" s="167"/>
+      <c r="G109" s="154"/>
     </row>
     <row r="110" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C110" s="168" t="s">
+      <c r="C110" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="168"/>
+      <c r="D110" s="155"/>
       <c r="E110" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F110" s="166" t="s">
+      <c r="F110" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="167"/>
+      <c r="G110" s="154"/>
     </row>
     <row r="111" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="C111" s="168" t="s">
+      <c r="C111" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="D111" s="168"/>
+      <c r="D111" s="155"/>
       <c r="E111" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F111" s="166" t="s">
+      <c r="F111" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="G111" s="167"/>
+      <c r="G111" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -9333,12 +10323,12 @@
         <v>1</v>
       </c>
       <c r="C3" s="20"/>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -9355,102 +10345,102 @@
       <c r="G4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="171"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="171"/>
+      <c r="G6" s="158"/>
     </row>
     <row r="7" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D7" s="176"/>
+      <c r="D7" s="163"/>
       <c r="E7" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F7" s="192" t="s">
+      <c r="F7" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="G7" s="192"/>
+      <c r="G7" s="179"/>
     </row>
     <row r="8" spans="2:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C8" s="175" t="s">
+      <c r="C8" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D8" s="176"/>
+      <c r="D8" s="163"/>
       <c r="E8" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="192" t="s">
+      <c r="F8" s="179" t="s">
         <v>277</v>
       </c>
-      <c r="G8" s="192"/>
+      <c r="G8" s="179"/>
     </row>
     <row r="9" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="176"/>
+      <c r="D9" s="163"/>
       <c r="E9" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="192" t="s">
+      <c r="F9" s="179" t="s">
         <v>279</v>
       </c>
-      <c r="G9" s="192"/>
+      <c r="G9" s="179"/>
     </row>
     <row r="10" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="175" t="s">
+      <c r="C10" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="176"/>
+      <c r="D10" s="163"/>
       <c r="E10" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F10" s="191" t="s">
+      <c r="F10" s="178" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="191"/>
+      <c r="G10" s="178"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="185" t="s">
+      <c r="B15" s="172" t="s">
         <v>217</v>
       </c>
-      <c r="C15" s="185"/>
-      <c r="D15" s="185"/>
-      <c r="E15" s="185"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="13" t="s">
@@ -9665,12 +10655,12 @@
         <v>1</v>
       </c>
       <c r="C44" s="20"/>
-      <c r="D44" s="169" t="s">
+      <c r="D44" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="169"/>
-      <c r="F44" s="179"/>
-      <c r="G44" s="179"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="166"/>
+      <c r="G44" s="166"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="42" t="s">
@@ -9687,218 +10677,218 @@
       <c r="G45" s="13"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="171" t="s">
+      <c r="B46" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="C46" s="171"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="171"/>
-      <c r="F46" s="171"/>
-      <c r="G46" s="171"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="158"/>
+      <c r="F46" s="158"/>
+      <c r="G46" s="158"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C47" s="171" t="s">
+      <c r="C47" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D47" s="171"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="171" t="s">
+      <c r="F47" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G47" s="171"/>
+      <c r="G47" s="158"/>
     </row>
     <row r="48" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C48" s="175" t="s">
+      <c r="C48" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D48" s="176"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F48" s="192" t="s">
+      <c r="F48" s="179" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="192"/>
+      <c r="G48" s="179"/>
     </row>
     <row r="49" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D49" s="176"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F49" s="192" t="s">
+      <c r="F49" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="G49" s="192"/>
+      <c r="G49" s="179"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C50" s="175" t="s">
+      <c r="C50" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="D50" s="176"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="178"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C51" s="175" t="s">
+      <c r="C51" s="162" t="s">
         <v>20</v>
       </c>
-      <c r="D51" s="176"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
     </row>
     <row r="61" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C61" s="175" t="s">
+      <c r="C61" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="176"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="192" t="s">
+      <c r="F61" s="179" t="s">
         <v>278</v>
       </c>
-      <c r="G61" s="192"/>
+      <c r="G61" s="179"/>
     </row>
     <row r="62" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C62" s="175" t="s">
+      <c r="C62" s="162" t="s">
         <v>250</v>
       </c>
-      <c r="D62" s="176"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F62" s="192" t="s">
+      <c r="F62" s="179" t="s">
         <v>277</v>
       </c>
-      <c r="G62" s="192"/>
+      <c r="G62" s="179"/>
     </row>
     <row r="63" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="175" t="s">
+      <c r="C63" s="162" t="s">
         <v>280</v>
       </c>
-      <c r="D63" s="176"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F63" s="192" t="s">
+      <c r="F63" s="179" t="s">
         <v>279</v>
       </c>
-      <c r="G63" s="192"/>
+      <c r="G63" s="179"/>
     </row>
     <row r="64" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C64" s="175" t="s">
+      <c r="C64" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D64" s="176"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="191" t="s">
+      <c r="F64" s="178" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="191"/>
+      <c r="G64" s="178"/>
     </row>
     <row r="65" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C65" s="175" t="s">
+      <c r="C65" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="176"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F65" s="191" t="s">
+      <c r="F65" s="178" t="s">
         <v>282</v>
       </c>
-      <c r="G65" s="191"/>
+      <c r="G65" s="178"/>
     </row>
     <row r="66" spans="2:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C66" s="175" t="s">
+      <c r="C66" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D66" s="176"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F66" s="191" t="s">
+      <c r="F66" s="178" t="s">
         <v>283</v>
       </c>
-      <c r="G66" s="191"/>
+      <c r="G66" s="178"/>
     </row>
     <row r="67" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C67" s="175" t="s">
+      <c r="C67" s="162" t="s">
         <v>229</v>
       </c>
-      <c r="D67" s="176"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F67" s="191" t="s">
+      <c r="F67" s="178" t="s">
         <v>285</v>
       </c>
-      <c r="G67" s="191"/>
+      <c r="G67" s="178"/>
     </row>
     <row r="68" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B68" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="C68" s="175" t="s">
+      <c r="C68" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="D68" s="176"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="191" t="s">
+      <c r="F68" s="178" t="s">
         <v>287</v>
       </c>
-      <c r="G68" s="191"/>
+      <c r="G68" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -9976,14 +10966,14 @@
       <c r="C3" s="20">
         <v>45797</v>
       </c>
-      <c r="D3" s="169" t="s">
+      <c r="D3" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="179">
+      <c r="E3" s="156"/>
+      <c r="F3" s="166">
         <v>0.33333333333333331</v>
       </c>
-      <c r="G3" s="179"/>
+      <c r="G3" s="166"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29" t="s">
@@ -10006,74 +10996,74 @@
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="197"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="184"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="171" t="s">
+      <c r="C6" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="171"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="171" t="s">
+      <c r="F6" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="171"/>
+      <c r="G6" s="158"/>
     </row>
     <row r="7" spans="2:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="174" t="s">
+      <c r="C7" s="161" t="s">
         <v>137</v>
       </c>
-      <c r="D7" s="174"/>
+      <c r="D7" s="161"/>
       <c r="E7" s="25">
         <v>8500</v>
       </c>
-      <c r="F7" s="192" t="s">
+      <c r="F7" s="179" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="192"/>
+      <c r="G7" s="179"/>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="C8" s="168" t="s">
+      <c r="C8" s="155" t="s">
         <v>266</v>
       </c>
-      <c r="D8" s="168"/>
+      <c r="D8" s="155"/>
       <c r="E8" s="25">
         <v>6500</v>
       </c>
-      <c r="F8" s="166" t="s">
+      <c r="F8" s="153" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="167"/>
+      <c r="G8" s="154"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C11" s="3"/>
-      <c r="D11" s="199" t="s">
+      <c r="D11" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="199"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
+      <c r="E11" s="186"/>
+      <c r="F11" s="185"/>
+      <c r="G11" s="185"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="28" t="s">
@@ -10090,46 +11080,46 @@
       <c r="G12" s="26"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="193" t="s">
+      <c r="B13" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
+      <c r="G13" s="180"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="193" t="s">
+      <c r="C14" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="193"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="193" t="s">
+      <c r="F14" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="193"/>
+      <c r="G14" s="180"/>
     </row>
     <row r="15" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="181" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="194"/>
+      <c r="D15" s="181"/>
       <c r="E15" s="6">
         <v>17000</v>
       </c>
-      <c r="F15" s="194" t="s">
+      <c r="F15" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="194"/>
+      <c r="G15" s="181"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
@@ -10141,11 +11131,11 @@
       <c r="D19" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="204">
+      <c r="E19" s="191">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
+      <c r="F19" s="191"/>
+      <c r="G19" s="191"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
@@ -10168,60 +11158,60 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="202" t="s">
+      <c r="B21" s="189" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="202"/>
-      <c r="D21" s="202"/>
-      <c r="E21" s="202"/>
-      <c r="F21" s="202"/>
-      <c r="G21" s="202"/>
+      <c r="C21" s="189"/>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="202" t="s">
+      <c r="C22" s="189" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="202"/>
+      <c r="D22" s="189"/>
       <c r="E22" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F22" s="193" t="s">
+      <c r="F22" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="193"/>
+      <c r="G22" s="180"/>
     </row>
     <row r="23" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="203" t="s">
+      <c r="C23" s="190" t="s">
         <v>104</v>
       </c>
-      <c r="D23" s="203"/>
+      <c r="D23" s="190"/>
       <c r="E23" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="200" t="s">
+      <c r="F23" s="187" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="201"/>
+      <c r="G23" s="188"/>
     </row>
     <row r="24" spans="2:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="185" t="s">
+      <c r="C24" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="185"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="35"/>
-      <c r="F24" s="200" t="s">
+      <c r="F24" s="187" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="201"/>
+      <c r="G24" s="188"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -10281,14 +11271,14 @@
       <c r="B1" s="3">
         <v>45924</v>
       </c>
-      <c r="C1" s="199" t="s">
+      <c r="C1" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="205">
+      <c r="D1" s="186"/>
+      <c r="E1" s="192">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F1" s="205"/>
+      <c r="F1" s="192"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
@@ -10311,155 +11301,155 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="193" t="s">
+      <c r="A3" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="193"/>
-      <c r="C3" s="193"/>
-      <c r="D3" s="193"/>
-      <c r="E3" s="193"/>
-      <c r="F3" s="193"/>
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="180"/>
+      <c r="E3" s="180"/>
+      <c r="F3" s="180"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="193"/>
+      <c r="C4" s="180"/>
       <c r="D4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="193" t="s">
+      <c r="E4" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="193"/>
+      <c r="F4" s="180"/>
     </row>
     <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="175" t="s">
-        <v>374</v>
-      </c>
-      <c r="C5" s="176"/>
+      <c r="B5" s="162" t="s">
+        <v>373</v>
+      </c>
+      <c r="C5" s="163"/>
       <c r="D5" s="48">
         <v>8300</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="191"/>
+      <c r="F5" s="178"/>
     </row>
     <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="175" t="s">
-        <v>375</v>
-      </c>
-      <c r="C6" s="176"/>
+      <c r="B6" s="162" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" s="163"/>
       <c r="D6" s="48">
         <v>6300</v>
       </c>
-      <c r="E6" s="191" t="s">
+      <c r="E6" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="178"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="176"/>
+      <c r="C7" s="163"/>
       <c r="D7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="149"/>
+      <c r="F7" s="136"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B8" s="175" t="s">
+      <c r="B8" s="162" t="s">
         <v>342</v>
       </c>
-      <c r="C8" s="176"/>
+      <c r="C8" s="163"/>
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="176"/>
+      <c r="F8" s="163"/>
     </row>
     <row r="9" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="B9" s="168" t="s">
+      <c r="B9" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="C9" s="168"/>
+      <c r="C9" s="155"/>
       <c r="D9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="166" t="s">
+      <c r="E9" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="F9" s="167"/>
+      <c r="F9" s="154"/>
       <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="168" t="s">
+      <c r="B10" s="155" t="s">
         <v>178</v>
       </c>
-      <c r="C10" s="168"/>
+      <c r="C10" s="155"/>
       <c r="D10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="166" t="s">
+      <c r="E10" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="F10" s="167"/>
+      <c r="F10" s="154"/>
       <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="B11" s="168" t="s">
+      <c r="B11" s="155" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="168"/>
+      <c r="C11" s="155"/>
       <c r="D11" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="166" t="s">
+      <c r="E11" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="F11" s="167"/>
+      <c r="F11" s="154"/>
       <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206" t="s">
+      <c r="A12" s="193" t="s">
         <v>345</v>
       </c>
-      <c r="B12" s="207"/>
-      <c r="C12" s="207"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="207"/>
-      <c r="F12" s="207"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="194"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
       <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -10473,292 +11463,292 @@
       <c r="A16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="194" t="s">
+      <c r="B16" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="194"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="6">
         <v>11000</v>
       </c>
-      <c r="E16" s="191" t="s">
+      <c r="E16" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="191"/>
+      <c r="F16" s="178"/>
     </row>
     <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="194"/>
+      <c r="C17" s="181"/>
       <c r="D17" s="6">
         <v>6000</v>
       </c>
-      <c r="E17" s="194" t="s">
+      <c r="E17" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="194"/>
+      <c r="F17" s="181"/>
     </row>
     <row r="18" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="194" t="s">
+      <c r="B18" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="194"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="6">
         <v>3000</v>
       </c>
-      <c r="E18" s="194" t="s">
+      <c r="E18" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="194"/>
+      <c r="F18" s="181"/>
     </row>
     <row r="19" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="194" t="s">
+      <c r="B19" s="181" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="194"/>
+      <c r="C19" s="181"/>
       <c r="D19" s="6">
         <v>2500</v>
       </c>
-      <c r="E19" s="194" t="s">
+      <c r="E19" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="194"/>
+      <c r="F19" s="181"/>
     </row>
     <row r="20" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="194" t="s">
+      <c r="B20" s="181" t="s">
         <v>316</v>
       </c>
-      <c r="C20" s="194"/>
+      <c r="C20" s="181"/>
       <c r="D20" s="6">
         <v>11000</v>
       </c>
-      <c r="E20" s="191" t="s">
+      <c r="E20" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="191"/>
+      <c r="F20" s="178"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="176"/>
+      <c r="C21" s="163"/>
       <c r="D21" s="6">
         <v>3000</v>
       </c>
-      <c r="E21" s="148" t="s">
+      <c r="E21" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="149"/>
+      <c r="F21" s="136"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="194" t="s">
+      <c r="B22" s="181" t="s">
         <v>108</v>
       </c>
-      <c r="C22" s="194"/>
+      <c r="C22" s="181"/>
       <c r="D22" s="6">
         <v>2300</v>
       </c>
-      <c r="E22" s="194" t="s">
+      <c r="E22" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="F22" s="194"/>
+      <c r="F22" s="181"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="162" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="176"/>
+      <c r="C23" s="163"/>
       <c r="D23" s="6">
         <v>2300</v>
       </c>
-      <c r="E23" s="148" t="s">
+      <c r="E23" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="149"/>
+      <c r="F23" s="136"/>
     </row>
     <row r="24" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="175" t="s">
+      <c r="B24" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="176"/>
+      <c r="C24" s="163"/>
       <c r="D24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="175" t="s">
+      <c r="E24" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="176"/>
+      <c r="F24" s="163"/>
       <c r="I24" s="39"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="176"/>
+      <c r="C25" s="163"/>
       <c r="D25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="175" t="s">
+      <c r="E25" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="176"/>
+      <c r="F25" s="163"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="175" t="s">
+      <c r="B26" s="162" t="s">
         <v>247</v>
       </c>
-      <c r="C26" s="176"/>
+      <c r="C26" s="163"/>
       <c r="D26" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="176"/>
+      <c r="F26" s="163"/>
     </row>
     <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="C27" s="176"/>
+      <c r="C27" s="163"/>
       <c r="D27" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="175" t="s">
+      <c r="E27" s="162" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="176"/>
+      <c r="F27" s="163"/>
       <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="175" t="s">
+      <c r="B28" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="176"/>
+      <c r="C28" s="163"/>
       <c r="D28" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="175" t="s">
+      <c r="E28" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="176"/>
+      <c r="F28" s="163"/>
       <c r="I28" s="39"/>
     </row>
     <row r="29" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="C29" s="176"/>
+      <c r="C29" s="163"/>
       <c r="D29" s="48">
         <v>3000</v>
       </c>
-      <c r="E29" s="191" t="s">
+      <c r="E29" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="191"/>
+      <c r="F29" s="178"/>
     </row>
     <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B30" s="175" t="s">
+      <c r="B30" s="162" t="s">
         <v>256</v>
       </c>
-      <c r="C30" s="176"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="E30" s="191" t="s">
+      <c r="E30" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="191"/>
+      <c r="F30" s="178"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="162" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="176"/>
+      <c r="C31" s="163"/>
       <c r="D31" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="175" t="s">
+      <c r="E31" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="176"/>
+      <c r="F31" s="163"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B32" s="175" t="s">
+      <c r="B32" s="162" t="s">
         <v>253</v>
       </c>
-      <c r="C32" s="176"/>
+      <c r="C32" s="163"/>
       <c r="D32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="175" t="s">
+      <c r="E32" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="176"/>
+      <c r="F32" s="163"/>
     </row>
     <row r="33" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="162" t="s">
         <v>201</v>
       </c>
-      <c r="C33" s="176"/>
+      <c r="C33" s="163"/>
       <c r="D33" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="177" t="s">
+      <c r="E33" s="164" t="s">
         <v>283</v>
       </c>
-      <c r="F33" s="178"/>
+      <c r="F33" s="165"/>
       <c r="I33" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -10768,14 +11758,14 @@
       <c r="B36" s="3">
         <v>45867</v>
       </c>
-      <c r="C36" s="199" t="s">
+      <c r="C36" s="186" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="199"/>
-      <c r="E36" s="205">
+      <c r="D36" s="186"/>
+      <c r="E36" s="192">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F36" s="205"/>
+      <c r="F36" s="192"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="28" t="s">
@@ -10798,158 +11788,158 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="193" t="s">
+      <c r="A38" s="180" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="193"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
+      <c r="B38" s="180"/>
+      <c r="C38" s="180"/>
+      <c r="D38" s="180"/>
+      <c r="E38" s="180"/>
+      <c r="F38" s="180"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B39" s="193" t="s">
+      <c r="B39" s="180" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="193"/>
+      <c r="C39" s="180"/>
       <c r="D39" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="193" t="s">
+      <c r="E39" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="F39" s="193"/>
+      <c r="F39" s="180"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="175" t="s">
+      <c r="B40" s="162" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="176"/>
+      <c r="C40" s="163"/>
       <c r="D40" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="175" t="s">
+      <c r="E40" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="176"/>
+      <c r="F40" s="163"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="175" t="s">
+      <c r="B41" s="162" t="s">
         <v>338</v>
       </c>
-      <c r="C41" s="176"/>
+      <c r="C41" s="163"/>
       <c r="D41" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="175" t="s">
+      <c r="E41" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="176"/>
+      <c r="F41" s="163"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="175" t="s">
+      <c r="B42" s="162" t="s">
         <v>337</v>
       </c>
-      <c r="C42" s="176"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="6">
         <v>3400</v>
       </c>
-      <c r="E42" s="148" t="s">
+      <c r="E42" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="F42" s="149"/>
+      <c r="F42" s="136"/>
     </row>
     <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B43" s="168" t="s">
+      <c r="B43" s="155" t="s">
         <v>191</v>
       </c>
-      <c r="C43" s="168"/>
+      <c r="C43" s="155"/>
       <c r="D43" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="166" t="s">
+      <c r="E43" s="153" t="s">
         <v>237</v>
       </c>
-      <c r="F43" s="167"/>
+      <c r="F43" s="154"/>
     </row>
     <row r="44" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="B44" s="168" t="s">
+      <c r="B44" s="155" t="s">
         <v>263</v>
       </c>
-      <c r="C44" s="168"/>
+      <c r="C44" s="155"/>
       <c r="D44" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E44" s="166" t="s">
+      <c r="E44" s="153" t="s">
         <v>262</v>
       </c>
-      <c r="F44" s="167"/>
+      <c r="F44" s="154"/>
     </row>
     <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B45" s="168" t="s">
+      <c r="B45" s="155" t="s">
         <v>239</v>
       </c>
-      <c r="C45" s="168"/>
+      <c r="C45" s="155"/>
       <c r="D45" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="166" t="s">
+      <c r="E45" s="153" t="s">
         <v>339</v>
       </c>
-      <c r="F45" s="167"/>
+      <c r="F45" s="154"/>
     </row>
     <row r="46" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="B46" s="168" t="s">
+      <c r="B46" s="155" t="s">
         <v>144</v>
       </c>
-      <c r="C46" s="168"/>
+      <c r="C46" s="155"/>
       <c r="D46" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E46" s="166" t="s">
+      <c r="E46" s="153" t="s">
         <v>238</v>
       </c>
-      <c r="F46" s="167"/>
+      <c r="F46" s="154"/>
     </row>
     <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B47" s="168" t="s">
+      <c r="B47" s="155" t="s">
         <v>250</v>
       </c>
-      <c r="C47" s="168"/>
+      <c r="C47" s="155"/>
       <c r="D47" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E47" s="166" t="s">
+      <c r="E47" s="153" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="167"/>
+      <c r="F47" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="77">
